--- a/project/report/OPPO手机照相效果客观测试报告.xlsx
+++ b/project/report/OPPO手机照相效果客观测试报告.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="348">
   <si>
     <t>Result:</t>
   </si>
@@ -6540,23 +6540,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7596,7 +7580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="445">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8316,26 +8300,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8361,6 +8336,72 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -8371,24 +8412,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -8418,43 +8441,10 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="21" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="21" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8466,59 +8456,20 @@
     <xf numFmtId="178" fontId="21" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8527,19 +8478,52 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8572,64 +8556,115 @@
     <xf numFmtId="10" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8646,121 +8681,70 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8771,20 +8755,71 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8811,57 +8846,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8886,6 +8870,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -8895,21 +8885,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8973,16 +8948,10 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11621,42 +11590,42 @@
       <c r="I2" s="78"/>
       <c r="J2" s="78"/>
       <c r="K2" s="79"/>
-      <c r="M2" s="235" t="s">
+      <c r="M2" s="244" t="s">
         <v>323</v>
       </c>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
-      <c r="Q2" s="236"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="236"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
     </row>
     <row r="3" spans="2:22" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B3" s="81"/>
-      <c r="C3" s="237" t="s">
+      <c r="C3" s="246" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
       <c r="K3" s="83"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="236"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="236"/>
-      <c r="R3" s="236"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="236"/>
-      <c r="U3" s="236"/>
-      <c r="V3" s="236"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="245"/>
+      <c r="P3" s="245"/>
+      <c r="Q3" s="245"/>
+      <c r="R3" s="245"/>
+      <c r="S3" s="245"/>
+      <c r="T3" s="245"/>
+      <c r="U3" s="245"/>
+      <c r="V3" s="245"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B4" s="81"/>
@@ -11669,16 +11638,16 @@
       <c r="I4" s="82"/>
       <c r="J4" s="82"/>
       <c r="K4" s="83"/>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="236"/>
-      <c r="Q4" s="236"/>
-      <c r="R4" s="236"/>
-      <c r="S4" s="236"/>
-      <c r="T4" s="236"/>
-      <c r="U4" s="236"/>
-      <c r="V4" s="236"/>
+      <c r="M4" s="245"/>
+      <c r="N4" s="245"/>
+      <c r="O4" s="245"/>
+      <c r="P4" s="245"/>
+      <c r="Q4" s="245"/>
+      <c r="R4" s="245"/>
+      <c r="S4" s="245"/>
+      <c r="T4" s="245"/>
+      <c r="U4" s="245"/>
+      <c r="V4" s="245"/>
     </row>
     <row r="5" spans="2:22" ht="18" x14ac:dyDescent="0.15">
       <c r="B5" s="81"/>
@@ -11699,16 +11668,16 @@
         <v>150</v>
       </c>
       <c r="K5" s="83"/>
-      <c r="M5" s="236"/>
-      <c r="N5" s="236"/>
-      <c r="O5" s="236"/>
-      <c r="P5" s="236"/>
-      <c r="Q5" s="236"/>
-      <c r="R5" s="236"/>
-      <c r="S5" s="236"/>
-      <c r="T5" s="236"/>
-      <c r="U5" s="236"/>
-      <c r="V5" s="236"/>
+      <c r="M5" s="245"/>
+      <c r="N5" s="245"/>
+      <c r="O5" s="245"/>
+      <c r="P5" s="245"/>
+      <c r="Q5" s="245"/>
+      <c r="R5" s="245"/>
+      <c r="S5" s="245"/>
+      <c r="T5" s="245"/>
+      <c r="U5" s="245"/>
+      <c r="V5" s="245"/>
     </row>
     <row r="6" spans="2:22" ht="18" x14ac:dyDescent="0.15">
       <c r="B6" s="81"/>
@@ -11721,27 +11690,27 @@
       <c r="I6" s="106"/>
       <c r="J6" s="106"/>
       <c r="K6" s="83"/>
-      <c r="M6" s="236"/>
-      <c r="N6" s="236"/>
-      <c r="O6" s="236"/>
-      <c r="P6" s="236"/>
-      <c r="Q6" s="236"/>
-      <c r="R6" s="236"/>
-      <c r="S6" s="236"/>
-      <c r="T6" s="236"/>
-      <c r="U6" s="236"/>
-      <c r="V6" s="236"/>
+      <c r="M6" s="245"/>
+      <c r="N6" s="245"/>
+      <c r="O6" s="245"/>
+      <c r="P6" s="245"/>
+      <c r="Q6" s="245"/>
+      <c r="R6" s="245"/>
+      <c r="S6" s="245"/>
+      <c r="T6" s="245"/>
+      <c r="U6" s="245"/>
+      <c r="V6" s="245"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B7" s="81"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="237" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="237"/>
       <c r="I7" s="115" t="str">
         <f>像素及分辨率!E9</f>
         <v>PASS</v>
@@ -11751,16 +11720,16 @@
         <v>FAIL</v>
       </c>
       <c r="K7" s="83"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="236"/>
-      <c r="O7" s="236"/>
-      <c r="P7" s="236"/>
-      <c r="Q7" s="236"/>
-      <c r="R7" s="236"/>
-      <c r="S7" s="236"/>
-      <c r="T7" s="236"/>
-      <c r="U7" s="236"/>
-      <c r="V7" s="236"/>
+      <c r="M7" s="245"/>
+      <c r="N7" s="245"/>
+      <c r="O7" s="245"/>
+      <c r="P7" s="245"/>
+      <c r="Q7" s="245"/>
+      <c r="R7" s="245"/>
+      <c r="S7" s="245"/>
+      <c r="T7" s="245"/>
+      <c r="U7" s="245"/>
+      <c r="V7" s="245"/>
     </row>
     <row r="8" spans="2:22" ht="18" x14ac:dyDescent="0.15">
       <c r="B8" s="81"/>
@@ -11773,27 +11742,27 @@
       <c r="I8" s="98"/>
       <c r="J8" s="98"/>
       <c r="K8" s="83"/>
-      <c r="M8" s="236"/>
-      <c r="N8" s="236"/>
-      <c r="O8" s="236"/>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="236"/>
-      <c r="R8" s="236"/>
-      <c r="S8" s="236"/>
-      <c r="T8" s="236"/>
-      <c r="U8" s="236"/>
-      <c r="V8" s="236"/>
+      <c r="M8" s="245"/>
+      <c r="N8" s="245"/>
+      <c r="O8" s="245"/>
+      <c r="P8" s="245"/>
+      <c r="Q8" s="245"/>
+      <c r="R8" s="245"/>
+      <c r="S8" s="245"/>
+      <c r="T8" s="245"/>
+      <c r="U8" s="245"/>
+      <c r="V8" s="245"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B9" s="81"/>
-      <c r="C9" s="238" t="s">
+      <c r="C9" s="237" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
-      <c r="G9" s="238"/>
-      <c r="H9" s="238"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="237"/>
       <c r="I9" s="116">
         <f>像素及分辨率!E34</f>
         <v>0</v>
@@ -11803,16 +11772,16 @@
         <v>0</v>
       </c>
       <c r="K9" s="83"/>
-      <c r="M9" s="236"/>
-      <c r="N9" s="236"/>
-      <c r="O9" s="236"/>
-      <c r="P9" s="236"/>
-      <c r="Q9" s="236"/>
-      <c r="R9" s="236"/>
-      <c r="S9" s="236"/>
-      <c r="T9" s="236"/>
-      <c r="U9" s="236"/>
-      <c r="V9" s="236"/>
+      <c r="M9" s="245"/>
+      <c r="N9" s="245"/>
+      <c r="O9" s="245"/>
+      <c r="P9" s="245"/>
+      <c r="Q9" s="245"/>
+      <c r="R9" s="245"/>
+      <c r="S9" s="245"/>
+      <c r="T9" s="245"/>
+      <c r="U9" s="245"/>
+      <c r="V9" s="245"/>
     </row>
     <row r="10" spans="2:22" ht="18" x14ac:dyDescent="0.15">
       <c r="B10" s="81"/>
@@ -11825,27 +11794,27 @@
       <c r="I10" s="98"/>
       <c r="J10" s="98"/>
       <c r="K10" s="83"/>
-      <c r="M10" s="236"/>
-      <c r="N10" s="236"/>
-      <c r="O10" s="236"/>
-      <c r="P10" s="236"/>
-      <c r="Q10" s="236"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="236"/>
-      <c r="T10" s="236"/>
-      <c r="U10" s="236"/>
-      <c r="V10" s="236"/>
+      <c r="M10" s="245"/>
+      <c r="N10" s="245"/>
+      <c r="O10" s="245"/>
+      <c r="P10" s="245"/>
+      <c r="Q10" s="245"/>
+      <c r="R10" s="245"/>
+      <c r="S10" s="245"/>
+      <c r="T10" s="245"/>
+      <c r="U10" s="245"/>
+      <c r="V10" s="245"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B11" s="81"/>
-      <c r="C11" s="238" t="s">
+      <c r="C11" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="238"/>
-      <c r="E11" s="238"/>
-      <c r="F11" s="238"/>
-      <c r="G11" s="238"/>
-      <c r="H11" s="238"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
       <c r="I11" s="97">
         <f>像素及分辨率!H47</f>
         <v>0</v>
@@ -11855,16 +11824,16 @@
         <v>0</v>
       </c>
       <c r="K11" s="83"/>
-      <c r="M11" s="236"/>
-      <c r="N11" s="236"/>
-      <c r="O11" s="236"/>
-      <c r="P11" s="236"/>
-      <c r="Q11" s="236"/>
-      <c r="R11" s="236"/>
-      <c r="S11" s="236"/>
-      <c r="T11" s="236"/>
-      <c r="U11" s="236"/>
-      <c r="V11" s="236"/>
+      <c r="M11" s="245"/>
+      <c r="N11" s="245"/>
+      <c r="O11" s="245"/>
+      <c r="P11" s="245"/>
+      <c r="Q11" s="245"/>
+      <c r="R11" s="245"/>
+      <c r="S11" s="245"/>
+      <c r="T11" s="245"/>
+      <c r="U11" s="245"/>
+      <c r="V11" s="245"/>
     </row>
     <row r="12" spans="2:22" ht="18" x14ac:dyDescent="0.15">
       <c r="B12" s="81"/>
@@ -11877,27 +11846,27 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="83"/>
-      <c r="M12" s="236"/>
-      <c r="N12" s="236"/>
-      <c r="O12" s="236"/>
-      <c r="P12" s="236"/>
-      <c r="Q12" s="236"/>
-      <c r="R12" s="236"/>
-      <c r="S12" s="236"/>
-      <c r="T12" s="236"/>
-      <c r="U12" s="236"/>
-      <c r="V12" s="236"/>
+      <c r="M12" s="245"/>
+      <c r="N12" s="245"/>
+      <c r="O12" s="245"/>
+      <c r="P12" s="245"/>
+      <c r="Q12" s="245"/>
+      <c r="R12" s="245"/>
+      <c r="S12" s="245"/>
+      <c r="T12" s="245"/>
+      <c r="U12" s="245"/>
+      <c r="V12" s="245"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B13" s="81"/>
-      <c r="C13" s="238" t="s">
+      <c r="C13" s="237" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="238"/>
-      <c r="E13" s="238"/>
-      <c r="F13" s="238"/>
-      <c r="G13" s="238"/>
-      <c r="H13" s="238"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="237"/>
       <c r="I13" s="97">
         <f>白平衡!F12</f>
         <v>0</v>
@@ -11907,16 +11876,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="83"/>
-      <c r="M13" s="236"/>
-      <c r="N13" s="236"/>
-      <c r="O13" s="236"/>
-      <c r="P13" s="236"/>
-      <c r="Q13" s="236"/>
-      <c r="R13" s="236"/>
-      <c r="S13" s="236"/>
-      <c r="T13" s="236"/>
-      <c r="U13" s="236"/>
-      <c r="V13" s="236"/>
+      <c r="M13" s="245"/>
+      <c r="N13" s="245"/>
+      <c r="O13" s="245"/>
+      <c r="P13" s="245"/>
+      <c r="Q13" s="245"/>
+      <c r="R13" s="245"/>
+      <c r="S13" s="245"/>
+      <c r="T13" s="245"/>
+      <c r="U13" s="245"/>
+      <c r="V13" s="245"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B14" s="81"/>
@@ -11935,16 +11904,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="83"/>
-      <c r="M14" s="236"/>
-      <c r="N14" s="236"/>
-      <c r="O14" s="236"/>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="236"/>
-      <c r="S14" s="236"/>
-      <c r="T14" s="236"/>
-      <c r="U14" s="236"/>
-      <c r="V14" s="236"/>
+      <c r="M14" s="245"/>
+      <c r="N14" s="245"/>
+      <c r="O14" s="245"/>
+      <c r="P14" s="245"/>
+      <c r="Q14" s="245"/>
+      <c r="R14" s="245"/>
+      <c r="S14" s="245"/>
+      <c r="T14" s="245"/>
+      <c r="U14" s="245"/>
+      <c r="V14" s="245"/>
     </row>
     <row r="15" spans="2:22" ht="18" x14ac:dyDescent="0.15">
       <c r="B15" s="81"/>
@@ -11957,27 +11926,27 @@
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
       <c r="K15" s="83"/>
-      <c r="M15" s="236"/>
-      <c r="N15" s="236"/>
-      <c r="O15" s="236"/>
-      <c r="P15" s="236"/>
-      <c r="Q15" s="236"/>
-      <c r="R15" s="236"/>
-      <c r="S15" s="236"/>
-      <c r="T15" s="236"/>
-      <c r="U15" s="236"/>
-      <c r="V15" s="236"/>
+      <c r="M15" s="245"/>
+      <c r="N15" s="245"/>
+      <c r="O15" s="245"/>
+      <c r="P15" s="245"/>
+      <c r="Q15" s="245"/>
+      <c r="R15" s="245"/>
+      <c r="S15" s="245"/>
+      <c r="T15" s="245"/>
+      <c r="U15" s="245"/>
+      <c r="V15" s="245"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B16" s="81"/>
-      <c r="C16" s="238" t="s">
+      <c r="C16" s="237" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="238"/>
-      <c r="E16" s="238"/>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
       <c r="I16" s="97">
         <f>动态范围!D9</f>
         <v>0</v>
@@ -11987,16 +11956,16 @@
         <v>0</v>
       </c>
       <c r="K16" s="83"/>
-      <c r="M16" s="236"/>
-      <c r="N16" s="236"/>
-      <c r="O16" s="236"/>
-      <c r="P16" s="236"/>
-      <c r="Q16" s="236"/>
-      <c r="R16" s="236"/>
-      <c r="S16" s="236"/>
-      <c r="T16" s="236"/>
-      <c r="U16" s="236"/>
-      <c r="V16" s="236"/>
+      <c r="M16" s="245"/>
+      <c r="N16" s="245"/>
+      <c r="O16" s="245"/>
+      <c r="P16" s="245"/>
+      <c r="Q16" s="245"/>
+      <c r="R16" s="245"/>
+      <c r="S16" s="245"/>
+      <c r="T16" s="245"/>
+      <c r="U16" s="245"/>
+      <c r="V16" s="245"/>
     </row>
     <row r="17" spans="2:22" ht="18" x14ac:dyDescent="0.15">
       <c r="B17" s="81"/>
@@ -12009,27 +11978,27 @@
       <c r="I17" s="98"/>
       <c r="J17" s="98"/>
       <c r="K17" s="83"/>
-      <c r="M17" s="236"/>
-      <c r="N17" s="236"/>
-      <c r="O17" s="236"/>
-      <c r="P17" s="236"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="236"/>
-      <c r="S17" s="236"/>
-      <c r="T17" s="236"/>
-      <c r="U17" s="236"/>
-      <c r="V17" s="236"/>
+      <c r="M17" s="245"/>
+      <c r="N17" s="245"/>
+      <c r="O17" s="245"/>
+      <c r="P17" s="245"/>
+      <c r="Q17" s="245"/>
+      <c r="R17" s="245"/>
+      <c r="S17" s="245"/>
+      <c r="T17" s="245"/>
+      <c r="U17" s="245"/>
+      <c r="V17" s="245"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B18" s="81"/>
-      <c r="C18" s="238" t="s">
+      <c r="C18" s="237" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="238"/>
-      <c r="E18" s="238"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="238"/>
-      <c r="H18" s="238"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="237"/>
+      <c r="F18" s="237"/>
+      <c r="G18" s="237"/>
+      <c r="H18" s="237"/>
       <c r="I18" s="97">
         <f>色彩还原误差与饱和度!E15</f>
         <v>0</v>
@@ -12039,16 +12008,16 @@
         <v>0</v>
       </c>
       <c r="K18" s="83"/>
-      <c r="M18" s="236"/>
-      <c r="N18" s="236"/>
-      <c r="O18" s="236"/>
-      <c r="P18" s="236"/>
-      <c r="Q18" s="236"/>
-      <c r="R18" s="236"/>
-      <c r="S18" s="236"/>
-      <c r="T18" s="236"/>
-      <c r="U18" s="236"/>
-      <c r="V18" s="236"/>
+      <c r="M18" s="245"/>
+      <c r="N18" s="245"/>
+      <c r="O18" s="245"/>
+      <c r="P18" s="245"/>
+      <c r="Q18" s="245"/>
+      <c r="R18" s="245"/>
+      <c r="S18" s="245"/>
+      <c r="T18" s="245"/>
+      <c r="U18" s="245"/>
+      <c r="V18" s="245"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B19" s="81"/>
@@ -12061,27 +12030,27 @@
       <c r="I19" s="97"/>
       <c r="J19" s="97"/>
       <c r="K19" s="83"/>
-      <c r="M19" s="236"/>
-      <c r="N19" s="236"/>
-      <c r="O19" s="236"/>
-      <c r="P19" s="236"/>
-      <c r="Q19" s="236"/>
-      <c r="R19" s="236"/>
-      <c r="S19" s="236"/>
-      <c r="T19" s="236"/>
-      <c r="U19" s="236"/>
-      <c r="V19" s="236"/>
+      <c r="M19" s="245"/>
+      <c r="N19" s="245"/>
+      <c r="O19" s="245"/>
+      <c r="P19" s="245"/>
+      <c r="Q19" s="245"/>
+      <c r="R19" s="245"/>
+      <c r="S19" s="245"/>
+      <c r="T19" s="245"/>
+      <c r="U19" s="245"/>
+      <c r="V19" s="245"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B20" s="81"/>
-      <c r="C20" s="238" t="s">
+      <c r="C20" s="237" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="238"/>
-      <c r="E20" s="238"/>
-      <c r="F20" s="238"/>
-      <c r="G20" s="238"/>
-      <c r="H20" s="238"/>
+      <c r="D20" s="237"/>
+      <c r="E20" s="237"/>
+      <c r="F20" s="237"/>
+      <c r="G20" s="237"/>
+      <c r="H20" s="237"/>
       <c r="I20" s="97">
         <f>色彩还原误差与饱和度!F51</f>
         <v>0</v>
@@ -12091,16 +12060,16 @@
         <v>0</v>
       </c>
       <c r="K20" s="83"/>
-      <c r="M20" s="236"/>
-      <c r="N20" s="236"/>
-      <c r="O20" s="236"/>
-      <c r="P20" s="236"/>
-      <c r="Q20" s="236"/>
-      <c r="R20" s="236"/>
-      <c r="S20" s="236"/>
-      <c r="T20" s="236"/>
-      <c r="U20" s="236"/>
-      <c r="V20" s="236"/>
+      <c r="M20" s="245"/>
+      <c r="N20" s="245"/>
+      <c r="O20" s="245"/>
+      <c r="P20" s="245"/>
+      <c r="Q20" s="245"/>
+      <c r="R20" s="245"/>
+      <c r="S20" s="245"/>
+      <c r="T20" s="245"/>
+      <c r="U20" s="245"/>
+      <c r="V20" s="245"/>
     </row>
     <row r="21" spans="2:22" ht="18" x14ac:dyDescent="0.15">
       <c r="B21" s="81"/>
@@ -12113,27 +12082,27 @@
       <c r="I21" s="98"/>
       <c r="J21" s="98"/>
       <c r="K21" s="83"/>
-      <c r="M21" s="236"/>
-      <c r="N21" s="236"/>
-      <c r="O21" s="236"/>
-      <c r="P21" s="236"/>
-      <c r="Q21" s="236"/>
-      <c r="R21" s="236"/>
-      <c r="S21" s="236"/>
-      <c r="T21" s="236"/>
-      <c r="U21" s="236"/>
-      <c r="V21" s="236"/>
+      <c r="M21" s="245"/>
+      <c r="N21" s="245"/>
+      <c r="O21" s="245"/>
+      <c r="P21" s="245"/>
+      <c r="Q21" s="245"/>
+      <c r="R21" s="245"/>
+      <c r="S21" s="245"/>
+      <c r="T21" s="245"/>
+      <c r="U21" s="245"/>
+      <c r="V21" s="245"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B22" s="81"/>
-      <c r="C22" s="238" t="s">
+      <c r="C22" s="237" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="238"/>
-      <c r="E22" s="238"/>
-      <c r="F22" s="238"/>
-      <c r="G22" s="238"/>
-      <c r="H22" s="238"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="237"/>
+      <c r="F22" s="237"/>
+      <c r="G22" s="237"/>
+      <c r="H22" s="237"/>
       <c r="I22" s="97">
         <f>像面亮度均匀度!D12</f>
         <v>0</v>
@@ -12143,16 +12112,16 @@
         <v>0</v>
       </c>
       <c r="K22" s="83"/>
-      <c r="M22" s="236"/>
-      <c r="N22" s="236"/>
-      <c r="O22" s="236"/>
-      <c r="P22" s="236"/>
-      <c r="Q22" s="236"/>
-      <c r="R22" s="236"/>
-      <c r="S22" s="236"/>
-      <c r="T22" s="236"/>
-      <c r="U22" s="236"/>
-      <c r="V22" s="236"/>
+      <c r="M22" s="245"/>
+      <c r="N22" s="245"/>
+      <c r="O22" s="245"/>
+      <c r="P22" s="245"/>
+      <c r="Q22" s="245"/>
+      <c r="R22" s="245"/>
+      <c r="S22" s="245"/>
+      <c r="T22" s="245"/>
+      <c r="U22" s="245"/>
+      <c r="V22" s="245"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B23" s="81"/>
@@ -12165,27 +12134,27 @@
       <c r="I23" s="97"/>
       <c r="J23" s="97"/>
       <c r="K23" s="83"/>
-      <c r="M23" s="236"/>
-      <c r="N23" s="236"/>
-      <c r="O23" s="236"/>
-      <c r="P23" s="236"/>
-      <c r="Q23" s="236"/>
-      <c r="R23" s="236"/>
-      <c r="S23" s="236"/>
-      <c r="T23" s="236"/>
-      <c r="U23" s="236"/>
-      <c r="V23" s="236"/>
+      <c r="M23" s="245"/>
+      <c r="N23" s="245"/>
+      <c r="O23" s="245"/>
+      <c r="P23" s="245"/>
+      <c r="Q23" s="245"/>
+      <c r="R23" s="245"/>
+      <c r="S23" s="245"/>
+      <c r="T23" s="245"/>
+      <c r="U23" s="245"/>
+      <c r="V23" s="245"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B24" s="81"/>
-      <c r="C24" s="238" t="s">
+      <c r="C24" s="237" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="238"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="238"/>
-      <c r="G24" s="238"/>
-      <c r="H24" s="238"/>
+      <c r="D24" s="237"/>
+      <c r="E24" s="237"/>
+      <c r="F24" s="237"/>
+      <c r="G24" s="237"/>
+      <c r="H24" s="237"/>
       <c r="I24" s="97" t="e">
         <f>像面色彩均匀度!F20</f>
         <v>#DIV/0!</v>
@@ -12195,16 +12164,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="83"/>
-      <c r="M24" s="236"/>
-      <c r="N24" s="236"/>
-      <c r="O24" s="236"/>
-      <c r="P24" s="236"/>
-      <c r="Q24" s="236"/>
-      <c r="R24" s="236"/>
-      <c r="S24" s="236"/>
-      <c r="T24" s="236"/>
-      <c r="U24" s="236"/>
-      <c r="V24" s="236"/>
+      <c r="M24" s="245"/>
+      <c r="N24" s="245"/>
+      <c r="O24" s="245"/>
+      <c r="P24" s="245"/>
+      <c r="Q24" s="245"/>
+      <c r="R24" s="245"/>
+      <c r="S24" s="245"/>
+      <c r="T24" s="245"/>
+      <c r="U24" s="245"/>
+      <c r="V24" s="245"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B25" s="81"/>
@@ -12217,27 +12186,27 @@
       <c r="I25" s="97"/>
       <c r="J25" s="97"/>
       <c r="K25" s="83"/>
-      <c r="M25" s="236"/>
-      <c r="N25" s="236"/>
-      <c r="O25" s="236"/>
-      <c r="P25" s="236"/>
-      <c r="Q25" s="236"/>
-      <c r="R25" s="236"/>
-      <c r="S25" s="236"/>
-      <c r="T25" s="236"/>
-      <c r="U25" s="236"/>
-      <c r="V25" s="236"/>
+      <c r="M25" s="245"/>
+      <c r="N25" s="245"/>
+      <c r="O25" s="245"/>
+      <c r="P25" s="245"/>
+      <c r="Q25" s="245"/>
+      <c r="R25" s="245"/>
+      <c r="S25" s="245"/>
+      <c r="T25" s="245"/>
+      <c r="U25" s="245"/>
+      <c r="V25" s="245"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B26" s="81"/>
-      <c r="C26" s="238" t="s">
+      <c r="C26" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="238"/>
-      <c r="E26" s="238"/>
-      <c r="F26" s="238"/>
-      <c r="G26" s="238"/>
-      <c r="H26" s="238"/>
+      <c r="D26" s="237"/>
+      <c r="E26" s="237"/>
+      <c r="F26" s="237"/>
+      <c r="G26" s="237"/>
+      <c r="H26" s="237"/>
       <c r="I26" s="97">
         <f>'几何失真、帧频率与工频干扰'!F9</f>
         <v>0</v>
@@ -12247,49 +12216,49 @@
         <v>0</v>
       </c>
       <c r="K26" s="83"/>
-      <c r="M26" s="236"/>
-      <c r="N26" s="236"/>
-      <c r="O26" s="236"/>
-      <c r="P26" s="236"/>
-      <c r="Q26" s="236"/>
-      <c r="R26" s="236"/>
-      <c r="S26" s="236"/>
-      <c r="T26" s="236"/>
-      <c r="U26" s="236"/>
-      <c r="V26" s="236"/>
+      <c r="M26" s="245"/>
+      <c r="N26" s="245"/>
+      <c r="O26" s="245"/>
+      <c r="P26" s="245"/>
+      <c r="Q26" s="245"/>
+      <c r="R26" s="245"/>
+      <c r="S26" s="245"/>
+      <c r="T26" s="245"/>
+      <c r="U26" s="245"/>
+      <c r="V26" s="245"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B27" s="81"/>
-      <c r="C27" s="238"/>
-      <c r="D27" s="238"/>
-      <c r="E27" s="238"/>
-      <c r="F27" s="238"/>
-      <c r="G27" s="238"/>
-      <c r="H27" s="238"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="237"/>
+      <c r="E27" s="237"/>
+      <c r="F27" s="237"/>
+      <c r="G27" s="237"/>
+      <c r="H27" s="237"/>
       <c r="I27" s="97"/>
       <c r="J27" s="97"/>
       <c r="K27" s="83"/>
-      <c r="M27" s="236"/>
-      <c r="N27" s="236"/>
-      <c r="O27" s="236"/>
-      <c r="P27" s="236"/>
-      <c r="Q27" s="236"/>
-      <c r="R27" s="236"/>
-      <c r="S27" s="236"/>
-      <c r="T27" s="236"/>
-      <c r="U27" s="236"/>
-      <c r="V27" s="236"/>
+      <c r="M27" s="245"/>
+      <c r="N27" s="245"/>
+      <c r="O27" s="245"/>
+      <c r="P27" s="245"/>
+      <c r="Q27" s="245"/>
+      <c r="R27" s="245"/>
+      <c r="S27" s="245"/>
+      <c r="T27" s="245"/>
+      <c r="U27" s="245"/>
+      <c r="V27" s="245"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B28" s="81"/>
-      <c r="C28" s="238" t="s">
+      <c r="C28" s="237" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="238"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="238"/>
+      <c r="D28" s="237"/>
+      <c r="E28" s="237"/>
+      <c r="F28" s="237"/>
+      <c r="G28" s="237"/>
+      <c r="H28" s="237"/>
       <c r="I28" s="97">
         <f>'几何失真、帧频率与工频干扰'!F30</f>
         <v>0</v>
@@ -12299,49 +12268,49 @@
         <v>0</v>
       </c>
       <c r="K28" s="83"/>
-      <c r="M28" s="236"/>
-      <c r="N28" s="236"/>
-      <c r="O28" s="236"/>
-      <c r="P28" s="236"/>
-      <c r="Q28" s="236"/>
-      <c r="R28" s="236"/>
-      <c r="S28" s="236"/>
-      <c r="T28" s="236"/>
-      <c r="U28" s="236"/>
-      <c r="V28" s="236"/>
+      <c r="M28" s="245"/>
+      <c r="N28" s="245"/>
+      <c r="O28" s="245"/>
+      <c r="P28" s="245"/>
+      <c r="Q28" s="245"/>
+      <c r="R28" s="245"/>
+      <c r="S28" s="245"/>
+      <c r="T28" s="245"/>
+      <c r="U28" s="245"/>
+      <c r="V28" s="245"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B29" s="81"/>
-      <c r="C29" s="238"/>
-      <c r="D29" s="238"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="238"/>
-      <c r="G29" s="238"/>
-      <c r="H29" s="238"/>
+      <c r="C29" s="237"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="237"/>
+      <c r="G29" s="237"/>
+      <c r="H29" s="237"/>
       <c r="I29" s="97"/>
       <c r="J29" s="97"/>
       <c r="K29" s="83"/>
-      <c r="M29" s="236"/>
-      <c r="N29" s="236"/>
-      <c r="O29" s="236"/>
-      <c r="P29" s="236"/>
-      <c r="Q29" s="236"/>
-      <c r="R29" s="236"/>
-      <c r="S29" s="236"/>
-      <c r="T29" s="236"/>
-      <c r="U29" s="236"/>
-      <c r="V29" s="236"/>
+      <c r="M29" s="245"/>
+      <c r="N29" s="245"/>
+      <c r="O29" s="245"/>
+      <c r="P29" s="245"/>
+      <c r="Q29" s="245"/>
+      <c r="R29" s="245"/>
+      <c r="S29" s="245"/>
+      <c r="T29" s="245"/>
+      <c r="U29" s="245"/>
+      <c r="V29" s="245"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B30" s="81"/>
-      <c r="C30" s="238" t="s">
+      <c r="C30" s="237" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="238"/>
-      <c r="E30" s="238"/>
-      <c r="F30" s="238"/>
-      <c r="G30" s="238"/>
-      <c r="H30" s="238"/>
+      <c r="D30" s="237"/>
+      <c r="E30" s="237"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
       <c r="I30" s="97">
         <f>'几何失真、帧频率与工频干扰'!D48</f>
         <v>0</v>
@@ -12351,49 +12320,49 @@
         <v>0</v>
       </c>
       <c r="K30" s="83"/>
-      <c r="M30" s="236"/>
-      <c r="N30" s="236"/>
-      <c r="O30" s="236"/>
-      <c r="P30" s="236"/>
-      <c r="Q30" s="236"/>
-      <c r="R30" s="236"/>
-      <c r="S30" s="236"/>
-      <c r="T30" s="236"/>
-      <c r="U30" s="236"/>
-      <c r="V30" s="236"/>
+      <c r="M30" s="245"/>
+      <c r="N30" s="245"/>
+      <c r="O30" s="245"/>
+      <c r="P30" s="245"/>
+      <c r="Q30" s="245"/>
+      <c r="R30" s="245"/>
+      <c r="S30" s="245"/>
+      <c r="T30" s="245"/>
+      <c r="U30" s="245"/>
+      <c r="V30" s="245"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B31" s="81"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="238"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="238"/>
-      <c r="H31" s="238"/>
+      <c r="C31" s="237"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="237"/>
+      <c r="G31" s="237"/>
+      <c r="H31" s="237"/>
       <c r="I31" s="97"/>
       <c r="J31" s="97"/>
       <c r="K31" s="83"/>
-      <c r="M31" s="236"/>
-      <c r="N31" s="236"/>
-      <c r="O31" s="236"/>
-      <c r="P31" s="236"/>
-      <c r="Q31" s="236"/>
-      <c r="R31" s="236"/>
-      <c r="S31" s="236"/>
-      <c r="T31" s="236"/>
-      <c r="U31" s="236"/>
-      <c r="V31" s="236"/>
+      <c r="M31" s="245"/>
+      <c r="N31" s="245"/>
+      <c r="O31" s="245"/>
+      <c r="P31" s="245"/>
+      <c r="Q31" s="245"/>
+      <c r="R31" s="245"/>
+      <c r="S31" s="245"/>
+      <c r="T31" s="245"/>
+      <c r="U31" s="245"/>
+      <c r="V31" s="245"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B32" s="81"/>
-      <c r="C32" s="238" t="s">
+      <c r="C32" s="237" t="s">
         <v>164</v>
       </c>
-      <c r="D32" s="238"/>
-      <c r="E32" s="238"/>
-      <c r="F32" s="238"/>
-      <c r="G32" s="238"/>
-      <c r="H32" s="238"/>
+      <c r="D32" s="237"/>
+      <c r="E32" s="237"/>
+      <c r="F32" s="237"/>
+      <c r="G32" s="237"/>
+      <c r="H32" s="237"/>
       <c r="I32" s="97">
         <f>纹理细节与视觉噪声!D14</f>
         <v>0</v>
@@ -12403,49 +12372,49 @@
         <v>0</v>
       </c>
       <c r="K32" s="83"/>
-      <c r="M32" s="236"/>
-      <c r="N32" s="236"/>
-      <c r="O32" s="236"/>
-      <c r="P32" s="236"/>
-      <c r="Q32" s="236"/>
-      <c r="R32" s="236"/>
-      <c r="S32" s="236"/>
-      <c r="T32" s="236"/>
-      <c r="U32" s="236"/>
-      <c r="V32" s="236"/>
+      <c r="M32" s="245"/>
+      <c r="N32" s="245"/>
+      <c r="O32" s="245"/>
+      <c r="P32" s="245"/>
+      <c r="Q32" s="245"/>
+      <c r="R32" s="245"/>
+      <c r="S32" s="245"/>
+      <c r="T32" s="245"/>
+      <c r="U32" s="245"/>
+      <c r="V32" s="245"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B33" s="81"/>
-      <c r="C33" s="238"/>
-      <c r="D33" s="238"/>
-      <c r="E33" s="238"/>
-      <c r="F33" s="238"/>
-      <c r="G33" s="238"/>
-      <c r="H33" s="238"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="237"/>
+      <c r="F33" s="237"/>
+      <c r="G33" s="237"/>
+      <c r="H33" s="237"/>
       <c r="I33" s="97"/>
       <c r="J33" s="97"/>
       <c r="K33" s="83"/>
-      <c r="M33" s="236"/>
-      <c r="N33" s="236"/>
-      <c r="O33" s="236"/>
-      <c r="P33" s="236"/>
-      <c r="Q33" s="236"/>
-      <c r="R33" s="236"/>
-      <c r="S33" s="236"/>
-      <c r="T33" s="236"/>
-      <c r="U33" s="236"/>
-      <c r="V33" s="236"/>
+      <c r="M33" s="245"/>
+      <c r="N33" s="245"/>
+      <c r="O33" s="245"/>
+      <c r="P33" s="245"/>
+      <c r="Q33" s="245"/>
+      <c r="R33" s="245"/>
+      <c r="S33" s="245"/>
+      <c r="T33" s="245"/>
+      <c r="U33" s="245"/>
+      <c r="V33" s="245"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B34" s="81"/>
-      <c r="C34" s="238" t="s">
+      <c r="C34" s="237" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="238"/>
-      <c r="E34" s="238"/>
-      <c r="F34" s="238"/>
-      <c r="G34" s="238"/>
-      <c r="H34" s="238"/>
+      <c r="D34" s="237"/>
+      <c r="E34" s="237"/>
+      <c r="F34" s="237"/>
+      <c r="G34" s="237"/>
+      <c r="H34" s="237"/>
       <c r="I34" s="97">
         <f>纹理细节与视觉噪声!D27</f>
         <v>0</v>
@@ -12455,16 +12424,16 @@
         <v>0</v>
       </c>
       <c r="K34" s="83"/>
-      <c r="M34" s="236"/>
-      <c r="N34" s="236"/>
-      <c r="O34" s="236"/>
-      <c r="P34" s="236"/>
-      <c r="Q34" s="236"/>
-      <c r="R34" s="236"/>
-      <c r="S34" s="236"/>
-      <c r="T34" s="236"/>
-      <c r="U34" s="236"/>
-      <c r="V34" s="236"/>
+      <c r="M34" s="245"/>
+      <c r="N34" s="245"/>
+      <c r="O34" s="245"/>
+      <c r="P34" s="245"/>
+      <c r="Q34" s="245"/>
+      <c r="R34" s="245"/>
+      <c r="S34" s="245"/>
+      <c r="T34" s="245"/>
+      <c r="U34" s="245"/>
+      <c r="V34" s="245"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B35" s="81"/>
@@ -12477,27 +12446,27 @@
       <c r="I35" s="97"/>
       <c r="J35" s="97"/>
       <c r="K35" s="83"/>
-      <c r="M35" s="236"/>
-      <c r="N35" s="236"/>
-      <c r="O35" s="236"/>
-      <c r="P35" s="236"/>
-      <c r="Q35" s="236"/>
-      <c r="R35" s="236"/>
-      <c r="S35" s="236"/>
-      <c r="T35" s="236"/>
-      <c r="U35" s="236"/>
-      <c r="V35" s="236"/>
+      <c r="M35" s="245"/>
+      <c r="N35" s="245"/>
+      <c r="O35" s="245"/>
+      <c r="P35" s="245"/>
+      <c r="Q35" s="245"/>
+      <c r="R35" s="245"/>
+      <c r="S35" s="245"/>
+      <c r="T35" s="245"/>
+      <c r="U35" s="245"/>
+      <c r="V35" s="245"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B36" s="81"/>
-      <c r="C36" s="238" t="s">
+      <c r="C36" s="237" t="s">
         <v>268</v>
       </c>
-      <c r="D36" s="238"/>
-      <c r="E36" s="238"/>
-      <c r="F36" s="238"/>
-      <c r="G36" s="238"/>
-      <c r="H36" s="238"/>
+      <c r="D36" s="237"/>
+      <c r="E36" s="237"/>
+      <c r="F36" s="237"/>
+      <c r="G36" s="237"/>
+      <c r="H36" s="237"/>
       <c r="I36" s="97">
         <f>坏点及视场角!D13</f>
         <v>0</v>
@@ -12507,16 +12476,16 @@
         <v>0</v>
       </c>
       <c r="K36" s="83"/>
-      <c r="M36" s="236"/>
-      <c r="N36" s="236"/>
-      <c r="O36" s="236"/>
-      <c r="P36" s="236"/>
-      <c r="Q36" s="236"/>
-      <c r="R36" s="236"/>
-      <c r="S36" s="236"/>
-      <c r="T36" s="236"/>
-      <c r="U36" s="236"/>
-      <c r="V36" s="236"/>
+      <c r="M36" s="245"/>
+      <c r="N36" s="245"/>
+      <c r="O36" s="245"/>
+      <c r="P36" s="245"/>
+      <c r="Q36" s="245"/>
+      <c r="R36" s="245"/>
+      <c r="S36" s="245"/>
+      <c r="T36" s="245"/>
+      <c r="U36" s="245"/>
+      <c r="V36" s="245"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B37" s="81"/>
@@ -12529,27 +12498,27 @@
       <c r="I37" s="97"/>
       <c r="J37" s="97"/>
       <c r="K37" s="83"/>
-      <c r="M37" s="236"/>
-      <c r="N37" s="236"/>
-      <c r="O37" s="236"/>
-      <c r="P37" s="236"/>
-      <c r="Q37" s="236"/>
-      <c r="R37" s="236"/>
-      <c r="S37" s="236"/>
-      <c r="T37" s="236"/>
-      <c r="U37" s="236"/>
-      <c r="V37" s="236"/>
+      <c r="M37" s="245"/>
+      <c r="N37" s="245"/>
+      <c r="O37" s="245"/>
+      <c r="P37" s="245"/>
+      <c r="Q37" s="245"/>
+      <c r="R37" s="245"/>
+      <c r="S37" s="245"/>
+      <c r="T37" s="245"/>
+      <c r="U37" s="245"/>
+      <c r="V37" s="245"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B38" s="81"/>
-      <c r="C38" s="238" t="s">
+      <c r="C38" s="237" t="s">
         <v>269</v>
       </c>
-      <c r="D38" s="238"/>
-      <c r="E38" s="238"/>
-      <c r="F38" s="238"/>
-      <c r="G38" s="238"/>
-      <c r="H38" s="238"/>
+      <c r="D38" s="237"/>
+      <c r="E38" s="237"/>
+      <c r="F38" s="237"/>
+      <c r="G38" s="237"/>
+      <c r="H38" s="237"/>
       <c r="I38" s="97">
         <f>坏点及视场角!D28</f>
         <v>0</v>
@@ -12559,16 +12528,16 @@
         <v>0</v>
       </c>
       <c r="K38" s="83"/>
-      <c r="M38" s="236"/>
-      <c r="N38" s="236"/>
-      <c r="O38" s="236"/>
-      <c r="P38" s="236"/>
-      <c r="Q38" s="236"/>
-      <c r="R38" s="236"/>
-      <c r="S38" s="236"/>
-      <c r="T38" s="236"/>
-      <c r="U38" s="236"/>
-      <c r="V38" s="236"/>
+      <c r="M38" s="245"/>
+      <c r="N38" s="245"/>
+      <c r="O38" s="245"/>
+      <c r="P38" s="245"/>
+      <c r="Q38" s="245"/>
+      <c r="R38" s="245"/>
+      <c r="S38" s="245"/>
+      <c r="T38" s="245"/>
+      <c r="U38" s="245"/>
+      <c r="V38" s="245"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B39" s="81"/>
@@ -12581,40 +12550,40 @@
       <c r="I39" s="97"/>
       <c r="J39" s="97"/>
       <c r="K39" s="83"/>
-      <c r="M39" s="236"/>
-      <c r="N39" s="236"/>
-      <c r="O39" s="236"/>
-      <c r="P39" s="236"/>
-      <c r="Q39" s="236"/>
-      <c r="R39" s="236"/>
-      <c r="S39" s="236"/>
-      <c r="T39" s="236"/>
-      <c r="U39" s="236"/>
-      <c r="V39" s="236"/>
+      <c r="M39" s="245"/>
+      <c r="N39" s="245"/>
+      <c r="O39" s="245"/>
+      <c r="P39" s="245"/>
+      <c r="Q39" s="245"/>
+      <c r="R39" s="245"/>
+      <c r="S39" s="245"/>
+      <c r="T39" s="245"/>
+      <c r="U39" s="245"/>
+      <c r="V39" s="245"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B40" s="81"/>
-      <c r="C40" s="238" t="s">
+      <c r="C40" s="237" t="s">
         <v>270</v>
       </c>
-      <c r="D40" s="238"/>
-      <c r="E40" s="238"/>
-      <c r="F40" s="238"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="238"/>
+      <c r="D40" s="237"/>
+      <c r="E40" s="237"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="237"/>
+      <c r="H40" s="237"/>
       <c r="I40" s="85"/>
       <c r="J40" s="85"/>
       <c r="K40" s="83"/>
-      <c r="M40" s="236"/>
-      <c r="N40" s="236"/>
-      <c r="O40" s="236"/>
-      <c r="P40" s="236"/>
-      <c r="Q40" s="236"/>
-      <c r="R40" s="236"/>
-      <c r="S40" s="236"/>
-      <c r="T40" s="236"/>
-      <c r="U40" s="236"/>
-      <c r="V40" s="236"/>
+      <c r="M40" s="245"/>
+      <c r="N40" s="245"/>
+      <c r="O40" s="245"/>
+      <c r="P40" s="245"/>
+      <c r="Q40" s="245"/>
+      <c r="R40" s="245"/>
+      <c r="S40" s="245"/>
+      <c r="T40" s="245"/>
+      <c r="U40" s="245"/>
+      <c r="V40" s="245"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B41" s="81"/>
@@ -12627,160 +12596,160 @@
       <c r="I41" s="84"/>
       <c r="J41" s="84"/>
       <c r="K41" s="83"/>
-      <c r="M41" s="236"/>
-      <c r="N41" s="236"/>
-      <c r="O41" s="236"/>
-      <c r="P41" s="236"/>
-      <c r="Q41" s="236"/>
-      <c r="R41" s="236"/>
-      <c r="S41" s="236"/>
-      <c r="T41" s="236"/>
-      <c r="U41" s="236"/>
-      <c r="V41" s="236"/>
+      <c r="M41" s="245"/>
+      <c r="N41" s="245"/>
+      <c r="O41" s="245"/>
+      <c r="P41" s="245"/>
+      <c r="Q41" s="245"/>
+      <c r="R41" s="245"/>
+      <c r="S41" s="245"/>
+      <c r="T41" s="245"/>
+      <c r="U41" s="245"/>
+      <c r="V41" s="245"/>
     </row>
     <row r="42" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="81"/>
-      <c r="C42" s="239" t="s">
+      <c r="C42" s="235" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="241"/>
-      <c r="E42" s="242"/>
-      <c r="F42" s="243"/>
-      <c r="G42" s="239" t="s">
+      <c r="D42" s="238"/>
+      <c r="E42" s="239"/>
+      <c r="F42" s="240"/>
+      <c r="G42" s="235" t="s">
         <v>182</v>
       </c>
-      <c r="H42" s="241"/>
-      <c r="I42" s="242"/>
-      <c r="J42" s="243"/>
+      <c r="H42" s="238"/>
+      <c r="I42" s="239"/>
+      <c r="J42" s="240"/>
       <c r="K42" s="83"/>
-      <c r="M42" s="236"/>
-      <c r="N42" s="236"/>
-      <c r="O42" s="236"/>
-      <c r="P42" s="236"/>
-      <c r="Q42" s="236"/>
-      <c r="R42" s="236"/>
-      <c r="S42" s="236"/>
-      <c r="T42" s="236"/>
-      <c r="U42" s="236"/>
-      <c r="V42" s="236"/>
+      <c r="M42" s="245"/>
+      <c r="N42" s="245"/>
+      <c r="O42" s="245"/>
+      <c r="P42" s="245"/>
+      <c r="Q42" s="245"/>
+      <c r="R42" s="245"/>
+      <c r="S42" s="245"/>
+      <c r="T42" s="245"/>
+      <c r="U42" s="245"/>
+      <c r="V42" s="245"/>
     </row>
     <row r="43" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="81"/>
-      <c r="C43" s="240"/>
-      <c r="D43" s="244"/>
-      <c r="E43" s="245"/>
-      <c r="F43" s="246"/>
-      <c r="G43" s="240"/>
-      <c r="H43" s="244"/>
-      <c r="I43" s="245"/>
-      <c r="J43" s="246"/>
+      <c r="C43" s="236"/>
+      <c r="D43" s="241"/>
+      <c r="E43" s="242"/>
+      <c r="F43" s="243"/>
+      <c r="G43" s="236"/>
+      <c r="H43" s="241"/>
+      <c r="I43" s="242"/>
+      <c r="J43" s="243"/>
       <c r="K43" s="83"/>
-      <c r="M43" s="236"/>
-      <c r="N43" s="236"/>
-      <c r="O43" s="236"/>
-      <c r="P43" s="236"/>
-      <c r="Q43" s="236"/>
-      <c r="R43" s="236"/>
-      <c r="S43" s="236"/>
-      <c r="T43" s="236"/>
-      <c r="U43" s="236"/>
-      <c r="V43" s="236"/>
+      <c r="M43" s="245"/>
+      <c r="N43" s="245"/>
+      <c r="O43" s="245"/>
+      <c r="P43" s="245"/>
+      <c r="Q43" s="245"/>
+      <c r="R43" s="245"/>
+      <c r="S43" s="245"/>
+      <c r="T43" s="245"/>
+      <c r="U43" s="245"/>
+      <c r="V43" s="245"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B44" s="81"/>
-      <c r="C44" s="239" t="s">
+      <c r="C44" s="235" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="241"/>
-      <c r="E44" s="242"/>
-      <c r="F44" s="243"/>
-      <c r="G44" s="239" t="s">
+      <c r="D44" s="238"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="240"/>
+      <c r="G44" s="235" t="s">
         <v>184</v>
       </c>
-      <c r="H44" s="241"/>
-      <c r="I44" s="242"/>
-      <c r="J44" s="243"/>
+      <c r="H44" s="238"/>
+      <c r="I44" s="239"/>
+      <c r="J44" s="240"/>
       <c r="K44" s="83"/>
-      <c r="M44" s="236"/>
-      <c r="N44" s="236"/>
-      <c r="O44" s="236"/>
-      <c r="P44" s="236"/>
-      <c r="Q44" s="236"/>
-      <c r="R44" s="236"/>
-      <c r="S44" s="236"/>
-      <c r="T44" s="236"/>
-      <c r="U44" s="236"/>
-      <c r="V44" s="236"/>
+      <c r="M44" s="245"/>
+      <c r="N44" s="245"/>
+      <c r="O44" s="245"/>
+      <c r="P44" s="245"/>
+      <c r="Q44" s="245"/>
+      <c r="R44" s="245"/>
+      <c r="S44" s="245"/>
+      <c r="T44" s="245"/>
+      <c r="U44" s="245"/>
+      <c r="V44" s="245"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B45" s="81"/>
-      <c r="C45" s="240"/>
-      <c r="D45" s="244"/>
-      <c r="E45" s="245"/>
-      <c r="F45" s="246"/>
-      <c r="G45" s="240"/>
-      <c r="H45" s="244"/>
-      <c r="I45" s="245"/>
-      <c r="J45" s="246"/>
+      <c r="C45" s="236"/>
+      <c r="D45" s="241"/>
+      <c r="E45" s="242"/>
+      <c r="F45" s="243"/>
+      <c r="G45" s="236"/>
+      <c r="H45" s="241"/>
+      <c r="I45" s="242"/>
+      <c r="J45" s="243"/>
       <c r="K45" s="83"/>
-      <c r="M45" s="236"/>
-      <c r="N45" s="236"/>
-      <c r="O45" s="236"/>
-      <c r="P45" s="236"/>
-      <c r="Q45" s="236"/>
-      <c r="R45" s="236"/>
-      <c r="S45" s="236"/>
-      <c r="T45" s="236"/>
-      <c r="U45" s="236"/>
-      <c r="V45" s="236"/>
+      <c r="M45" s="245"/>
+      <c r="N45" s="245"/>
+      <c r="O45" s="245"/>
+      <c r="P45" s="245"/>
+      <c r="Q45" s="245"/>
+      <c r="R45" s="245"/>
+      <c r="S45" s="245"/>
+      <c r="T45" s="245"/>
+      <c r="U45" s="245"/>
+      <c r="V45" s="245"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B46" s="81"/>
-      <c r="C46" s="239" t="s">
+      <c r="C46" s="235" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="241"/>
-      <c r="E46" s="242"/>
-      <c r="F46" s="243"/>
-      <c r="G46" s="239" t="s">
+      <c r="D46" s="238"/>
+      <c r="E46" s="239"/>
+      <c r="F46" s="240"/>
+      <c r="G46" s="235" t="s">
         <v>186</v>
       </c>
-      <c r="H46" s="241"/>
-      <c r="I46" s="242"/>
-      <c r="J46" s="243"/>
+      <c r="H46" s="238"/>
+      <c r="I46" s="239"/>
+      <c r="J46" s="240"/>
       <c r="K46" s="83"/>
-      <c r="M46" s="236"/>
-      <c r="N46" s="236"/>
-      <c r="O46" s="236"/>
-      <c r="P46" s="236"/>
-      <c r="Q46" s="236"/>
-      <c r="R46" s="236"/>
-      <c r="S46" s="236"/>
-      <c r="T46" s="236"/>
-      <c r="U46" s="236"/>
-      <c r="V46" s="236"/>
+      <c r="M46" s="245"/>
+      <c r="N46" s="245"/>
+      <c r="O46" s="245"/>
+      <c r="P46" s="245"/>
+      <c r="Q46" s="245"/>
+      <c r="R46" s="245"/>
+      <c r="S46" s="245"/>
+      <c r="T46" s="245"/>
+      <c r="U46" s="245"/>
+      <c r="V46" s="245"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B47" s="81"/>
-      <c r="C47" s="240"/>
-      <c r="D47" s="244"/>
-      <c r="E47" s="245"/>
-      <c r="F47" s="246"/>
-      <c r="G47" s="240"/>
-      <c r="H47" s="244"/>
-      <c r="I47" s="245"/>
-      <c r="J47" s="246"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="241"/>
+      <c r="E47" s="242"/>
+      <c r="F47" s="243"/>
+      <c r="G47" s="236"/>
+      <c r="H47" s="241"/>
+      <c r="I47" s="242"/>
+      <c r="J47" s="243"/>
       <c r="K47" s="83"/>
-      <c r="M47" s="236"/>
-      <c r="N47" s="236"/>
-      <c r="O47" s="236"/>
-      <c r="P47" s="236"/>
-      <c r="Q47" s="236"/>
-      <c r="R47" s="236"/>
-      <c r="S47" s="236"/>
-      <c r="T47" s="236"/>
-      <c r="U47" s="236"/>
-      <c r="V47" s="236"/>
+      <c r="M47" s="245"/>
+      <c r="N47" s="245"/>
+      <c r="O47" s="245"/>
+      <c r="P47" s="245"/>
+      <c r="Q47" s="245"/>
+      <c r="R47" s="245"/>
+      <c r="S47" s="245"/>
+      <c r="T47" s="245"/>
+      <c r="U47" s="245"/>
+      <c r="V47" s="245"/>
     </row>
     <row r="48" spans="2:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="86"/>
@@ -12793,16 +12762,16 @@
       <c r="I48" s="87"/>
       <c r="J48" s="87"/>
       <c r="K48" s="88"/>
-      <c r="M48" s="236"/>
-      <c r="N48" s="236"/>
-      <c r="O48" s="236"/>
-      <c r="P48" s="236"/>
-      <c r="Q48" s="236"/>
-      <c r="R48" s="236"/>
-      <c r="S48" s="236"/>
-      <c r="T48" s="236"/>
-      <c r="U48" s="236"/>
-      <c r="V48" s="236"/>
+      <c r="M48" s="245"/>
+      <c r="N48" s="245"/>
+      <c r="O48" s="245"/>
+      <c r="P48" s="245"/>
+      <c r="Q48" s="245"/>
+      <c r="R48" s="245"/>
+      <c r="S48" s="245"/>
+      <c r="T48" s="245"/>
+      <c r="U48" s="245"/>
+      <c r="V48" s="245"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C49" s="80" t="s">
@@ -12834,25 +12803,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="D44:F45"/>
-    <mergeCell ref="D46:F47"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
     <mergeCell ref="M2:V48"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C29:H29"/>
@@ -12869,6 +12819,25 @@
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D42:F43"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="D44:F45"/>
+    <mergeCell ref="D46:F47"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I7:J7 I9:J9 I11:J11 I13:J14 I16:J16 I18:J20 I22:J30 J22:J39 I34:J40 I31:I40">
@@ -12947,9 +12916,9 @@
       <c r="B3" s="412" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
       <c r="F3" s="413"/>
     </row>
     <row r="4" spans="2:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12961,10 +12930,10 @@
     </row>
     <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B5" s="7"/>
-      <c r="C5" s="268" t="s">
+      <c r="C5" s="261" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="268"/>
+      <c r="D5" s="261"/>
       <c r="E5" s="206"/>
       <c r="F5" s="8"/>
     </row>
@@ -13143,7 +13112,7 @@
     </row>
     <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="183"/>
-      <c r="C26" s="270" t="s">
+      <c r="C26" s="254" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="307"/>
@@ -13278,7 +13247,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13288,28 +13257,28 @@
     <col min="7" max="7" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="222"/>
-      <c r="C2" s="417" t="s">
+      <c r="C2" s="419" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="417"/>
-      <c r="E2" s="417"/>
-      <c r="F2" s="417"/>
+      <c r="D2" s="419"/>
+      <c r="E2" s="419"/>
+      <c r="F2" s="419"/>
       <c r="G2" s="223"/>
     </row>
-    <row r="3" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="224"/>
-      <c r="C3" s="418" t="s">
+      <c r="C3" s="420" t="s">
         <v>346</v>
       </c>
-      <c r="D3" s="419"/>
-      <c r="E3" s="419"/>
-      <c r="F3" s="419"/>
+      <c r="D3" s="421"/>
+      <c r="E3" s="421"/>
+      <c r="F3" s="421"/>
       <c r="G3" s="225"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="224"/>
       <c r="C4" s="230" t="s">
         <v>261</v>
@@ -13319,7 +13288,7 @@
       <c r="F4" s="221"/>
       <c r="G4" s="225"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="224"/>
       <c r="C5" s="231" t="s">
         <v>343</v>
@@ -13335,7 +13304,7 @@
       </c>
       <c r="G5" s="225"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="224"/>
       <c r="C6" s="229" t="s">
         <v>180</v>
@@ -13345,7 +13314,7 @@
       <c r="F6" s="220"/>
       <c r="G6" s="225"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="224"/>
       <c r="C7" s="229" t="s">
         <v>342</v>
@@ -13355,7 +13324,7 @@
       <c r="F7" s="220"/>
       <c r="G7" s="225"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="226"/>
       <c r="C8" s="227"/>
       <c r="D8" s="227"/>
@@ -13363,212 +13332,259 @@
       <c r="F8" s="227"/>
       <c r="G8" s="228"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
+      <c r="M10" s="221"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B11" s="232" t="s">
-        <v>350</v>
-      </c>
-      <c r="C11" s="420" t="s">
-        <v>351</v>
-      </c>
-      <c r="D11" s="421"/>
-      <c r="E11" s="421"/>
-      <c r="F11" s="421"/>
-      <c r="G11" s="422"/>
-      <c r="H11" s="232" t="s">
         <v>347</v>
       </c>
-      <c r="I11" s="232" t="s">
-        <v>348</v>
-      </c>
-      <c r="J11" s="232" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="234"/>
-      <c r="C12" s="446"/>
-      <c r="D12" s="447"/>
-      <c r="E12" s="447"/>
-      <c r="F12" s="447"/>
-      <c r="G12" s="448"/>
-      <c r="H12" s="233"/>
-      <c r="I12" s="233"/>
-      <c r="J12" s="233"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="234"/>
-      <c r="C13" s="446"/>
-      <c r="D13" s="447"/>
-      <c r="E13" s="447"/>
-      <c r="F13" s="447"/>
-      <c r="G13" s="448"/>
-      <c r="H13" s="233"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="233"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="234"/>
-      <c r="C14" s="446"/>
-      <c r="D14" s="447"/>
-      <c r="E14" s="447"/>
-      <c r="F14" s="447"/>
-      <c r="G14" s="448"/>
-      <c r="H14" s="233"/>
-      <c r="I14" s="233"/>
-      <c r="J14" s="233"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="234"/>
-      <c r="C15" s="446"/>
-      <c r="D15" s="447"/>
-      <c r="E15" s="447"/>
-      <c r="F15" s="447"/>
-      <c r="G15" s="448"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="233"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="234"/>
-      <c r="C16" s="446"/>
-      <c r="D16" s="447"/>
-      <c r="E16" s="447"/>
-      <c r="F16" s="447"/>
-      <c r="G16" s="448"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="233"/>
+      <c r="C11" s="232" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="232" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="232" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" s="443"/>
+      <c r="G11" s="443"/>
+      <c r="H11" s="443"/>
+      <c r="I11" s="443"/>
+      <c r="J11" s="443"/>
+      <c r="K11" s="221"/>
+      <c r="L11" s="221"/>
+      <c r="M11" s="221"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="220"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="444"/>
+      <c r="G12" s="444"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="221"/>
+      <c r="K12" s="221"/>
+      <c r="L12" s="221"/>
+      <c r="M12" s="221"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="220"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="444"/>
+      <c r="G13" s="444"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="221"/>
+      <c r="J13" s="221"/>
+      <c r="K13" s="221"/>
+      <c r="L13" s="221"/>
+      <c r="M13" s="221"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="220"/>
+      <c r="C14" s="233"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="444"/>
+      <c r="G14" s="444"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="221"/>
+      <c r="K14" s="221"/>
+      <c r="L14" s="221"/>
+      <c r="M14" s="221"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="220"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="444"/>
+      <c r="G15" s="444"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="221"/>
+      <c r="J15" s="221"/>
+      <c r="K15" s="221"/>
+      <c r="L15" s="221"/>
+      <c r="M15" s="221"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="220"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="444"/>
+      <c r="G16" s="444"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="221"/>
+      <c r="J16" s="221"/>
+      <c r="K16" s="221"/>
+      <c r="L16" s="221"/>
+      <c r="M16" s="221"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="234"/>
-      <c r="C17" s="446"/>
-      <c r="D17" s="447"/>
-      <c r="E17" s="447"/>
-      <c r="F17" s="447"/>
-      <c r="G17" s="448"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="233"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="444"/>
+      <c r="G17" s="444"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
+      <c r="K17" s="221"/>
+      <c r="L17" s="221"/>
+      <c r="M17" s="221"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="234"/>
-      <c r="C18" s="446"/>
-      <c r="D18" s="447"/>
-      <c r="E18" s="447"/>
-      <c r="F18" s="447"/>
-      <c r="G18" s="448"/>
-      <c r="H18" s="233"/>
-      <c r="I18" s="233"/>
-      <c r="J18" s="233"/>
+      <c r="B18" s="220"/>
+      <c r="C18" s="233"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="444"/>
+      <c r="G18" s="444"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="221"/>
+      <c r="J18" s="221"/>
+      <c r="K18" s="221"/>
+      <c r="L18" s="221"/>
+      <c r="M18" s="221"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="234"/>
-      <c r="C19" s="446"/>
-      <c r="D19" s="447"/>
-      <c r="E19" s="447"/>
-      <c r="F19" s="447"/>
-      <c r="G19" s="448"/>
-      <c r="H19" s="233"/>
-      <c r="I19" s="233"/>
-      <c r="J19" s="233"/>
+      <c r="B19" s="220"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="444"/>
+      <c r="G19" s="444"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="221"/>
+      <c r="J19" s="221"/>
+      <c r="K19" s="221"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="221"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="234"/>
-      <c r="C20" s="446"/>
-      <c r="D20" s="447"/>
-      <c r="E20" s="447"/>
-      <c r="F20" s="447"/>
-      <c r="G20" s="448"/>
-      <c r="H20" s="233"/>
-      <c r="I20" s="233"/>
-      <c r="J20" s="233"/>
+      <c r="B20" s="220"/>
+      <c r="C20" s="233"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="444"/>
+      <c r="G20" s="444"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="221"/>
+      <c r="J20" s="221"/>
+      <c r="K20" s="221"/>
+      <c r="L20" s="221"/>
+      <c r="M20" s="221"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="234"/>
-      <c r="C21" s="446"/>
-      <c r="D21" s="447"/>
-      <c r="E21" s="447"/>
-      <c r="F21" s="447"/>
-      <c r="G21" s="448"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="233"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="444"/>
+      <c r="G21" s="444"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="221"/>
+      <c r="K21" s="221"/>
+      <c r="L21" s="221"/>
+      <c r="M21" s="221"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="234"/>
-      <c r="C22" s="449"/>
-      <c r="D22" s="449"/>
-      <c r="E22" s="449"/>
-      <c r="F22" s="449"/>
-      <c r="G22" s="449"/>
-      <c r="H22" s="233"/>
-      <c r="I22" s="233"/>
-      <c r="J22" s="233"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="233"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="233"/>
+      <c r="F22" s="444"/>
+      <c r="G22" s="444"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="221"/>
+      <c r="J22" s="221"/>
+      <c r="K22" s="221"/>
+      <c r="L22" s="221"/>
+      <c r="M22" s="221"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B23" s="234"/>
-      <c r="C23" s="449"/>
-      <c r="D23" s="449"/>
-      <c r="E23" s="449"/>
-      <c r="F23" s="449"/>
-      <c r="G23" s="449"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="233"/>
+      <c r="B23" s="220"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="444"/>
+      <c r="G23" s="444"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="221"/>
+      <c r="K23" s="221"/>
+      <c r="L23" s="221"/>
+      <c r="M23" s="221"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="221"/>
-      <c r="B24" s="234"/>
-      <c r="C24" s="446"/>
-      <c r="D24" s="447"/>
-      <c r="E24" s="447"/>
-      <c r="F24" s="447"/>
-      <c r="G24" s="448"/>
-      <c r="H24" s="233"/>
-      <c r="I24" s="233"/>
-      <c r="J24" s="233"/>
+      <c r="B24" s="220"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="444"/>
+      <c r="G24" s="444"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
       <c r="K24" s="221"/>
       <c r="L24" s="221"/>
       <c r="M24" s="221"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="221"/>
-      <c r="B25" s="234"/>
-      <c r="C25" s="449"/>
-      <c r="D25" s="449"/>
-      <c r="E25" s="449"/>
-      <c r="F25" s="449"/>
-      <c r="G25" s="449"/>
-      <c r="H25" s="233"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="233"/>
+      <c r="B25" s="220"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="444"/>
+      <c r="G25" s="444"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
       <c r="K25" s="221"/>
       <c r="L25" s="221"/>
       <c r="M25" s="221"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="221"/>
-      <c r="B26" s="234"/>
-      <c r="C26" s="449"/>
-      <c r="D26" s="449"/>
-      <c r="E26" s="449"/>
-      <c r="F26" s="449"/>
-      <c r="G26" s="449"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="233"/>
+      <c r="B26" s="220"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="444"/>
+      <c r="G26" s="444"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
       <c r="K26" s="221"/>
       <c r="L26" s="221"/>
       <c r="M26" s="221"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="221"/>
-      <c r="B27" s="423"/>
-      <c r="C27" s="423"/>
-      <c r="D27" s="423"/>
-      <c r="E27" s="423"/>
-      <c r="F27" s="423"/>
-      <c r="G27" s="423"/>
+      <c r="B27" s="234"/>
+      <c r="C27" s="234"/>
+      <c r="D27" s="234"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="234"/>
+      <c r="G27" s="234"/>
       <c r="H27" s="221"/>
       <c r="I27" s="221"/>
       <c r="J27" s="221"/>
@@ -13578,12 +13594,12 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="221"/>
-      <c r="B28" s="423"/>
-      <c r="C28" s="423"/>
-      <c r="D28" s="423"/>
-      <c r="E28" s="423"/>
-      <c r="F28" s="423"/>
-      <c r="G28" s="423"/>
+      <c r="B28" s="234"/>
+      <c r="C28" s="234"/>
+      <c r="D28" s="234"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="234"/>
+      <c r="G28" s="234"/>
       <c r="H28" s="221"/>
       <c r="I28" s="221"/>
       <c r="J28" s="221"/>
@@ -13593,12 +13609,12 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="221"/>
-      <c r="B29" s="423"/>
-      <c r="C29" s="423"/>
-      <c r="D29" s="423"/>
-      <c r="E29" s="423"/>
-      <c r="F29" s="423"/>
-      <c r="G29" s="423"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="234"/>
       <c r="H29" s="221"/>
       <c r="I29" s="221"/>
       <c r="J29" s="221"/>
@@ -13608,12 +13624,12 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="221"/>
-      <c r="B30" s="423"/>
-      <c r="C30" s="423"/>
-      <c r="D30" s="423"/>
-      <c r="E30" s="423"/>
-      <c r="F30" s="423"/>
-      <c r="G30" s="423"/>
+      <c r="B30" s="234"/>
+      <c r="C30" s="234"/>
+      <c r="D30" s="234"/>
+      <c r="E30" s="234"/>
+      <c r="F30" s="234"/>
+      <c r="G30" s="234"/>
       <c r="H30" s="221"/>
       <c r="I30" s="221"/>
       <c r="J30" s="221"/>
@@ -13623,12 +13639,12 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="221"/>
-      <c r="B31" s="423"/>
-      <c r="C31" s="423"/>
-      <c r="D31" s="423"/>
-      <c r="E31" s="423"/>
-      <c r="F31" s="423"/>
-      <c r="G31" s="423"/>
+      <c r="B31" s="234"/>
+      <c r="C31" s="234"/>
+      <c r="D31" s="234"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="234"/>
+      <c r="G31" s="234"/>
       <c r="H31" s="221"/>
       <c r="I31" s="221"/>
       <c r="J31" s="221"/>
@@ -13638,12 +13654,12 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="221"/>
-      <c r="B32" s="423"/>
-      <c r="C32" s="423"/>
-      <c r="D32" s="423"/>
-      <c r="E32" s="423"/>
-      <c r="F32" s="423"/>
-      <c r="G32" s="423"/>
+      <c r="B32" s="234"/>
+      <c r="C32" s="234"/>
+      <c r="D32" s="234"/>
+      <c r="E32" s="234"/>
+      <c r="F32" s="234"/>
+      <c r="G32" s="234"/>
       <c r="H32" s="221"/>
       <c r="I32" s="221"/>
       <c r="J32" s="221"/>
@@ -13653,12 +13669,12 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="221"/>
-      <c r="B33" s="423"/>
-      <c r="C33" s="423"/>
-      <c r="D33" s="423"/>
-      <c r="E33" s="423"/>
-      <c r="F33" s="423"/>
-      <c r="G33" s="423"/>
+      <c r="B33" s="234"/>
+      <c r="C33" s="234"/>
+      <c r="D33" s="234"/>
+      <c r="E33" s="234"/>
+      <c r="F33" s="234"/>
+      <c r="G33" s="234"/>
       <c r="H33" s="221"/>
       <c r="I33" s="221"/>
       <c r="J33" s="221"/>
@@ -13668,12 +13684,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="221"/>
-      <c r="B34" s="423"/>
-      <c r="C34" s="423"/>
-      <c r="D34" s="423"/>
-      <c r="E34" s="423"/>
-      <c r="F34" s="423"/>
-      <c r="G34" s="423"/>
+      <c r="B34" s="234"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="234"/>
+      <c r="E34" s="234"/>
+      <c r="F34" s="234"/>
+      <c r="G34" s="234"/>
       <c r="H34" s="221"/>
       <c r="I34" s="221"/>
       <c r="J34" s="221"/>
@@ -13683,12 +13699,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="221"/>
-      <c r="B35" s="423"/>
-      <c r="C35" s="423"/>
-      <c r="D35" s="423"/>
-      <c r="E35" s="423"/>
-      <c r="F35" s="423"/>
-      <c r="G35" s="423"/>
+      <c r="B35" s="418"/>
+      <c r="C35" s="418"/>
+      <c r="D35" s="418"/>
+      <c r="E35" s="418"/>
+      <c r="F35" s="418"/>
+      <c r="G35" s="418"/>
       <c r="H35" s="221"/>
       <c r="I35" s="221"/>
       <c r="J35" s="221"/>
@@ -13698,12 +13714,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="221"/>
-      <c r="B36" s="423"/>
-      <c r="C36" s="423"/>
-      <c r="D36" s="423"/>
-      <c r="E36" s="423"/>
-      <c r="F36" s="423"/>
-      <c r="G36" s="423"/>
+      <c r="B36" s="418"/>
+      <c r="C36" s="418"/>
+      <c r="D36" s="418"/>
+      <c r="E36" s="418"/>
+      <c r="F36" s="418"/>
+      <c r="G36" s="418"/>
       <c r="H36" s="221"/>
       <c r="I36" s="221"/>
       <c r="J36" s="221"/>
@@ -13713,12 +13729,12 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="221"/>
-      <c r="B37" s="423"/>
-      <c r="C37" s="423"/>
-      <c r="D37" s="423"/>
-      <c r="E37" s="423"/>
-      <c r="F37" s="423"/>
-      <c r="G37" s="423"/>
+      <c r="B37" s="418"/>
+      <c r="C37" s="418"/>
+      <c r="D37" s="418"/>
+      <c r="E37" s="418"/>
+      <c r="F37" s="418"/>
+      <c r="G37" s="418"/>
       <c r="H37" s="221"/>
       <c r="I37" s="221"/>
       <c r="J37" s="221"/>
@@ -13728,12 +13744,12 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="221"/>
-      <c r="B38" s="423"/>
-      <c r="C38" s="423"/>
-      <c r="D38" s="423"/>
-      <c r="E38" s="423"/>
-      <c r="F38" s="423"/>
-      <c r="G38" s="423"/>
+      <c r="B38" s="418"/>
+      <c r="C38" s="418"/>
+      <c r="D38" s="418"/>
+      <c r="E38" s="418"/>
+      <c r="F38" s="418"/>
+      <c r="G38" s="418"/>
       <c r="H38" s="221"/>
       <c r="I38" s="221"/>
       <c r="J38" s="221"/>
@@ -13743,12 +13759,12 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="221"/>
-      <c r="B39" s="423"/>
-      <c r="C39" s="423"/>
-      <c r="D39" s="423"/>
-      <c r="E39" s="423"/>
-      <c r="F39" s="423"/>
-      <c r="G39" s="423"/>
+      <c r="B39" s="418"/>
+      <c r="C39" s="418"/>
+      <c r="D39" s="418"/>
+      <c r="E39" s="418"/>
+      <c r="F39" s="418"/>
+      <c r="G39" s="418"/>
       <c r="H39" s="221"/>
       <c r="I39" s="221"/>
       <c r="J39" s="221"/>
@@ -13758,12 +13774,12 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="221"/>
-      <c r="B40" s="423"/>
-      <c r="C40" s="423"/>
-      <c r="D40" s="423"/>
-      <c r="E40" s="423"/>
-      <c r="F40" s="423"/>
-      <c r="G40" s="423"/>
+      <c r="B40" s="418"/>
+      <c r="C40" s="418"/>
+      <c r="D40" s="418"/>
+      <c r="E40" s="418"/>
+      <c r="F40" s="418"/>
+      <c r="G40" s="418"/>
       <c r="H40" s="221"/>
       <c r="I40" s="221"/>
       <c r="J40" s="221"/>
@@ -13773,12 +13789,12 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="221"/>
-      <c r="B41" s="423"/>
-      <c r="C41" s="423"/>
-      <c r="D41" s="423"/>
-      <c r="E41" s="423"/>
-      <c r="F41" s="423"/>
-      <c r="G41" s="423"/>
+      <c r="B41" s="418"/>
+      <c r="C41" s="418"/>
+      <c r="D41" s="418"/>
+      <c r="E41" s="418"/>
+      <c r="F41" s="418"/>
+      <c r="G41" s="418"/>
       <c r="H41" s="221"/>
       <c r="I41" s="221"/>
       <c r="J41" s="221"/>
@@ -13788,12 +13804,12 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="221"/>
-      <c r="B42" s="423"/>
-      <c r="C42" s="423"/>
-      <c r="D42" s="423"/>
-      <c r="E42" s="423"/>
-      <c r="F42" s="423"/>
-      <c r="G42" s="423"/>
+      <c r="B42" s="418"/>
+      <c r="C42" s="418"/>
+      <c r="D42" s="418"/>
+      <c r="E42" s="418"/>
+      <c r="F42" s="418"/>
+      <c r="G42" s="418"/>
       <c r="H42" s="221"/>
       <c r="I42" s="221"/>
       <c r="J42" s="221"/>
@@ -13803,12 +13819,12 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="221"/>
-      <c r="B43" s="423"/>
-      <c r="C43" s="423"/>
-      <c r="D43" s="423"/>
-      <c r="E43" s="423"/>
-      <c r="F43" s="423"/>
-      <c r="G43" s="423"/>
+      <c r="B43" s="418"/>
+      <c r="C43" s="418"/>
+      <c r="D43" s="418"/>
+      <c r="E43" s="418"/>
+      <c r="F43" s="418"/>
+      <c r="G43" s="418"/>
       <c r="H43" s="221"/>
       <c r="I43" s="221"/>
       <c r="J43" s="221"/>
@@ -13818,12 +13834,12 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="221"/>
-      <c r="B44" s="423"/>
-      <c r="C44" s="423"/>
-      <c r="D44" s="423"/>
-      <c r="E44" s="423"/>
-      <c r="F44" s="423"/>
-      <c r="G44" s="423"/>
+      <c r="B44" s="418"/>
+      <c r="C44" s="418"/>
+      <c r="D44" s="418"/>
+      <c r="E44" s="418"/>
+      <c r="F44" s="418"/>
+      <c r="G44" s="418"/>
       <c r="H44" s="221"/>
       <c r="I44" s="221"/>
       <c r="J44" s="221"/>
@@ -13833,12 +13849,12 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="221"/>
-      <c r="B45" s="423"/>
-      <c r="C45" s="423"/>
-      <c r="D45" s="423"/>
-      <c r="E45" s="423"/>
-      <c r="F45" s="423"/>
-      <c r="G45" s="423"/>
+      <c r="B45" s="418"/>
+      <c r="C45" s="418"/>
+      <c r="D45" s="418"/>
+      <c r="E45" s="418"/>
+      <c r="F45" s="418"/>
+      <c r="G45" s="418"/>
       <c r="H45" s="221"/>
       <c r="I45" s="221"/>
       <c r="J45" s="221"/>
@@ -13848,12 +13864,12 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="221"/>
-      <c r="B46" s="423"/>
-      <c r="C46" s="423"/>
-      <c r="D46" s="423"/>
-      <c r="E46" s="423"/>
-      <c r="F46" s="423"/>
-      <c r="G46" s="423"/>
+      <c r="B46" s="418"/>
+      <c r="C46" s="418"/>
+      <c r="D46" s="418"/>
+      <c r="E46" s="418"/>
+      <c r="F46" s="418"/>
+      <c r="G46" s="418"/>
       <c r="H46" s="221"/>
       <c r="I46" s="221"/>
       <c r="J46" s="221"/>
@@ -13863,12 +13879,12 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="221"/>
-      <c r="B47" s="423"/>
-      <c r="C47" s="423"/>
-      <c r="D47" s="423"/>
-      <c r="E47" s="423"/>
-      <c r="F47" s="423"/>
-      <c r="G47" s="423"/>
+      <c r="B47" s="418"/>
+      <c r="C47" s="418"/>
+      <c r="D47" s="418"/>
+      <c r="E47" s="418"/>
+      <c r="F47" s="418"/>
+      <c r="G47" s="418"/>
       <c r="H47" s="221"/>
       <c r="I47" s="221"/>
       <c r="J47" s="221"/>
@@ -13878,12 +13894,12 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="221"/>
-      <c r="B48" s="423"/>
-      <c r="C48" s="423"/>
-      <c r="D48" s="423"/>
-      <c r="E48" s="423"/>
-      <c r="F48" s="423"/>
-      <c r="G48" s="423"/>
+      <c r="B48" s="418"/>
+      <c r="C48" s="418"/>
+      <c r="D48" s="418"/>
+      <c r="E48" s="418"/>
+      <c r="F48" s="418"/>
+      <c r="G48" s="418"/>
       <c r="H48" s="221"/>
       <c r="I48" s="221"/>
       <c r="J48" s="221"/>
@@ -13893,12 +13909,12 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="221"/>
-      <c r="B49" s="423"/>
-      <c r="C49" s="423"/>
-      <c r="D49" s="423"/>
-      <c r="E49" s="423"/>
-      <c r="F49" s="423"/>
-      <c r="G49" s="423"/>
+      <c r="B49" s="418"/>
+      <c r="C49" s="418"/>
+      <c r="D49" s="418"/>
+      <c r="E49" s="418"/>
+      <c r="F49" s="418"/>
+      <c r="G49" s="418"/>
       <c r="H49" s="221"/>
       <c r="I49" s="221"/>
       <c r="J49" s="221"/>
@@ -13908,12 +13924,12 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="221"/>
-      <c r="B50" s="423"/>
-      <c r="C50" s="423"/>
-      <c r="D50" s="423"/>
-      <c r="E50" s="423"/>
-      <c r="F50" s="423"/>
-      <c r="G50" s="423"/>
+      <c r="B50" s="418"/>
+      <c r="C50" s="418"/>
+      <c r="D50" s="418"/>
+      <c r="E50" s="418"/>
+      <c r="F50" s="418"/>
+      <c r="G50" s="418"/>
       <c r="H50" s="221"/>
       <c r="I50" s="221"/>
       <c r="J50" s="221"/>
@@ -13923,12 +13939,12 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="221"/>
-      <c r="B51" s="423"/>
-      <c r="C51" s="423"/>
-      <c r="D51" s="423"/>
-      <c r="E51" s="423"/>
-      <c r="F51" s="423"/>
-      <c r="G51" s="423"/>
+      <c r="B51" s="418"/>
+      <c r="C51" s="418"/>
+      <c r="D51" s="418"/>
+      <c r="E51" s="418"/>
+      <c r="F51" s="418"/>
+      <c r="G51" s="418"/>
       <c r="H51" s="221"/>
       <c r="I51" s="221"/>
       <c r="J51" s="221"/>
@@ -13938,12 +13954,12 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="221"/>
-      <c r="B52" s="423"/>
-      <c r="C52" s="423"/>
-      <c r="D52" s="423"/>
-      <c r="E52" s="423"/>
-      <c r="F52" s="423"/>
-      <c r="G52" s="423"/>
+      <c r="B52" s="418"/>
+      <c r="C52" s="418"/>
+      <c r="D52" s="418"/>
+      <c r="E52" s="418"/>
+      <c r="F52" s="418"/>
+      <c r="G52" s="418"/>
       <c r="H52" s="221"/>
       <c r="I52" s="221"/>
       <c r="J52" s="221"/>
@@ -13953,12 +13969,12 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="221"/>
-      <c r="B53" s="423"/>
-      <c r="C53" s="423"/>
-      <c r="D53" s="423"/>
-      <c r="E53" s="423"/>
-      <c r="F53" s="423"/>
-      <c r="G53" s="423"/>
+      <c r="B53" s="418"/>
+      <c r="C53" s="418"/>
+      <c r="D53" s="418"/>
+      <c r="E53" s="418"/>
+      <c r="F53" s="418"/>
+      <c r="G53" s="418"/>
       <c r="H53" s="221"/>
       <c r="I53" s="221"/>
       <c r="J53" s="221"/>
@@ -13968,12 +13984,12 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="221"/>
-      <c r="B54" s="423"/>
-      <c r="C54" s="423"/>
-      <c r="D54" s="423"/>
-      <c r="E54" s="423"/>
-      <c r="F54" s="423"/>
-      <c r="G54" s="423"/>
+      <c r="B54" s="418"/>
+      <c r="C54" s="418"/>
+      <c r="D54" s="418"/>
+      <c r="E54" s="418"/>
+      <c r="F54" s="418"/>
+      <c r="G54" s="418"/>
       <c r="H54" s="221"/>
       <c r="I54" s="221"/>
       <c r="J54" s="221"/>
@@ -13983,12 +13999,12 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="221"/>
-      <c r="B55" s="423"/>
-      <c r="C55" s="423"/>
-      <c r="D55" s="423"/>
-      <c r="E55" s="423"/>
-      <c r="F55" s="423"/>
-      <c r="G55" s="423"/>
+      <c r="B55" s="418"/>
+      <c r="C55" s="418"/>
+      <c r="D55" s="418"/>
+      <c r="E55" s="418"/>
+      <c r="F55" s="418"/>
+      <c r="G55" s="418"/>
       <c r="H55" s="221"/>
       <c r="I55" s="221"/>
       <c r="J55" s="221"/>
@@ -13998,12 +14014,12 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="221"/>
-      <c r="B56" s="423"/>
-      <c r="C56" s="423"/>
-      <c r="D56" s="423"/>
-      <c r="E56" s="423"/>
-      <c r="F56" s="423"/>
-      <c r="G56" s="423"/>
+      <c r="B56" s="418"/>
+      <c r="C56" s="418"/>
+      <c r="D56" s="418"/>
+      <c r="E56" s="418"/>
+      <c r="F56" s="418"/>
+      <c r="G56" s="418"/>
       <c r="H56" s="221"/>
       <c r="I56" s="221"/>
       <c r="J56" s="221"/>
@@ -14013,12 +14029,12 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="221"/>
-      <c r="B57" s="423"/>
-      <c r="C57" s="423"/>
-      <c r="D57" s="423"/>
-      <c r="E57" s="423"/>
-      <c r="F57" s="423"/>
-      <c r="G57" s="423"/>
+      <c r="B57" s="418"/>
+      <c r="C57" s="418"/>
+      <c r="D57" s="418"/>
+      <c r="E57" s="418"/>
+      <c r="F57" s="418"/>
+      <c r="G57" s="418"/>
       <c r="H57" s="221"/>
       <c r="I57" s="221"/>
       <c r="J57" s="221"/>
@@ -14028,12 +14044,12 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="221"/>
-      <c r="B58" s="423"/>
-      <c r="C58" s="423"/>
-      <c r="D58" s="423"/>
-      <c r="E58" s="423"/>
-      <c r="F58" s="423"/>
-      <c r="G58" s="423"/>
+      <c r="B58" s="418"/>
+      <c r="C58" s="418"/>
+      <c r="D58" s="418"/>
+      <c r="E58" s="418"/>
+      <c r="F58" s="418"/>
+      <c r="G58" s="418"/>
       <c r="H58" s="221"/>
       <c r="I58" s="221"/>
       <c r="J58" s="221"/>
@@ -14043,12 +14059,12 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="221"/>
-      <c r="B59" s="423"/>
-      <c r="C59" s="423"/>
-      <c r="D59" s="423"/>
-      <c r="E59" s="423"/>
-      <c r="F59" s="423"/>
-      <c r="G59" s="423"/>
+      <c r="B59" s="418"/>
+      <c r="C59" s="418"/>
+      <c r="D59" s="418"/>
+      <c r="E59" s="418"/>
+      <c r="F59" s="418"/>
+      <c r="G59" s="418"/>
       <c r="H59" s="221"/>
       <c r="I59" s="221"/>
       <c r="J59" s="221"/>
@@ -14058,12 +14074,12 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="221"/>
-      <c r="B60" s="423"/>
-      <c r="C60" s="423"/>
-      <c r="D60" s="423"/>
-      <c r="E60" s="423"/>
-      <c r="F60" s="423"/>
-      <c r="G60" s="423"/>
+      <c r="B60" s="418"/>
+      <c r="C60" s="418"/>
+      <c r="D60" s="418"/>
+      <c r="E60" s="418"/>
+      <c r="F60" s="418"/>
+      <c r="G60" s="418"/>
       <c r="H60" s="221"/>
       <c r="I60" s="221"/>
       <c r="J60" s="221"/>
@@ -14073,12 +14089,12 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="221"/>
-      <c r="B61" s="423"/>
-      <c r="C61" s="423"/>
-      <c r="D61" s="423"/>
-      <c r="E61" s="423"/>
-      <c r="F61" s="423"/>
-      <c r="G61" s="423"/>
+      <c r="B61" s="418"/>
+      <c r="C61" s="418"/>
+      <c r="D61" s="418"/>
+      <c r="E61" s="418"/>
+      <c r="F61" s="418"/>
+      <c r="G61" s="418"/>
       <c r="H61" s="221"/>
       <c r="I61" s="221"/>
       <c r="J61" s="221"/>
@@ -14088,12 +14104,12 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="221"/>
-      <c r="B62" s="423"/>
-      <c r="C62" s="423"/>
-      <c r="D62" s="423"/>
-      <c r="E62" s="423"/>
-      <c r="F62" s="423"/>
-      <c r="G62" s="423"/>
+      <c r="B62" s="418"/>
+      <c r="C62" s="418"/>
+      <c r="D62" s="418"/>
+      <c r="E62" s="418"/>
+      <c r="F62" s="418"/>
+      <c r="G62" s="418"/>
       <c r="H62" s="221"/>
       <c r="I62" s="221"/>
       <c r="J62" s="221"/>
@@ -14103,12 +14119,12 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="221"/>
-      <c r="B63" s="423"/>
-      <c r="C63" s="423"/>
-      <c r="D63" s="423"/>
-      <c r="E63" s="423"/>
-      <c r="F63" s="423"/>
-      <c r="G63" s="423"/>
+      <c r="B63" s="418"/>
+      <c r="C63" s="418"/>
+      <c r="D63" s="418"/>
+      <c r="E63" s="418"/>
+      <c r="F63" s="418"/>
+      <c r="G63" s="418"/>
       <c r="H63" s="221"/>
       <c r="I63" s="221"/>
       <c r="J63" s="221"/>
@@ -14118,12 +14134,12 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="221"/>
-      <c r="B64" s="423"/>
-      <c r="C64" s="423"/>
-      <c r="D64" s="423"/>
-      <c r="E64" s="423"/>
-      <c r="F64" s="423"/>
-      <c r="G64" s="423"/>
+      <c r="B64" s="418"/>
+      <c r="C64" s="418"/>
+      <c r="D64" s="418"/>
+      <c r="E64" s="418"/>
+      <c r="F64" s="418"/>
+      <c r="G64" s="418"/>
       <c r="H64" s="221"/>
       <c r="I64" s="221"/>
       <c r="J64" s="221"/>
@@ -14133,12 +14149,12 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="221"/>
-      <c r="B65" s="423"/>
-      <c r="C65" s="423"/>
-      <c r="D65" s="423"/>
-      <c r="E65" s="423"/>
-      <c r="F65" s="423"/>
-      <c r="G65" s="423"/>
+      <c r="B65" s="418"/>
+      <c r="C65" s="418"/>
+      <c r="D65" s="418"/>
+      <c r="E65" s="418"/>
+      <c r="F65" s="418"/>
+      <c r="G65" s="418"/>
       <c r="H65" s="221"/>
       <c r="I65" s="221"/>
       <c r="J65" s="221"/>
@@ -14148,12 +14164,12 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="221"/>
-      <c r="B66" s="423"/>
-      <c r="C66" s="423"/>
-      <c r="D66" s="423"/>
-      <c r="E66" s="423"/>
-      <c r="F66" s="423"/>
-      <c r="G66" s="423"/>
+      <c r="B66" s="418"/>
+      <c r="C66" s="418"/>
+      <c r="D66" s="418"/>
+      <c r="E66" s="418"/>
+      <c r="F66" s="418"/>
+      <c r="G66" s="418"/>
       <c r="H66" s="221"/>
       <c r="I66" s="221"/>
       <c r="J66" s="221"/>
@@ -14163,12 +14179,12 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="221"/>
-      <c r="B67" s="423"/>
-      <c r="C67" s="423"/>
-      <c r="D67" s="423"/>
-      <c r="E67" s="423"/>
-      <c r="F67" s="423"/>
-      <c r="G67" s="423"/>
+      <c r="B67" s="418"/>
+      <c r="C67" s="418"/>
+      <c r="D67" s="418"/>
+      <c r="E67" s="418"/>
+      <c r="F67" s="418"/>
+      <c r="G67" s="418"/>
       <c r="H67" s="221"/>
       <c r="I67" s="221"/>
       <c r="J67" s="221"/>
@@ -14178,12 +14194,12 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="221"/>
-      <c r="B68" s="423"/>
-      <c r="C68" s="423"/>
-      <c r="D68" s="423"/>
-      <c r="E68" s="423"/>
-      <c r="F68" s="423"/>
-      <c r="G68" s="423"/>
+      <c r="B68" s="418"/>
+      <c r="C68" s="418"/>
+      <c r="D68" s="418"/>
+      <c r="E68" s="418"/>
+      <c r="F68" s="418"/>
+      <c r="G68" s="418"/>
       <c r="H68" s="221"/>
       <c r="I68" s="221"/>
       <c r="J68" s="221"/>
@@ -14193,12 +14209,12 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="221"/>
-      <c r="B69" s="423"/>
-      <c r="C69" s="423"/>
-      <c r="D69" s="423"/>
-      <c r="E69" s="423"/>
-      <c r="F69" s="423"/>
-      <c r="G69" s="423"/>
+      <c r="B69" s="418"/>
+      <c r="C69" s="418"/>
+      <c r="D69" s="418"/>
+      <c r="E69" s="418"/>
+      <c r="F69" s="418"/>
+      <c r="G69" s="418"/>
       <c r="H69" s="221"/>
       <c r="I69" s="221"/>
       <c r="J69" s="221"/>
@@ -14208,12 +14224,12 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="221"/>
-      <c r="B70" s="423"/>
-      <c r="C70" s="423"/>
-      <c r="D70" s="423"/>
-      <c r="E70" s="423"/>
-      <c r="F70" s="423"/>
-      <c r="G70" s="423"/>
+      <c r="B70" s="418"/>
+      <c r="C70" s="418"/>
+      <c r="D70" s="418"/>
+      <c r="E70" s="418"/>
+      <c r="F70" s="418"/>
+      <c r="G70" s="418"/>
       <c r="H70" s="221"/>
       <c r="I70" s="221"/>
       <c r="J70" s="221"/>
@@ -14223,12 +14239,12 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="221"/>
-      <c r="B71" s="423"/>
-      <c r="C71" s="423"/>
-      <c r="D71" s="423"/>
-      <c r="E71" s="423"/>
-      <c r="F71" s="423"/>
-      <c r="G71" s="423"/>
+      <c r="B71" s="418"/>
+      <c r="C71" s="418"/>
+      <c r="D71" s="418"/>
+      <c r="E71" s="418"/>
+      <c r="F71" s="418"/>
+      <c r="G71" s="418"/>
       <c r="H71" s="221"/>
       <c r="I71" s="221"/>
       <c r="J71" s="221"/>
@@ -14238,12 +14254,12 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="221"/>
-      <c r="B72" s="423"/>
-      <c r="C72" s="423"/>
-      <c r="D72" s="423"/>
-      <c r="E72" s="423"/>
-      <c r="F72" s="423"/>
-      <c r="G72" s="423"/>
+      <c r="B72" s="418"/>
+      <c r="C72" s="418"/>
+      <c r="D72" s="418"/>
+      <c r="E72" s="418"/>
+      <c r="F72" s="418"/>
+      <c r="G72" s="418"/>
       <c r="H72" s="221"/>
       <c r="I72" s="221"/>
       <c r="J72" s="221"/>
@@ -14253,12 +14269,12 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="221"/>
-      <c r="B73" s="423"/>
-      <c r="C73" s="423"/>
-      <c r="D73" s="423"/>
-      <c r="E73" s="423"/>
-      <c r="F73" s="423"/>
-      <c r="G73" s="423"/>
+      <c r="B73" s="418"/>
+      <c r="C73" s="418"/>
+      <c r="D73" s="418"/>
+      <c r="E73" s="418"/>
+      <c r="F73" s="418"/>
+      <c r="G73" s="418"/>
       <c r="H73" s="221"/>
       <c r="I73" s="221"/>
       <c r="J73" s="221"/>
@@ -14268,12 +14284,12 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="221"/>
-      <c r="B74" s="423"/>
-      <c r="C74" s="423"/>
-      <c r="D74" s="423"/>
-      <c r="E74" s="423"/>
-      <c r="F74" s="423"/>
-      <c r="G74" s="423"/>
+      <c r="B74" s="418"/>
+      <c r="C74" s="418"/>
+      <c r="D74" s="418"/>
+      <c r="E74" s="418"/>
+      <c r="F74" s="418"/>
+      <c r="G74" s="418"/>
       <c r="H74" s="221"/>
       <c r="I74" s="221"/>
       <c r="J74" s="221"/>
@@ -14283,12 +14299,12 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="221"/>
-      <c r="B75" s="424"/>
-      <c r="C75" s="424"/>
-      <c r="D75" s="424"/>
-      <c r="E75" s="424"/>
-      <c r="F75" s="424"/>
-      <c r="G75" s="424"/>
+      <c r="B75" s="417"/>
+      <c r="C75" s="417"/>
+      <c r="D75" s="417"/>
+      <c r="E75" s="417"/>
+      <c r="F75" s="417"/>
+      <c r="G75" s="417"/>
       <c r="H75" s="221"/>
       <c r="I75" s="221"/>
       <c r="J75" s="221"/>
@@ -14327,74 +14343,50 @@
       <c r="M77" s="221"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="43">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B70:G70"/>
     <mergeCell ref="B71:G71"/>
     <mergeCell ref="B72:G72"/>
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14801,24 +14793,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="431" t="s">
+      <c r="B2" s="428" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="432"/>
-      <c r="D2" s="432"/>
-      <c r="E2" s="432"/>
-      <c r="F2" s="432"/>
-      <c r="G2" s="433"/>
-      <c r="H2" s="434"/>
+      <c r="C2" s="429"/>
+      <c r="D2" s="429"/>
+      <c r="E2" s="429"/>
+      <c r="F2" s="429"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="431"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="435"/>
-      <c r="C3" s="436"/>
-      <c r="D3" s="436"/>
-      <c r="E3" s="436"/>
-      <c r="F3" s="436"/>
-      <c r="G3" s="437"/>
-      <c r="H3" s="438"/>
+      <c r="B3" s="432"/>
+      <c r="C3" s="433"/>
+      <c r="D3" s="433"/>
+      <c r="E3" s="433"/>
+      <c r="F3" s="433"/>
+      <c r="G3" s="434"/>
+      <c r="H3" s="435"/>
     </row>
     <row r="4" spans="2:8" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="92" t="s">
@@ -14827,12 +14819,12 @@
       <c r="C4" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="439" t="s">
+      <c r="D4" s="436" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="440"/>
-      <c r="F4" s="440"/>
-      <c r="G4" s="441"/>
+      <c r="E4" s="437"/>
+      <c r="F4" s="437"/>
+      <c r="G4" s="438"/>
       <c r="H4" s="92" t="s">
         <v>169</v>
       </c>
@@ -14844,12 +14836,12 @@
       <c r="C5" s="95">
         <v>41871</v>
       </c>
-      <c r="D5" s="442" t="s">
+      <c r="D5" s="439" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="443"/>
-      <c r="F5" s="443"/>
-      <c r="G5" s="444"/>
+      <c r="E5" s="440"/>
+      <c r="F5" s="440"/>
+      <c r="G5" s="441"/>
       <c r="H5" s="93" t="s">
         <v>170</v>
       </c>
@@ -14861,12 +14853,12 @@
       <c r="C6" s="95">
         <v>42294</v>
       </c>
-      <c r="D6" s="445" t="s">
+      <c r="D6" s="442" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="426"/>
-      <c r="F6" s="426"/>
-      <c r="G6" s="427"/>
+      <c r="E6" s="423"/>
+      <c r="F6" s="423"/>
+      <c r="G6" s="424"/>
       <c r="H6" s="93" t="s">
         <v>171</v>
       </c>
@@ -14878,12 +14870,12 @@
       <c r="C7" s="95">
         <v>42423</v>
       </c>
-      <c r="D7" s="445" t="s">
+      <c r="D7" s="442" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="426"/>
-      <c r="F7" s="426"/>
-      <c r="G7" s="427"/>
+      <c r="E7" s="423"/>
+      <c r="F7" s="423"/>
+      <c r="G7" s="424"/>
       <c r="H7" s="93" t="s">
         <v>171</v>
       </c>
@@ -14895,12 +14887,12 @@
       <c r="C8" s="95">
         <v>42705</v>
       </c>
-      <c r="D8" s="445" t="s">
+      <c r="D8" s="442" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="426"/>
-      <c r="F8" s="426"/>
-      <c r="G8" s="427"/>
+      <c r="E8" s="423"/>
+      <c r="F8" s="423"/>
+      <c r="G8" s="424"/>
       <c r="H8" s="93" t="s">
         <v>172</v>
       </c>
@@ -14912,12 +14904,12 @@
       <c r="C9" s="95">
         <v>42762</v>
       </c>
-      <c r="D9" s="428" t="s">
+      <c r="D9" s="425" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="429"/>
-      <c r="F9" s="429"/>
-      <c r="G9" s="430"/>
+      <c r="E9" s="426"/>
+      <c r="F9" s="426"/>
+      <c r="G9" s="427"/>
       <c r="H9" s="93" t="s">
         <v>188</v>
       </c>
@@ -14929,12 +14921,12 @@
       <c r="C10" s="95">
         <v>43941</v>
       </c>
-      <c r="D10" s="425" t="s">
+      <c r="D10" s="422" t="s">
         <v>220</v>
       </c>
-      <c r="E10" s="426"/>
-      <c r="F10" s="426"/>
-      <c r="G10" s="427"/>
+      <c r="E10" s="423"/>
+      <c r="F10" s="423"/>
+      <c r="G10" s="424"/>
       <c r="H10" s="151" t="s">
         <v>218</v>
       </c>
@@ -14946,12 +14938,12 @@
       <c r="C11" s="95">
         <v>44017</v>
       </c>
-      <c r="D11" s="425" t="s">
+      <c r="D11" s="422" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="426"/>
-      <c r="F11" s="426"/>
-      <c r="G11" s="427"/>
+      <c r="E11" s="423"/>
+      <c r="F11" s="423"/>
+      <c r="G11" s="424"/>
       <c r="H11" s="151" t="s">
         <v>218</v>
       </c>
@@ -14963,12 +14955,12 @@
       <c r="C12" s="95">
         <v>44034</v>
       </c>
-      <c r="D12" s="425" t="s">
+      <c r="D12" s="422" t="s">
         <v>310</v>
       </c>
-      <c r="E12" s="426"/>
-      <c r="F12" s="426"/>
-      <c r="G12" s="427"/>
+      <c r="E12" s="423"/>
+      <c r="F12" s="423"/>
+      <c r="G12" s="424"/>
       <c r="H12" s="151" t="s">
         <v>218</v>
       </c>
@@ -15018,13 +15010,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
+      <c r="B2" s="262"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
       <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
@@ -15040,12 +15032,12 @@
     </row>
     <row r="4" spans="2:9" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7"/>
-      <c r="C4" s="265" t="s">
+      <c r="C4" s="263" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
       <c r="G4" s="192"/>
       <c r="H4" s="8"/>
     </row>
@@ -15060,12 +15052,12 @@
     </row>
     <row r="6" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="261" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
       <c r="G6" s="190"/>
       <c r="H6" s="8"/>
     </row>
@@ -15108,14 +15100,14 @@
     </row>
     <row r="10" spans="2:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
-      <c r="C10" s="267" t="s">
+      <c r="C10" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="267" t="s">
+      <c r="D10" s="265" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="267"/>
-      <c r="F10" s="267" t="s">
+      <c r="E10" s="265"/>
+      <c r="F10" s="265" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="124"/>
@@ -15123,14 +15115,14 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
-      <c r="C11" s="267"/>
+      <c r="C11" s="265"/>
       <c r="D11" s="193" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="267"/>
+      <c r="F11" s="265"/>
       <c r="G11" s="124"/>
       <c r="H11" s="8"/>
     </row>
@@ -15205,12 +15197,12 @@
     </row>
     <row r="18" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
-      <c r="C18" s="265" t="s">
+      <c r="C18" s="263" t="s">
         <v>312</v>
       </c>
-      <c r="D18" s="266"/>
-      <c r="E18" s="266"/>
-      <c r="F18" s="266"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
       <c r="G18" s="192"/>
       <c r="H18" s="8"/>
     </row>
@@ -15225,21 +15217,21 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
-      <c r="C20" s="269" t="s">
+      <c r="C20" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="270"/>
-      <c r="E20" s="270"/>
-      <c r="F20" s="270"/>
+      <c r="D20" s="254"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="254"/>
       <c r="G20" s="188"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B21" s="7"/>
-      <c r="C21" s="271" t="s">
+      <c r="C21" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="271"/>
+      <c r="D21" s="255"/>
       <c r="E21" s="194" t="s">
         <v>287</v>
       </c>
@@ -15251,10 +15243,10 @@
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="7"/>
-      <c r="C22" s="276" t="s">
+      <c r="C22" s="260" t="s">
         <v>281</v>
       </c>
-      <c r="D22" s="276"/>
+      <c r="D22" s="260"/>
       <c r="E22" s="189">
         <v>850</v>
       </c>
@@ -15266,10 +15258,10 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
-      <c r="C23" s="276" t="s">
+      <c r="C23" s="260" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="276"/>
+      <c r="D23" s="260"/>
       <c r="E23" s="189">
         <v>1100</v>
       </c>
@@ -15281,10 +15273,10 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
-      <c r="C24" s="276" t="s">
+      <c r="C24" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="276"/>
+      <c r="D24" s="260"/>
       <c r="E24" s="189">
         <v>1400</v>
       </c>
@@ -15296,10 +15288,10 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="7"/>
-      <c r="C25" s="276" t="s">
+      <c r="C25" s="260" t="s">
         <v>282</v>
       </c>
-      <c r="D25" s="276"/>
+      <c r="D25" s="260"/>
       <c r="E25" s="189">
         <v>1800</v>
       </c>
@@ -15311,10 +15303,10 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
-      <c r="C26" s="276" t="s">
+      <c r="C26" s="260" t="s">
         <v>283</v>
       </c>
-      <c r="D26" s="276"/>
+      <c r="D26" s="260"/>
       <c r="E26" s="189">
         <v>2200</v>
       </c>
@@ -15326,10 +15318,10 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
-      <c r="C27" s="276" t="s">
+      <c r="C27" s="260" t="s">
         <v>284</v>
       </c>
-      <c r="D27" s="276"/>
+      <c r="D27" s="260"/>
       <c r="E27" s="189">
         <v>2400</v>
       </c>
@@ -15352,34 +15344,34 @@
     </row>
     <row r="29" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
-      <c r="C29" s="270" t="s">
+      <c r="C29" s="254" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="270"/>
-      <c r="E29" s="270"/>
-      <c r="F29" s="270"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="254"/>
       <c r="G29" s="188"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="7"/>
-      <c r="C30" s="268" t="s">
+      <c r="C30" s="261" t="s">
         <v>286</v>
       </c>
-      <c r="D30" s="268"/>
-      <c r="E30" s="268"/>
-      <c r="F30" s="268"/>
+      <c r="D30" s="261"/>
+      <c r="E30" s="261"/>
+      <c r="F30" s="261"/>
       <c r="G30" s="190"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
-      <c r="C31" s="272" t="s">
+      <c r="C31" s="256" t="s">
         <v>313</v>
       </c>
-      <c r="D31" s="272"/>
-      <c r="E31" s="272"/>
-      <c r="F31" s="272"/>
+      <c r="D31" s="256"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
       <c r="G31" s="195"/>
       <c r="H31" s="8"/>
     </row>
@@ -15493,12 +15485,12 @@
     </row>
     <row r="42" spans="2:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B42" s="7"/>
-      <c r="C42" s="273" t="s">
+      <c r="C42" s="257" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="273"/>
-      <c r="E42" s="273"/>
-      <c r="F42" s="273"/>
+      <c r="D42" s="257"/>
+      <c r="E42" s="257"/>
+      <c r="F42" s="257"/>
       <c r="G42" s="121"/>
       <c r="H42" s="8"/>
     </row>
@@ -15513,16 +15505,16 @@
     </row>
     <row r="44" spans="2:8" ht="186" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7"/>
-      <c r="C44" s="274" t="s">
+      <c r="C44" s="258" t="s">
         <v>289</v>
       </c>
-      <c r="D44" s="275"/>
-      <c r="E44" s="275"/>
-      <c r="F44" s="275"/>
-      <c r="G44" s="248" t="s">
+      <c r="D44" s="259"/>
+      <c r="E44" s="259"/>
+      <c r="F44" s="259"/>
+      <c r="G44" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="H44" s="249"/>
+      <c r="H44" s="268"/>
     </row>
     <row r="45" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7"/>
@@ -15537,10 +15529,10 @@
     </row>
     <row r="46" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7"/>
-      <c r="C46" s="262" t="s">
+      <c r="C46" s="275" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="263"/>
+      <c r="D46" s="276"/>
       <c r="E46" s="130" t="s">
         <v>214</v>
       </c>
@@ -15556,241 +15548,241 @@
     </row>
     <row r="47" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="7"/>
-      <c r="C47" s="250" t="s">
+      <c r="C47" s="247" t="s">
         <v>233</v>
       </c>
-      <c r="D47" s="251"/>
-      <c r="E47" s="256" t="s">
+      <c r="D47" s="248"/>
+      <c r="E47" s="269" t="s">
         <v>34</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>211</v>
       </c>
       <c r="G47" s="167"/>
-      <c r="H47" s="258"/>
+      <c r="H47" s="271"/>
     </row>
     <row r="48" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7"/>
-      <c r="C48" s="252"/>
-      <c r="D48" s="253"/>
-      <c r="E48" s="257"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="250"/>
+      <c r="E48" s="270"/>
       <c r="F48" s="19" t="s">
         <v>212</v>
       </c>
       <c r="G48" s="167"/>
-      <c r="H48" s="259"/>
+      <c r="H48" s="272"/>
     </row>
     <row r="49" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7"/>
-      <c r="C49" s="252"/>
-      <c r="D49" s="253"/>
-      <c r="E49" s="256" t="s">
+      <c r="C49" s="249"/>
+      <c r="D49" s="250"/>
+      <c r="E49" s="269" t="s">
         <v>40</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>211</v>
       </c>
       <c r="G49" s="167"/>
-      <c r="H49" s="259"/>
+      <c r="H49" s="272"/>
     </row>
     <row r="50" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7"/>
-      <c r="C50" s="254"/>
-      <c r="D50" s="255"/>
-      <c r="E50" s="257"/>
+      <c r="C50" s="251"/>
+      <c r="D50" s="252"/>
+      <c r="E50" s="270"/>
       <c r="F50" s="19" t="s">
         <v>212</v>
       </c>
       <c r="G50" s="167"/>
-      <c r="H50" s="259"/>
+      <c r="H50" s="272"/>
     </row>
     <row r="51" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="7"/>
-      <c r="C51" s="250" t="s">
+      <c r="C51" s="247" t="s">
         <v>234</v>
       </c>
-      <c r="D51" s="251"/>
-      <c r="E51" s="256" t="s">
+      <c r="D51" s="248"/>
+      <c r="E51" s="269" t="s">
         <v>34</v>
       </c>
       <c r="F51" s="19" t="s">
         <v>211</v>
       </c>
       <c r="G51" s="167"/>
-      <c r="H51" s="259"/>
+      <c r="H51" s="272"/>
     </row>
     <row r="52" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="7"/>
-      <c r="C52" s="252"/>
-      <c r="D52" s="253"/>
-      <c r="E52" s="257"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="250"/>
+      <c r="E52" s="270"/>
       <c r="F52" s="19" t="s">
         <v>212</v>
       </c>
       <c r="G52" s="167"/>
-      <c r="H52" s="259"/>
+      <c r="H52" s="272"/>
     </row>
     <row r="53" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="7"/>
-      <c r="C53" s="252"/>
-      <c r="D53" s="253"/>
-      <c r="E53" s="256" t="s">
+      <c r="C53" s="249"/>
+      <c r="D53" s="250"/>
+      <c r="E53" s="269" t="s">
         <v>40</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>211</v>
       </c>
       <c r="G53" s="167"/>
-      <c r="H53" s="259"/>
+      <c r="H53" s="272"/>
     </row>
     <row r="54" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7"/>
-      <c r="C54" s="254"/>
-      <c r="D54" s="255"/>
-      <c r="E54" s="257"/>
+      <c r="C54" s="251"/>
+      <c r="D54" s="252"/>
+      <c r="E54" s="270"/>
       <c r="F54" s="19" t="s">
         <v>212</v>
       </c>
       <c r="G54" s="19"/>
-      <c r="H54" s="259"/>
+      <c r="H54" s="272"/>
     </row>
     <row r="55" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="7"/>
-      <c r="C55" s="250" t="s">
+      <c r="C55" s="247" t="s">
         <v>221</v>
       </c>
-      <c r="D55" s="251"/>
-      <c r="E55" s="256" t="s">
+      <c r="D55" s="248"/>
+      <c r="E55" s="269" t="s">
         <v>210</v>
       </c>
       <c r="F55" s="19" t="s">
         <v>230</v>
       </c>
       <c r="G55" s="19"/>
-      <c r="H55" s="259"/>
+      <c r="H55" s="272"/>
       <c r="M55" s="163"/>
     </row>
     <row r="56" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="7"/>
-      <c r="C56" s="252"/>
-      <c r="D56" s="253"/>
-      <c r="E56" s="257"/>
+      <c r="C56" s="249"/>
+      <c r="D56" s="250"/>
+      <c r="E56" s="270"/>
       <c r="F56" s="19" t="s">
         <v>212</v>
       </c>
       <c r="G56" s="19"/>
-      <c r="H56" s="259"/>
+      <c r="H56" s="272"/>
       <c r="L56" s="9"/>
-      <c r="M56" s="247"/>
+      <c r="M56" s="266"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
     </row>
     <row r="57" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="7"/>
-      <c r="C57" s="252"/>
-      <c r="D57" s="253"/>
-      <c r="E57" s="256" t="s">
+      <c r="C57" s="249"/>
+      <c r="D57" s="250"/>
+      <c r="E57" s="269" t="s">
         <v>40</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>211</v>
       </c>
       <c r="G57" s="142"/>
-      <c r="H57" s="259"/>
+      <c r="H57" s="272"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="247"/>
+      <c r="M57" s="266"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
     </row>
     <row r="58" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="7"/>
-      <c r="C58" s="254"/>
-      <c r="D58" s="255"/>
-      <c r="E58" s="257"/>
+      <c r="C58" s="251"/>
+      <c r="D58" s="252"/>
+      <c r="E58" s="270"/>
       <c r="F58" s="19" t="s">
         <v>212</v>
       </c>
       <c r="G58" s="142"/>
-      <c r="H58" s="259"/>
+      <c r="H58" s="272"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="247"/>
+      <c r="M58" s="266"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
     </row>
     <row r="59" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="7"/>
-      <c r="C59" s="250" t="s">
+      <c r="C59" s="247" t="s">
         <v>222</v>
       </c>
-      <c r="D59" s="251"/>
-      <c r="E59" s="256" t="s">
+      <c r="D59" s="248"/>
+      <c r="E59" s="269" t="s">
         <v>210</v>
       </c>
       <c r="F59" s="19" t="s">
         <v>211</v>
       </c>
       <c r="G59" s="19"/>
-      <c r="H59" s="259"/>
+      <c r="H59" s="272"/>
       <c r="L59" s="9"/>
-      <c r="M59" s="247"/>
+      <c r="M59" s="266"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
     </row>
     <row r="60" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="7"/>
-      <c r="C60" s="252"/>
-      <c r="D60" s="253"/>
-      <c r="E60" s="257"/>
+      <c r="C60" s="249"/>
+      <c r="D60" s="250"/>
+      <c r="E60" s="270"/>
       <c r="F60" s="19" t="s">
         <v>212</v>
       </c>
       <c r="G60" s="19"/>
-      <c r="H60" s="259"/>
+      <c r="H60" s="272"/>
       <c r="L60" s="9"/>
-      <c r="M60" s="247"/>
+      <c r="M60" s="266"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
     </row>
     <row r="61" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="7"/>
-      <c r="C61" s="252"/>
-      <c r="D61" s="253"/>
-      <c r="E61" s="256" t="s">
+      <c r="C61" s="249"/>
+      <c r="D61" s="250"/>
+      <c r="E61" s="269" t="s">
         <v>40</v>
       </c>
       <c r="F61" s="19" t="s">
         <v>211</v>
       </c>
       <c r="G61" s="142"/>
-      <c r="H61" s="259"/>
+      <c r="H61" s="272"/>
       <c r="L61" s="9"/>
-      <c r="M61" s="247"/>
+      <c r="M61" s="266"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
     </row>
     <row r="62" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7"/>
-      <c r="C62" s="254"/>
-      <c r="D62" s="255"/>
-      <c r="E62" s="257"/>
+      <c r="C62" s="251"/>
+      <c r="D62" s="252"/>
+      <c r="E62" s="270"/>
       <c r="F62" s="19" t="s">
         <v>212</v>
       </c>
       <c r="G62" s="142"/>
-      <c r="H62" s="260"/>
-      <c r="M62" s="247"/>
+      <c r="H62" s="273"/>
+      <c r="M62" s="266"/>
     </row>
     <row r="63" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
-      <c r="C63" s="261" t="s">
+      <c r="C63" s="274" t="s">
         <v>248</v>
       </c>
-      <c r="D63" s="261"/>
-      <c r="E63" s="261"/>
-      <c r="F63" s="261"/>
-      <c r="G63" s="261"/>
+      <c r="D63" s="274"/>
+      <c r="E63" s="274"/>
+      <c r="F63" s="274"/>
+      <c r="G63" s="274"/>
       <c r="H63" s="8"/>
-      <c r="M63" s="247"/>
+      <c r="M63" s="266"/>
     </row>
     <row r="64" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="15"/>
@@ -15805,27 +15797,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="37">
-    <mergeCell ref="C59:D62"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="M56:M63"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="C47:D50"/>
@@ -15842,6 +15813,27 @@
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C59:D62"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E9:G9 E34:G34">
@@ -16009,19 +16001,19 @@
     </row>
     <row r="4" spans="2:15" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B4" s="26"/>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="285" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="301"/>
-      <c r="E4" s="302"/>
-      <c r="F4" s="302"/>
-      <c r="G4" s="302"/>
-      <c r="H4" s="302"/>
-      <c r="I4" s="302"/>
-      <c r="J4" s="302"/>
-      <c r="K4" s="302"/>
-      <c r="L4" s="302"/>
-      <c r="M4" s="302"/>
+      <c r="D4" s="285"/>
+      <c r="E4" s="286"/>
+      <c r="F4" s="286"/>
+      <c r="G4" s="286"/>
+      <c r="H4" s="286"/>
+      <c r="I4" s="286"/>
+      <c r="J4" s="286"/>
+      <c r="K4" s="286"/>
+      <c r="L4" s="286"/>
+      <c r="M4" s="286"/>
       <c r="N4" s="27"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.15">
@@ -16041,19 +16033,19 @@
     </row>
     <row r="6" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B6" s="26"/>
-      <c r="C6" s="300" t="s">
+      <c r="C6" s="284" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="300"/>
-      <c r="K6" s="300"/>
-      <c r="L6" s="300"/>
-      <c r="M6" s="300"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="284"/>
+      <c r="H6" s="284"/>
+      <c r="I6" s="284"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="284"/>
+      <c r="L6" s="284"/>
+      <c r="M6" s="284"/>
       <c r="N6" s="27"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
@@ -16073,19 +16065,19 @@
     </row>
     <row r="8" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B8" s="26"/>
-      <c r="C8" s="300" t="s">
+      <c r="C8" s="284" t="s">
         <v>333</v>
       </c>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="300"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="300"/>
-      <c r="K8" s="300"/>
-      <c r="L8" s="300"/>
-      <c r="M8" s="300"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="284"/>
+      <c r="H8" s="284"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="284"/>
+      <c r="K8" s="284"/>
+      <c r="L8" s="284"/>
+      <c r="M8" s="284"/>
       <c r="N8" s="27"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
@@ -16125,295 +16117,295 @@
       <c r="C11" s="141"/>
       <c r="D11" s="141"/>
       <c r="E11" s="141"/>
-      <c r="F11" s="283" t="s">
+      <c r="F11" s="291" t="s">
         <v>280</v>
       </c>
-      <c r="G11" s="303"/>
-      <c r="H11" s="303"/>
-      <c r="I11" s="303"/>
-      <c r="J11" s="283" t="s">
+      <c r="G11" s="292"/>
+      <c r="H11" s="292"/>
+      <c r="I11" s="292"/>
+      <c r="J11" s="291" t="s">
         <v>277</v>
       </c>
-      <c r="K11" s="304"/>
-      <c r="L11" s="304"/>
-      <c r="M11" s="304"/>
+      <c r="K11" s="293"/>
+      <c r="L11" s="293"/>
+      <c r="M11" s="293"/>
       <c r="N11" s="27"/>
     </row>
     <row r="12" spans="2:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="26"/>
-      <c r="C12" s="298" t="s">
+      <c r="C12" s="287" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="298"/>
-      <c r="E12" s="298"/>
-      <c r="F12" s="299"/>
-      <c r="G12" s="299"/>
-      <c r="H12" s="299"/>
-      <c r="I12" s="299"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="299"/>
-      <c r="L12" s="299"/>
-      <c r="M12" s="299"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="288"/>
+      <c r="G12" s="288"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="288"/>
+      <c r="K12" s="288"/>
+      <c r="L12" s="288"/>
+      <c r="M12" s="288"/>
       <c r="N12" s="27"/>
     </row>
     <row r="13" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B13" s="26"/>
-      <c r="C13" s="294" t="s">
+      <c r="C13" s="290" t="s">
         <v>236</v>
       </c>
-      <c r="D13" s="294" t="s">
+      <c r="D13" s="290" t="s">
         <v>235</v>
       </c>
-      <c r="E13" s="295" t="s">
+      <c r="E13" s="289" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="294" t="s">
+      <c r="F13" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="295"/>
-      <c r="J13" s="294" t="s">
+      <c r="G13" s="289"/>
+      <c r="H13" s="289"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="295"/>
-      <c r="L13" s="295"/>
-      <c r="M13" s="295"/>
+      <c r="K13" s="289"/>
+      <c r="L13" s="289"/>
+      <c r="M13" s="289"/>
       <c r="N13" s="27"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B14" s="26"/>
-      <c r="C14" s="295"/>
-      <c r="D14" s="295"/>
-      <c r="E14" s="295"/>
-      <c r="F14" s="295" t="s">
+      <c r="C14" s="289"/>
+      <c r="D14" s="289"/>
+      <c r="E14" s="289"/>
+      <c r="F14" s="289" t="s">
         <v>189</v>
       </c>
-      <c r="G14" s="295"/>
-      <c r="H14" s="295"/>
-      <c r="I14" s="295"/>
-      <c r="J14" s="295" t="s">
+      <c r="G14" s="289"/>
+      <c r="H14" s="289"/>
+      <c r="I14" s="289"/>
+      <c r="J14" s="289" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="295"/>
-      <c r="L14" s="295"/>
-      <c r="M14" s="295"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
+      <c r="M14" s="289"/>
       <c r="N14" s="27"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
-      <c r="C15" s="288" t="s">
+      <c r="C15" s="277" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="288" t="s">
+      <c r="D15" s="277" t="s">
         <v>237</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="282"/>
-      <c r="G15" s="282"/>
-      <c r="H15" s="282"/>
-      <c r="I15" s="282"/>
-      <c r="J15" s="282"/>
-      <c r="K15" s="282"/>
-      <c r="L15" s="282"/>
-      <c r="M15" s="282"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="278"/>
+      <c r="I15" s="278"/>
+      <c r="J15" s="278"/>
+      <c r="K15" s="278"/>
+      <c r="L15" s="278"/>
+      <c r="M15" s="278"/>
       <c r="N15" s="27"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" s="26"/>
-      <c r="C16" s="288"/>
-      <c r="D16" s="288"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="277"/>
       <c r="E16" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="282"/>
-      <c r="G16" s="282"/>
-      <c r="H16" s="282"/>
-      <c r="I16" s="282"/>
-      <c r="J16" s="282"/>
-      <c r="K16" s="282"/>
-      <c r="L16" s="282"/>
-      <c r="M16" s="282"/>
+      <c r="F16" s="278"/>
+      <c r="G16" s="278"/>
+      <c r="H16" s="278"/>
+      <c r="I16" s="278"/>
+      <c r="J16" s="278"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="278"/>
+      <c r="M16" s="278"/>
       <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="26"/>
-      <c r="C17" s="288"/>
-      <c r="D17" s="288"/>
+      <c r="C17" s="277"/>
+      <c r="D17" s="277"/>
       <c r="E17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="282"/>
-      <c r="G17" s="282"/>
-      <c r="H17" s="282"/>
-      <c r="I17" s="282"/>
-      <c r="J17" s="282"/>
-      <c r="K17" s="282"/>
-      <c r="L17" s="282"/>
-      <c r="M17" s="282"/>
+      <c r="F17" s="278"/>
+      <c r="G17" s="278"/>
+      <c r="H17" s="278"/>
+      <c r="I17" s="278"/>
+      <c r="J17" s="278"/>
+      <c r="K17" s="278"/>
+      <c r="L17" s="278"/>
+      <c r="M17" s="278"/>
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" s="26"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="288"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="277"/>
       <c r="E18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="282"/>
-      <c r="G18" s="282"/>
-      <c r="H18" s="282"/>
-      <c r="I18" s="282"/>
-      <c r="J18" s="282"/>
-      <c r="K18" s="282"/>
-      <c r="L18" s="282"/>
-      <c r="M18" s="282"/>
+      <c r="F18" s="278"/>
+      <c r="G18" s="278"/>
+      <c r="H18" s="278"/>
+      <c r="I18" s="278"/>
+      <c r="J18" s="278"/>
+      <c r="K18" s="278"/>
+      <c r="L18" s="278"/>
+      <c r="M18" s="278"/>
       <c r="N18" s="27"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B19" s="26"/>
-      <c r="C19" s="288" t="s">
+      <c r="C19" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="288" t="s">
+      <c r="D19" s="277" t="s">
         <v>238</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="282"/>
-      <c r="G19" s="282"/>
-      <c r="H19" s="282"/>
-      <c r="I19" s="282"/>
-      <c r="J19" s="282"/>
-      <c r="K19" s="282"/>
-      <c r="L19" s="282"/>
-      <c r="M19" s="282"/>
+      <c r="F19" s="278"/>
+      <c r="G19" s="278"/>
+      <c r="H19" s="278"/>
+      <c r="I19" s="278"/>
+      <c r="J19" s="278"/>
+      <c r="K19" s="278"/>
+      <c r="L19" s="278"/>
+      <c r="M19" s="278"/>
       <c r="N19" s="27"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B20" s="26"/>
-      <c r="C20" s="288"/>
-      <c r="D20" s="288"/>
+      <c r="C20" s="277"/>
+      <c r="D20" s="277"/>
       <c r="E20" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="282"/>
-      <c r="G20" s="282"/>
-      <c r="H20" s="282"/>
-      <c r="I20" s="282"/>
-      <c r="J20" s="282"/>
-      <c r="K20" s="282"/>
-      <c r="L20" s="282"/>
-      <c r="M20" s="282"/>
+      <c r="F20" s="278"/>
+      <c r="G20" s="278"/>
+      <c r="H20" s="278"/>
+      <c r="I20" s="278"/>
+      <c r="J20" s="278"/>
+      <c r="K20" s="278"/>
+      <c r="L20" s="278"/>
+      <c r="M20" s="278"/>
       <c r="N20" s="27"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B21" s="26"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="288"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="277"/>
       <c r="E21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="282"/>
-      <c r="G21" s="282"/>
-      <c r="H21" s="282"/>
-      <c r="I21" s="282"/>
-      <c r="J21" s="282"/>
-      <c r="K21" s="282"/>
-      <c r="L21" s="282"/>
-      <c r="M21" s="282"/>
+      <c r="F21" s="278"/>
+      <c r="G21" s="278"/>
+      <c r="H21" s="278"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="278"/>
+      <c r="K21" s="278"/>
+      <c r="L21" s="278"/>
+      <c r="M21" s="278"/>
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B22" s="26"/>
-      <c r="C22" s="288"/>
-      <c r="D22" s="288"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="277"/>
       <c r="E22" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="282"/>
-      <c r="G22" s="282"/>
-      <c r="H22" s="282"/>
-      <c r="I22" s="282"/>
-      <c r="J22" s="282"/>
-      <c r="K22" s="282"/>
-      <c r="L22" s="282"/>
-      <c r="M22" s="282"/>
+      <c r="F22" s="278"/>
+      <c r="G22" s="278"/>
+      <c r="H22" s="278"/>
+      <c r="I22" s="278"/>
+      <c r="J22" s="278"/>
+      <c r="K22" s="278"/>
+      <c r="L22" s="278"/>
+      <c r="M22" s="278"/>
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23" s="26"/>
-      <c r="C23" s="288" t="s">
+      <c r="C23" s="277" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="288" t="s">
+      <c r="D23" s="277" t="s">
         <v>239</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="282"/>
-      <c r="G23" s="282"/>
-      <c r="H23" s="282"/>
-      <c r="I23" s="282"/>
-      <c r="J23" s="282"/>
-      <c r="K23" s="282"/>
-      <c r="L23" s="282"/>
-      <c r="M23" s="282"/>
+      <c r="F23" s="278"/>
+      <c r="G23" s="278"/>
+      <c r="H23" s="278"/>
+      <c r="I23" s="278"/>
+      <c r="J23" s="278"/>
+      <c r="K23" s="278"/>
+      <c r="L23" s="278"/>
+      <c r="M23" s="278"/>
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B24" s="26"/>
-      <c r="C24" s="288"/>
-      <c r="D24" s="288"/>
+      <c r="C24" s="277"/>
+      <c r="D24" s="277"/>
       <c r="E24" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="282"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="282"/>
-      <c r="I24" s="282"/>
-      <c r="J24" s="282"/>
-      <c r="K24" s="282"/>
-      <c r="L24" s="282"/>
-      <c r="M24" s="282"/>
+      <c r="F24" s="278"/>
+      <c r="G24" s="278"/>
+      <c r="H24" s="278"/>
+      <c r="I24" s="278"/>
+      <c r="J24" s="278"/>
+      <c r="K24" s="278"/>
+      <c r="L24" s="278"/>
+      <c r="M24" s="278"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B25" s="26"/>
-      <c r="C25" s="288"/>
-      <c r="D25" s="288"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="277"/>
       <c r="E25" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="282"/>
-      <c r="G25" s="282"/>
-      <c r="H25" s="282"/>
-      <c r="I25" s="282"/>
-      <c r="J25" s="282"/>
-      <c r="K25" s="282"/>
-      <c r="L25" s="282"/>
-      <c r="M25" s="282"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="278"/>
+      <c r="H25" s="278"/>
+      <c r="I25" s="278"/>
+      <c r="J25" s="278"/>
+      <c r="K25" s="278"/>
+      <c r="L25" s="278"/>
+      <c r="M25" s="278"/>
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B26" s="26"/>
-      <c r="C26" s="288"/>
-      <c r="D26" s="288"/>
+      <c r="C26" s="277"/>
+      <c r="D26" s="277"/>
       <c r="E26" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="282"/>
-      <c r="G26" s="282"/>
-      <c r="H26" s="282"/>
-      <c r="I26" s="282"/>
-      <c r="J26" s="282"/>
-      <c r="K26" s="282"/>
-      <c r="L26" s="282"/>
-      <c r="M26" s="282"/>
+      <c r="F26" s="278"/>
+      <c r="G26" s="278"/>
+      <c r="H26" s="278"/>
+      <c r="I26" s="278"/>
+      <c r="J26" s="278"/>
+      <c r="K26" s="278"/>
+      <c r="L26" s="278"/>
+      <c r="M26" s="278"/>
       <c r="N26" s="27"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
@@ -16436,103 +16428,103 @@
       <c r="C28" s="133"/>
       <c r="D28" s="133"/>
       <c r="E28" s="133"/>
-      <c r="F28" s="283" t="s">
+      <c r="F28" s="291" t="s">
         <v>280</v>
       </c>
-      <c r="G28" s="284"/>
-      <c r="H28" s="284"/>
-      <c r="I28" s="284"/>
-      <c r="J28" s="283" t="s">
+      <c r="G28" s="304"/>
+      <c r="H28" s="304"/>
+      <c r="I28" s="304"/>
+      <c r="J28" s="291" t="s">
         <v>277</v>
       </c>
-      <c r="K28" s="284"/>
-      <c r="L28" s="284"/>
-      <c r="M28" s="284"/>
+      <c r="K28" s="304"/>
+      <c r="L28" s="304"/>
+      <c r="M28" s="304"/>
       <c r="N28" s="135"/>
       <c r="P28" s="147"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B29" s="26"/>
-      <c r="C29" s="298" t="s">
+      <c r="C29" s="287" t="s">
         <v>208</v>
       </c>
-      <c r="D29" s="298"/>
-      <c r="E29" s="298"/>
-      <c r="F29" s="299"/>
-      <c r="G29" s="299"/>
-      <c r="H29" s="299"/>
-      <c r="I29" s="299"/>
-      <c r="J29" s="299"/>
-      <c r="K29" s="299"/>
-      <c r="L29" s="299"/>
-      <c r="M29" s="299"/>
+      <c r="D29" s="287"/>
+      <c r="E29" s="287"/>
+      <c r="F29" s="288"/>
+      <c r="G29" s="288"/>
+      <c r="H29" s="288"/>
+      <c r="I29" s="288"/>
+      <c r="J29" s="288"/>
+      <c r="K29" s="288"/>
+      <c r="L29" s="288"/>
+      <c r="M29" s="288"/>
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="26"/>
-      <c r="C30" s="296" t="s">
+      <c r="C30" s="294" t="s">
         <v>229</v>
       </c>
-      <c r="D30" s="296"/>
-      <c r="E30" s="296"/>
-      <c r="F30" s="296"/>
-      <c r="G30" s="296"/>
-      <c r="H30" s="296"/>
-      <c r="I30" s="296"/>
-      <c r="J30" s="296"/>
-      <c r="K30" s="296"/>
-      <c r="L30" s="296"/>
-      <c r="M30" s="296"/>
-      <c r="N30" s="297"/>
+      <c r="D30" s="294"/>
+      <c r="E30" s="294"/>
+      <c r="F30" s="294"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="294"/>
+      <c r="I30" s="294"/>
+      <c r="J30" s="294"/>
+      <c r="K30" s="294"/>
+      <c r="L30" s="294"/>
+      <c r="M30" s="294"/>
+      <c r="N30" s="295"/>
     </row>
     <row r="31" spans="2:16" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B31" s="26"/>
-      <c r="C31" s="294" t="s">
+      <c r="C31" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="280" t="s">
+      <c r="D31" s="299" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="280" t="s">
+      <c r="E31" s="299" t="s">
         <v>235</v>
       </c>
-      <c r="F31" s="285" t="s">
+      <c r="F31" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="286"/>
-      <c r="H31" s="286"/>
-      <c r="I31" s="287"/>
-      <c r="J31" s="285" t="s">
+      <c r="G31" s="302"/>
+      <c r="H31" s="302"/>
+      <c r="I31" s="303"/>
+      <c r="J31" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="286"/>
-      <c r="L31" s="286"/>
-      <c r="M31" s="287"/>
+      <c r="K31" s="302"/>
+      <c r="L31" s="302"/>
+      <c r="M31" s="303"/>
       <c r="N31" s="27"/>
       <c r="P31" s="145"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="26"/>
-      <c r="C32" s="295"/>
-      <c r="D32" s="281"/>
-      <c r="E32" s="281"/>
-      <c r="F32" s="289" t="s">
+      <c r="C32" s="289"/>
+      <c r="D32" s="300"/>
+      <c r="E32" s="300"/>
+      <c r="F32" s="296" t="s">
         <v>209</v>
       </c>
-      <c r="G32" s="290"/>
-      <c r="H32" s="290"/>
-      <c r="I32" s="291"/>
-      <c r="J32" s="289" t="s">
+      <c r="G32" s="297"/>
+      <c r="H32" s="297"/>
+      <c r="I32" s="298"/>
+      <c r="J32" s="296" t="s">
         <v>195</v>
       </c>
-      <c r="K32" s="290"/>
-      <c r="L32" s="290"/>
-      <c r="M32" s="291"/>
+      <c r="K32" s="297"/>
+      <c r="L32" s="297"/>
+      <c r="M32" s="298"/>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="26"/>
-      <c r="C33" s="292" t="s">
+      <c r="C33" s="282" t="s">
         <v>196</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -16541,57 +16533,57 @@
       <c r="E33" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F33" s="277"/>
-      <c r="G33" s="278"/>
-      <c r="H33" s="278"/>
-      <c r="I33" s="279"/>
-      <c r="J33" s="277"/>
-      <c r="K33" s="278"/>
-      <c r="L33" s="278"/>
-      <c r="M33" s="279"/>
+      <c r="F33" s="279"/>
+      <c r="G33" s="280"/>
+      <c r="H33" s="280"/>
+      <c r="I33" s="281"/>
+      <c r="J33" s="279"/>
+      <c r="K33" s="280"/>
+      <c r="L33" s="280"/>
+      <c r="M33" s="281"/>
       <c r="N33" s="27"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="26"/>
-      <c r="C34" s="293"/>
+      <c r="C34" s="283"/>
       <c r="D34" s="217" t="s">
         <v>193</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F34" s="277"/>
-      <c r="G34" s="278"/>
-      <c r="H34" s="278"/>
-      <c r="I34" s="279"/>
-      <c r="J34" s="277"/>
-      <c r="K34" s="278"/>
-      <c r="L34" s="278"/>
-      <c r="M34" s="279"/>
+      <c r="F34" s="279"/>
+      <c r="G34" s="280"/>
+      <c r="H34" s="280"/>
+      <c r="I34" s="281"/>
+      <c r="J34" s="279"/>
+      <c r="K34" s="280"/>
+      <c r="L34" s="280"/>
+      <c r="M34" s="281"/>
       <c r="N34" s="27"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="26"/>
-      <c r="C35" s="293"/>
+      <c r="C35" s="283"/>
       <c r="D35" s="217" t="s">
         <v>40</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F35" s="277"/>
-      <c r="G35" s="278"/>
-      <c r="H35" s="278"/>
-      <c r="I35" s="279"/>
-      <c r="J35" s="277"/>
-      <c r="K35" s="278"/>
-      <c r="L35" s="278"/>
-      <c r="M35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="280"/>
+      <c r="H35" s="280"/>
+      <c r="I35" s="281"/>
+      <c r="J35" s="279"/>
+      <c r="K35" s="280"/>
+      <c r="L35" s="280"/>
+      <c r="M35" s="281"/>
       <c r="N35" s="27"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="26"/>
-      <c r="C36" s="292" t="s">
+      <c r="C36" s="282" t="s">
         <v>197</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -16600,57 +16592,57 @@
       <c r="E36" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F36" s="277"/>
-      <c r="G36" s="278"/>
-      <c r="H36" s="278"/>
-      <c r="I36" s="279"/>
-      <c r="J36" s="277"/>
-      <c r="K36" s="278"/>
-      <c r="L36" s="278"/>
-      <c r="M36" s="279"/>
+      <c r="F36" s="279"/>
+      <c r="G36" s="280"/>
+      <c r="H36" s="280"/>
+      <c r="I36" s="281"/>
+      <c r="J36" s="279"/>
+      <c r="K36" s="280"/>
+      <c r="L36" s="280"/>
+      <c r="M36" s="281"/>
       <c r="N36" s="27"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="26"/>
-      <c r="C37" s="293"/>
+      <c r="C37" s="283"/>
       <c r="D37" s="217" t="s">
         <v>193</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="277"/>
-      <c r="G37" s="278"/>
-      <c r="H37" s="278"/>
-      <c r="I37" s="279"/>
-      <c r="J37" s="277"/>
-      <c r="K37" s="278"/>
-      <c r="L37" s="278"/>
-      <c r="M37" s="279"/>
+      <c r="F37" s="279"/>
+      <c r="G37" s="280"/>
+      <c r="H37" s="280"/>
+      <c r="I37" s="281"/>
+      <c r="J37" s="279"/>
+      <c r="K37" s="280"/>
+      <c r="L37" s="280"/>
+      <c r="M37" s="281"/>
       <c r="N37" s="27"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="26"/>
-      <c r="C38" s="293"/>
+      <c r="C38" s="283"/>
       <c r="D38" s="217" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="277"/>
-      <c r="G38" s="278"/>
-      <c r="H38" s="278"/>
-      <c r="I38" s="279"/>
-      <c r="J38" s="277"/>
-      <c r="K38" s="278"/>
-      <c r="L38" s="278"/>
-      <c r="M38" s="279"/>
+      <c r="F38" s="279"/>
+      <c r="G38" s="280"/>
+      <c r="H38" s="280"/>
+      <c r="I38" s="281"/>
+      <c r="J38" s="279"/>
+      <c r="K38" s="280"/>
+      <c r="L38" s="280"/>
+      <c r="M38" s="281"/>
       <c r="N38" s="27"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="26"/>
-      <c r="C39" s="292" t="s">
+      <c r="C39" s="282" t="s">
         <v>198</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -16659,57 +16651,57 @@
       <c r="E39" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F39" s="277"/>
-      <c r="G39" s="278"/>
-      <c r="H39" s="278"/>
-      <c r="I39" s="279"/>
-      <c r="J39" s="277"/>
-      <c r="K39" s="278"/>
-      <c r="L39" s="278"/>
-      <c r="M39" s="279"/>
+      <c r="F39" s="279"/>
+      <c r="G39" s="280"/>
+      <c r="H39" s="280"/>
+      <c r="I39" s="281"/>
+      <c r="J39" s="279"/>
+      <c r="K39" s="280"/>
+      <c r="L39" s="280"/>
+      <c r="M39" s="281"/>
       <c r="N39" s="27"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="26"/>
-      <c r="C40" s="293"/>
+      <c r="C40" s="283"/>
       <c r="D40" s="217" t="s">
         <v>193</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F40" s="277"/>
-      <c r="G40" s="278"/>
-      <c r="H40" s="278"/>
-      <c r="I40" s="279"/>
-      <c r="J40" s="277"/>
-      <c r="K40" s="278"/>
-      <c r="L40" s="278"/>
-      <c r="M40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="280"/>
+      <c r="H40" s="280"/>
+      <c r="I40" s="281"/>
+      <c r="J40" s="279"/>
+      <c r="K40" s="280"/>
+      <c r="L40" s="280"/>
+      <c r="M40" s="281"/>
       <c r="N40" s="27"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="26"/>
-      <c r="C41" s="293"/>
+      <c r="C41" s="283"/>
       <c r="D41" s="217" t="s">
         <v>40</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F41" s="277"/>
-      <c r="G41" s="278"/>
-      <c r="H41" s="278"/>
-      <c r="I41" s="279"/>
-      <c r="J41" s="277"/>
-      <c r="K41" s="278"/>
-      <c r="L41" s="278"/>
-      <c r="M41" s="279"/>
+      <c r="F41" s="279"/>
+      <c r="G41" s="280"/>
+      <c r="H41" s="280"/>
+      <c r="I41" s="281"/>
+      <c r="J41" s="279"/>
+      <c r="K41" s="280"/>
+      <c r="L41" s="280"/>
+      <c r="M41" s="281"/>
       <c r="N41" s="27"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="26"/>
-      <c r="C42" s="292" t="s">
+      <c r="C42" s="282" t="s">
         <v>199</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -16718,57 +16710,57 @@
       <c r="E42" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F42" s="277"/>
-      <c r="G42" s="278"/>
-      <c r="H42" s="278"/>
-      <c r="I42" s="279"/>
-      <c r="J42" s="277"/>
-      <c r="K42" s="278"/>
-      <c r="L42" s="278"/>
-      <c r="M42" s="279"/>
+      <c r="F42" s="279"/>
+      <c r="G42" s="280"/>
+      <c r="H42" s="280"/>
+      <c r="I42" s="281"/>
+      <c r="J42" s="279"/>
+      <c r="K42" s="280"/>
+      <c r="L42" s="280"/>
+      <c r="M42" s="281"/>
       <c r="N42" s="27"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="26"/>
-      <c r="C43" s="293"/>
+      <c r="C43" s="283"/>
       <c r="D43" s="217" t="s">
         <v>193</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F43" s="277"/>
-      <c r="G43" s="278"/>
-      <c r="H43" s="278"/>
-      <c r="I43" s="279"/>
-      <c r="J43" s="277"/>
-      <c r="K43" s="278"/>
-      <c r="L43" s="278"/>
-      <c r="M43" s="279"/>
+      <c r="F43" s="279"/>
+      <c r="G43" s="280"/>
+      <c r="H43" s="280"/>
+      <c r="I43" s="281"/>
+      <c r="J43" s="279"/>
+      <c r="K43" s="280"/>
+      <c r="L43" s="280"/>
+      <c r="M43" s="281"/>
       <c r="N43" s="27"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="26"/>
-      <c r="C44" s="293"/>
+      <c r="C44" s="283"/>
       <c r="D44" s="217" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F44" s="277"/>
-      <c r="G44" s="278"/>
-      <c r="H44" s="278"/>
-      <c r="I44" s="279"/>
-      <c r="J44" s="277"/>
-      <c r="K44" s="278"/>
-      <c r="L44" s="278"/>
-      <c r="M44" s="279"/>
+      <c r="F44" s="279"/>
+      <c r="G44" s="280"/>
+      <c r="H44" s="280"/>
+      <c r="I44" s="281"/>
+      <c r="J44" s="279"/>
+      <c r="K44" s="280"/>
+      <c r="L44" s="280"/>
+      <c r="M44" s="281"/>
       <c r="N44" s="27"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="26"/>
-      <c r="C45" s="292" t="s">
+      <c r="C45" s="282" t="s">
         <v>200</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -16777,57 +16769,57 @@
       <c r="E45" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F45" s="277"/>
-      <c r="G45" s="278"/>
-      <c r="H45" s="278"/>
-      <c r="I45" s="279"/>
-      <c r="J45" s="277"/>
-      <c r="K45" s="278"/>
-      <c r="L45" s="278"/>
-      <c r="M45" s="279"/>
+      <c r="F45" s="279"/>
+      <c r="G45" s="280"/>
+      <c r="H45" s="280"/>
+      <c r="I45" s="281"/>
+      <c r="J45" s="279"/>
+      <c r="K45" s="280"/>
+      <c r="L45" s="280"/>
+      <c r="M45" s="281"/>
       <c r="N45" s="27"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="26"/>
-      <c r="C46" s="293"/>
+      <c r="C46" s="283"/>
       <c r="D46" s="217" t="s">
         <v>193</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F46" s="277"/>
-      <c r="G46" s="278"/>
-      <c r="H46" s="278"/>
-      <c r="I46" s="279"/>
-      <c r="J46" s="277"/>
-      <c r="K46" s="278"/>
-      <c r="L46" s="278"/>
-      <c r="M46" s="279"/>
+      <c r="F46" s="279"/>
+      <c r="G46" s="280"/>
+      <c r="H46" s="280"/>
+      <c r="I46" s="281"/>
+      <c r="J46" s="279"/>
+      <c r="K46" s="280"/>
+      <c r="L46" s="280"/>
+      <c r="M46" s="281"/>
       <c r="N46" s="27"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47" s="26"/>
-      <c r="C47" s="293"/>
+      <c r="C47" s="283"/>
       <c r="D47" s="217" t="s">
         <v>40</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F47" s="277"/>
-      <c r="G47" s="278"/>
-      <c r="H47" s="278"/>
-      <c r="I47" s="279"/>
-      <c r="J47" s="277"/>
-      <c r="K47" s="278"/>
-      <c r="L47" s="278"/>
-      <c r="M47" s="279"/>
+      <c r="F47" s="279"/>
+      <c r="G47" s="280"/>
+      <c r="H47" s="280"/>
+      <c r="I47" s="281"/>
+      <c r="J47" s="279"/>
+      <c r="K47" s="280"/>
+      <c r="L47" s="280"/>
+      <c r="M47" s="281"/>
       <c r="N47" s="27"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="26"/>
-      <c r="C48" s="292" t="s">
+      <c r="C48" s="282" t="s">
         <v>201</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -16836,57 +16828,57 @@
       <c r="E48" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F48" s="277"/>
-      <c r="G48" s="278"/>
-      <c r="H48" s="278"/>
-      <c r="I48" s="279"/>
-      <c r="J48" s="277"/>
-      <c r="K48" s="278"/>
-      <c r="L48" s="278"/>
-      <c r="M48" s="279"/>
+      <c r="F48" s="279"/>
+      <c r="G48" s="280"/>
+      <c r="H48" s="280"/>
+      <c r="I48" s="281"/>
+      <c r="J48" s="279"/>
+      <c r="K48" s="280"/>
+      <c r="L48" s="280"/>
+      <c r="M48" s="281"/>
       <c r="N48" s="27"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B49" s="26"/>
-      <c r="C49" s="293"/>
+      <c r="C49" s="283"/>
       <c r="D49" s="217" t="s">
         <v>193</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F49" s="277"/>
-      <c r="G49" s="278"/>
-      <c r="H49" s="278"/>
-      <c r="I49" s="279"/>
-      <c r="J49" s="277"/>
-      <c r="K49" s="278"/>
-      <c r="L49" s="278"/>
-      <c r="M49" s="279"/>
+      <c r="F49" s="279"/>
+      <c r="G49" s="280"/>
+      <c r="H49" s="280"/>
+      <c r="I49" s="281"/>
+      <c r="J49" s="279"/>
+      <c r="K49" s="280"/>
+      <c r="L49" s="280"/>
+      <c r="M49" s="281"/>
       <c r="N49" s="27"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50" s="26"/>
-      <c r="C50" s="293"/>
+      <c r="C50" s="283"/>
       <c r="D50" s="217" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F50" s="277"/>
-      <c r="G50" s="278"/>
-      <c r="H50" s="278"/>
-      <c r="I50" s="279"/>
-      <c r="J50" s="277"/>
-      <c r="K50" s="278"/>
-      <c r="L50" s="278"/>
-      <c r="M50" s="279"/>
+      <c r="F50" s="279"/>
+      <c r="G50" s="280"/>
+      <c r="H50" s="280"/>
+      <c r="I50" s="281"/>
+      <c r="J50" s="279"/>
+      <c r="K50" s="280"/>
+      <c r="L50" s="280"/>
+      <c r="M50" s="281"/>
       <c r="N50" s="27"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51" s="26"/>
-      <c r="C51" s="292" t="s">
+      <c r="C51" s="282" t="s">
         <v>202</v>
       </c>
       <c r="D51" s="13" t="s">
@@ -16895,57 +16887,57 @@
       <c r="E51" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F51" s="277"/>
-      <c r="G51" s="278"/>
-      <c r="H51" s="278"/>
-      <c r="I51" s="279"/>
-      <c r="J51" s="277"/>
-      <c r="K51" s="278"/>
-      <c r="L51" s="278"/>
-      <c r="M51" s="279"/>
+      <c r="F51" s="279"/>
+      <c r="G51" s="280"/>
+      <c r="H51" s="280"/>
+      <c r="I51" s="281"/>
+      <c r="J51" s="279"/>
+      <c r="K51" s="280"/>
+      <c r="L51" s="280"/>
+      <c r="M51" s="281"/>
       <c r="N51" s="27"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52" s="26"/>
-      <c r="C52" s="293"/>
+      <c r="C52" s="283"/>
       <c r="D52" s="217" t="s">
         <v>193</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F52" s="277"/>
-      <c r="G52" s="278"/>
-      <c r="H52" s="278"/>
-      <c r="I52" s="279"/>
-      <c r="J52" s="277"/>
-      <c r="K52" s="278"/>
-      <c r="L52" s="278"/>
-      <c r="M52" s="279"/>
+      <c r="F52" s="279"/>
+      <c r="G52" s="280"/>
+      <c r="H52" s="280"/>
+      <c r="I52" s="281"/>
+      <c r="J52" s="279"/>
+      <c r="K52" s="280"/>
+      <c r="L52" s="280"/>
+      <c r="M52" s="281"/>
       <c r="N52" s="27"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53" s="26"/>
-      <c r="C53" s="293"/>
+      <c r="C53" s="283"/>
       <c r="D53" s="217" t="s">
         <v>40</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F53" s="277"/>
-      <c r="G53" s="278"/>
-      <c r="H53" s="278"/>
-      <c r="I53" s="279"/>
-      <c r="J53" s="277"/>
-      <c r="K53" s="278"/>
-      <c r="L53" s="278"/>
-      <c r="M53" s="279"/>
+      <c r="F53" s="279"/>
+      <c r="G53" s="280"/>
+      <c r="H53" s="280"/>
+      <c r="I53" s="281"/>
+      <c r="J53" s="279"/>
+      <c r="K53" s="280"/>
+      <c r="L53" s="280"/>
+      <c r="M53" s="281"/>
       <c r="N53" s="27"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="26"/>
-      <c r="C54" s="292" t="s">
+      <c r="C54" s="282" t="s">
         <v>203</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -16954,57 +16946,57 @@
       <c r="E54" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F54" s="277"/>
-      <c r="G54" s="278"/>
-      <c r="H54" s="278"/>
-      <c r="I54" s="279"/>
-      <c r="J54" s="277"/>
-      <c r="K54" s="278"/>
-      <c r="L54" s="278"/>
-      <c r="M54" s="279"/>
+      <c r="F54" s="279"/>
+      <c r="G54" s="280"/>
+      <c r="H54" s="280"/>
+      <c r="I54" s="281"/>
+      <c r="J54" s="279"/>
+      <c r="K54" s="280"/>
+      <c r="L54" s="280"/>
+      <c r="M54" s="281"/>
       <c r="N54" s="27"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="26"/>
-      <c r="C55" s="293"/>
+      <c r="C55" s="283"/>
       <c r="D55" s="217" t="s">
         <v>193</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F55" s="277"/>
-      <c r="G55" s="278"/>
-      <c r="H55" s="278"/>
-      <c r="I55" s="279"/>
-      <c r="J55" s="277"/>
-      <c r="K55" s="278"/>
-      <c r="L55" s="278"/>
-      <c r="M55" s="279"/>
+      <c r="F55" s="279"/>
+      <c r="G55" s="280"/>
+      <c r="H55" s="280"/>
+      <c r="I55" s="281"/>
+      <c r="J55" s="279"/>
+      <c r="K55" s="280"/>
+      <c r="L55" s="280"/>
+      <c r="M55" s="281"/>
       <c r="N55" s="27"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="26"/>
-      <c r="C56" s="293"/>
+      <c r="C56" s="283"/>
       <c r="D56" s="217" t="s">
         <v>40</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F56" s="277"/>
-      <c r="G56" s="278"/>
-      <c r="H56" s="278"/>
-      <c r="I56" s="279"/>
-      <c r="J56" s="277"/>
-      <c r="K56" s="278"/>
-      <c r="L56" s="278"/>
-      <c r="M56" s="279"/>
+      <c r="F56" s="279"/>
+      <c r="G56" s="280"/>
+      <c r="H56" s="280"/>
+      <c r="I56" s="281"/>
+      <c r="J56" s="279"/>
+      <c r="K56" s="280"/>
+      <c r="L56" s="280"/>
+      <c r="M56" s="281"/>
       <c r="N56" s="27"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="26"/>
-      <c r="C57" s="292" t="s">
+      <c r="C57" s="282" t="s">
         <v>204</v>
       </c>
       <c r="D57" s="13" t="s">
@@ -17013,57 +17005,57 @@
       <c r="E57" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F57" s="277"/>
-      <c r="G57" s="278"/>
-      <c r="H57" s="278"/>
-      <c r="I57" s="279"/>
-      <c r="J57" s="277"/>
-      <c r="K57" s="278"/>
-      <c r="L57" s="278"/>
-      <c r="M57" s="279"/>
+      <c r="F57" s="279"/>
+      <c r="G57" s="280"/>
+      <c r="H57" s="280"/>
+      <c r="I57" s="281"/>
+      <c r="J57" s="279"/>
+      <c r="K57" s="280"/>
+      <c r="L57" s="280"/>
+      <c r="M57" s="281"/>
       <c r="N57" s="27"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58" s="26"/>
-      <c r="C58" s="293"/>
+      <c r="C58" s="283"/>
       <c r="D58" s="217" t="s">
         <v>193</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F58" s="277"/>
-      <c r="G58" s="278"/>
-      <c r="H58" s="278"/>
-      <c r="I58" s="279"/>
-      <c r="J58" s="277"/>
-      <c r="K58" s="278"/>
-      <c r="L58" s="278"/>
-      <c r="M58" s="279"/>
+      <c r="F58" s="279"/>
+      <c r="G58" s="280"/>
+      <c r="H58" s="280"/>
+      <c r="I58" s="281"/>
+      <c r="J58" s="279"/>
+      <c r="K58" s="280"/>
+      <c r="L58" s="280"/>
+      <c r="M58" s="281"/>
       <c r="N58" s="27"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59" s="26"/>
-      <c r="C59" s="293"/>
+      <c r="C59" s="283"/>
       <c r="D59" s="217" t="s">
         <v>40</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F59" s="277"/>
-      <c r="G59" s="278"/>
-      <c r="H59" s="278"/>
-      <c r="I59" s="279"/>
-      <c r="J59" s="277"/>
-      <c r="K59" s="278"/>
-      <c r="L59" s="278"/>
-      <c r="M59" s="279"/>
+      <c r="F59" s="279"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="281"/>
+      <c r="J59" s="279"/>
+      <c r="K59" s="280"/>
+      <c r="L59" s="280"/>
+      <c r="M59" s="281"/>
       <c r="N59" s="27"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="26"/>
-      <c r="C60" s="292" t="s">
+      <c r="C60" s="282" t="s">
         <v>205</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -17072,57 +17064,57 @@
       <c r="E60" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F60" s="277"/>
-      <c r="G60" s="278"/>
-      <c r="H60" s="278"/>
-      <c r="I60" s="279"/>
-      <c r="J60" s="277"/>
-      <c r="K60" s="278"/>
-      <c r="L60" s="278"/>
-      <c r="M60" s="279"/>
+      <c r="F60" s="279"/>
+      <c r="G60" s="280"/>
+      <c r="H60" s="280"/>
+      <c r="I60" s="281"/>
+      <c r="J60" s="279"/>
+      <c r="K60" s="280"/>
+      <c r="L60" s="280"/>
+      <c r="M60" s="281"/>
       <c r="N60" s="27"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61" s="26"/>
-      <c r="C61" s="293"/>
+      <c r="C61" s="283"/>
       <c r="D61" s="217" t="s">
         <v>193</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F61" s="277"/>
-      <c r="G61" s="278"/>
-      <c r="H61" s="278"/>
-      <c r="I61" s="279"/>
-      <c r="J61" s="277"/>
-      <c r="K61" s="278"/>
-      <c r="L61" s="278"/>
-      <c r="M61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="280"/>
+      <c r="H61" s="280"/>
+      <c r="I61" s="281"/>
+      <c r="J61" s="279"/>
+      <c r="K61" s="280"/>
+      <c r="L61" s="280"/>
+      <c r="M61" s="281"/>
       <c r="N61" s="27"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62" s="26"/>
-      <c r="C62" s="293"/>
+      <c r="C62" s="283"/>
       <c r="D62" s="217" t="s">
         <v>40</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F62" s="277"/>
-      <c r="G62" s="278"/>
-      <c r="H62" s="278"/>
-      <c r="I62" s="279"/>
-      <c r="J62" s="277"/>
-      <c r="K62" s="278"/>
-      <c r="L62" s="278"/>
-      <c r="M62" s="279"/>
+      <c r="F62" s="279"/>
+      <c r="G62" s="280"/>
+      <c r="H62" s="280"/>
+      <c r="I62" s="281"/>
+      <c r="J62" s="279"/>
+      <c r="K62" s="280"/>
+      <c r="L62" s="280"/>
+      <c r="M62" s="281"/>
       <c r="N62" s="27"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="26"/>
-      <c r="C63" s="292" t="s">
+      <c r="C63" s="282" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="13" t="s">
@@ -17131,57 +17123,57 @@
       <c r="E63" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F63" s="277"/>
-      <c r="G63" s="278"/>
-      <c r="H63" s="278"/>
-      <c r="I63" s="279"/>
-      <c r="J63" s="277"/>
-      <c r="K63" s="278"/>
-      <c r="L63" s="278"/>
-      <c r="M63" s="279"/>
+      <c r="F63" s="279"/>
+      <c r="G63" s="280"/>
+      <c r="H63" s="280"/>
+      <c r="I63" s="281"/>
+      <c r="J63" s="279"/>
+      <c r="K63" s="280"/>
+      <c r="L63" s="280"/>
+      <c r="M63" s="281"/>
       <c r="N63" s="27"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="26"/>
-      <c r="C64" s="293"/>
+      <c r="C64" s="283"/>
       <c r="D64" s="217" t="s">
         <v>193</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F64" s="277"/>
-      <c r="G64" s="278"/>
-      <c r="H64" s="278"/>
-      <c r="I64" s="279"/>
-      <c r="J64" s="277"/>
-      <c r="K64" s="278"/>
-      <c r="L64" s="278"/>
-      <c r="M64" s="279"/>
+      <c r="F64" s="279"/>
+      <c r="G64" s="280"/>
+      <c r="H64" s="280"/>
+      <c r="I64" s="281"/>
+      <c r="J64" s="279"/>
+      <c r="K64" s="280"/>
+      <c r="L64" s="280"/>
+      <c r="M64" s="281"/>
       <c r="N64" s="27"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="26"/>
-      <c r="C65" s="293"/>
+      <c r="C65" s="283"/>
       <c r="D65" s="217" t="s">
         <v>40</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F65" s="277"/>
-      <c r="G65" s="278"/>
-      <c r="H65" s="278"/>
-      <c r="I65" s="279"/>
-      <c r="J65" s="277"/>
-      <c r="K65" s="278"/>
-      <c r="L65" s="278"/>
-      <c r="M65" s="279"/>
+      <c r="F65" s="279"/>
+      <c r="G65" s="280"/>
+      <c r="H65" s="280"/>
+      <c r="I65" s="281"/>
+      <c r="J65" s="279"/>
+      <c r="K65" s="280"/>
+      <c r="L65" s="280"/>
+      <c r="M65" s="281"/>
       <c r="N65" s="27"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66" s="26"/>
-      <c r="C66" s="288" t="s">
+      <c r="C66" s="277" t="s">
         <v>207</v>
       </c>
       <c r="D66" s="13" t="s">
@@ -17190,52 +17182,52 @@
       <c r="E66" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F66" s="282"/>
-      <c r="G66" s="282"/>
-      <c r="H66" s="282"/>
-      <c r="I66" s="282"/>
-      <c r="J66" s="277"/>
-      <c r="K66" s="278"/>
-      <c r="L66" s="278"/>
-      <c r="M66" s="279"/>
+      <c r="F66" s="278"/>
+      <c r="G66" s="278"/>
+      <c r="H66" s="278"/>
+      <c r="I66" s="278"/>
+      <c r="J66" s="279"/>
+      <c r="K66" s="280"/>
+      <c r="L66" s="280"/>
+      <c r="M66" s="281"/>
       <c r="N66" s="27"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B67" s="26"/>
-      <c r="C67" s="288"/>
+      <c r="C67" s="277"/>
       <c r="D67" s="13" t="s">
         <v>193</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F67" s="282"/>
-      <c r="G67" s="282"/>
-      <c r="H67" s="282"/>
-      <c r="I67" s="282"/>
-      <c r="J67" s="277"/>
-      <c r="K67" s="278"/>
-      <c r="L67" s="278"/>
-      <c r="M67" s="279"/>
+      <c r="F67" s="278"/>
+      <c r="G67" s="278"/>
+      <c r="H67" s="278"/>
+      <c r="I67" s="278"/>
+      <c r="J67" s="279"/>
+      <c r="K67" s="280"/>
+      <c r="L67" s="280"/>
+      <c r="M67" s="281"/>
       <c r="N67" s="27"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B68" s="26"/>
-      <c r="C68" s="288"/>
+      <c r="C68" s="277"/>
       <c r="D68" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F68" s="282"/>
-      <c r="G68" s="282"/>
-      <c r="H68" s="282"/>
-      <c r="I68" s="282"/>
-      <c r="J68" s="277"/>
-      <c r="K68" s="278"/>
-      <c r="L68" s="278"/>
-      <c r="M68" s="279"/>
+      <c r="F68" s="278"/>
+      <c r="G68" s="278"/>
+      <c r="H68" s="278"/>
+      <c r="I68" s="278"/>
+      <c r="J68" s="279"/>
+      <c r="K68" s="280"/>
+      <c r="L68" s="280"/>
+      <c r="M68" s="281"/>
       <c r="N68" s="27"/>
     </row>
     <row r="69" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17256,20 +17248,110 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="142">
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="F24:I24"/>
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="F60:I60"/>
@@ -17294,110 +17376,20 @@
     <mergeCell ref="F56:I56"/>
     <mergeCell ref="J56:M56"/>
     <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F12:M12">
@@ -17908,20 +17900,20 @@
     </row>
     <row r="5" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B5" s="58"/>
-      <c r="C5" s="237" t="s">
+      <c r="C5" s="246" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
       <c r="H5" s="59"/>
       <c r="I5" s="171"/>
       <c r="J5" s="171"/>
     </row>
     <row r="6" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="58"/>
-      <c r="C6" s="270" t="s">
+      <c r="C6" s="254" t="s">
         <v>295</v>
       </c>
       <c r="D6" s="307"/>
@@ -18341,14 +18333,14 @@
     </row>
     <row r="4" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7"/>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="246" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -18363,83 +18355,83 @@
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="261" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
-      <c r="C7" s="270" t="s">
+      <c r="C7" s="254" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="268"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="261"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
-      <c r="C8" s="268" t="s">
+      <c r="C8" s="261" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="268"/>
-      <c r="H8" s="268"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="261"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
-      <c r="C9" s="268" t="s">
+      <c r="C9" s="261" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
-      <c r="G9" s="268"/>
-      <c r="H9" s="268"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
+      <c r="G9" s="261"/>
+      <c r="H9" s="261"/>
       <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="268"/>
-      <c r="H10" s="268"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
+      <c r="G10" s="261"/>
+      <c r="H10" s="261"/>
       <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
-      <c r="C11" s="336" t="s">
+      <c r="C11" s="353" t="s">
         <v>320</v>
       </c>
-      <c r="D11" s="336"/>
-      <c r="E11" s="336"/>
-      <c r="F11" s="336"/>
-      <c r="G11" s="336"/>
-      <c r="H11" s="336"/>
+      <c r="D11" s="353"/>
+      <c r="E11" s="353"/>
+      <c r="F11" s="353"/>
+      <c r="G11" s="353"/>
+      <c r="H11" s="353"/>
       <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
-      <c r="C12" s="334" t="s">
+      <c r="C12" s="351" t="s">
         <v>290</v>
       </c>
-      <c r="D12" s="335"/>
-      <c r="E12" s="335"/>
-      <c r="F12" s="335"/>
-      <c r="G12" s="335"/>
+      <c r="D12" s="352"/>
+      <c r="E12" s="352"/>
+      <c r="F12" s="352"/>
+      <c r="G12" s="352"/>
       <c r="H12" s="101"/>
       <c r="I12" s="37"/>
     </row>
@@ -18474,35 +18466,35 @@
         <v>0</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="340"/>
-      <c r="F15" s="340"/>
-      <c r="G15" s="340"/>
-      <c r="H15" s="340"/>
+      <c r="E15" s="356"/>
+      <c r="F15" s="356"/>
+      <c r="G15" s="356"/>
+      <c r="H15" s="356"/>
       <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="267" t="s">
+      <c r="C16" s="265" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="267"/>
-      <c r="E16" s="262" t="s">
+      <c r="D16" s="265"/>
+      <c r="E16" s="275" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="339"/>
-      <c r="G16" s="262" t="s">
+      <c r="F16" s="324"/>
+      <c r="G16" s="275" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="339"/>
+      <c r="H16" s="324"/>
       <c r="I16" s="38"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="267"/>
-      <c r="D17" s="267"/>
+      <c r="C17" s="265"/>
+      <c r="D17" s="265"/>
       <c r="E17" s="166" t="s">
         <v>242</v>
       </c>
@@ -18521,8 +18513,8 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="267"/>
-      <c r="D18" s="267"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="265"/>
       <c r="E18" s="104" t="s">
         <v>237</v>
       </c>
@@ -18541,10 +18533,10 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="328" t="s">
+      <c r="C19" s="371" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="329"/>
+      <c r="D19" s="372"/>
       <c r="E19" s="96"/>
       <c r="F19" s="96"/>
       <c r="G19" s="96"/>
@@ -18555,10 +18547,10 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="337" t="s">
+      <c r="C20" s="354" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="338"/>
+      <c r="D20" s="355"/>
       <c r="E20" s="96"/>
       <c r="F20" s="96"/>
       <c r="G20" s="96"/>
@@ -18569,10 +18561,10 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="318" t="s">
+      <c r="C21" s="361" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="319"/>
+      <c r="D21" s="362"/>
       <c r="E21" s="96"/>
       <c r="F21" s="96"/>
       <c r="G21" s="96"/>
@@ -18583,10 +18575,10 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="330" t="s">
+      <c r="C22" s="373" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="331"/>
+      <c r="D22" s="374"/>
       <c r="E22" s="96"/>
       <c r="F22" s="96"/>
       <c r="G22" s="96"/>
@@ -18597,10 +18589,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="332" t="s">
+      <c r="C23" s="375" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="333"/>
+      <c r="D23" s="376"/>
       <c r="E23" s="96"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
@@ -18611,10 +18603,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="326" t="s">
+      <c r="C24" s="369" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="327"/>
+      <c r="D24" s="370"/>
       <c r="E24" s="96"/>
       <c r="F24" s="96"/>
       <c r="G24" s="96"/>
@@ -18625,10 +18617,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="365" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="323"/>
+      <c r="D25" s="366"/>
       <c r="E25" s="96"/>
       <c r="F25" s="96"/>
       <c r="G25" s="96"/>
@@ -18639,10 +18631,10 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="324" t="s">
+      <c r="C26" s="367" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="325"/>
+      <c r="D26" s="368"/>
       <c r="E26" s="96"/>
       <c r="F26" s="96"/>
       <c r="G26" s="96"/>
@@ -18653,10 +18645,10 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="357" t="s">
+      <c r="C27" s="341" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="358"/>
+      <c r="D27" s="342"/>
       <c r="E27" s="96"/>
       <c r="F27" s="96"/>
       <c r="G27" s="96"/>
@@ -18666,10 +18658,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
-      <c r="C28" s="316" t="s">
+      <c r="C28" s="359" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="317"/>
+      <c r="D28" s="360"/>
       <c r="E28" s="96"/>
       <c r="F28" s="96"/>
       <c r="G28" s="96"/>
@@ -18678,10 +18670,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
-      <c r="C29" s="365" t="s">
+      <c r="C29" s="349" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="366"/>
+      <c r="D29" s="350"/>
       <c r="E29" s="96"/>
       <c r="F29" s="96"/>
       <c r="G29" s="96"/>
@@ -18690,10 +18682,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
-      <c r="C30" s="320" t="s">
+      <c r="C30" s="363" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="321"/>
+      <c r="D30" s="364"/>
       <c r="E30" s="96"/>
       <c r="F30" s="96"/>
       <c r="G30" s="96"/>
@@ -18702,10 +18694,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
-      <c r="C31" s="347" t="s">
+      <c r="C31" s="331" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="348"/>
+      <c r="D31" s="332"/>
       <c r="E31" s="96"/>
       <c r="F31" s="96"/>
       <c r="G31" s="96"/>
@@ -18714,10 +18706,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
-      <c r="C32" s="349" t="s">
+      <c r="C32" s="333" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="350"/>
+      <c r="D32" s="334"/>
       <c r="E32" s="96"/>
       <c r="F32" s="96"/>
       <c r="G32" s="96"/>
@@ -18726,10 +18718,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
-      <c r="C33" s="351" t="s">
+      <c r="C33" s="335" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="352"/>
+      <c r="D33" s="336"/>
       <c r="E33" s="96"/>
       <c r="F33" s="96"/>
       <c r="G33" s="96"/>
@@ -18738,10 +18730,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="C34" s="314" t="s">
+      <c r="C34" s="357" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="315"/>
+      <c r="D34" s="358"/>
       <c r="E34" s="96"/>
       <c r="F34" s="96"/>
       <c r="G34" s="96"/>
@@ -18750,10 +18742,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
-      <c r="C35" s="363" t="s">
+      <c r="C35" s="347" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="364"/>
+      <c r="D35" s="348"/>
       <c r="E35" s="96"/>
       <c r="F35" s="96"/>
       <c r="G35" s="96"/>
@@ -18762,10 +18754,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
-      <c r="C36" s="359" t="s">
+      <c r="C36" s="343" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="360"/>
+      <c r="D36" s="344"/>
       <c r="E36" s="96"/>
       <c r="F36" s="96"/>
       <c r="G36" s="96"/>
@@ -18774,10 +18766,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
-      <c r="C37" s="361" t="s">
+      <c r="C37" s="345" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="362"/>
+      <c r="D37" s="346"/>
       <c r="E37" s="96"/>
       <c r="F37" s="96"/>
       <c r="G37" s="96"/>
@@ -18786,10 +18778,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
-      <c r="C38" s="345" t="s">
+      <c r="C38" s="329" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="346"/>
+      <c r="D38" s="330"/>
       <c r="E38" s="96"/>
       <c r="F38" s="96"/>
       <c r="G38" s="96"/>
@@ -18798,10 +18790,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
-      <c r="C39" s="343" t="s">
+      <c r="C39" s="327" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="344"/>
+      <c r="D39" s="328"/>
       <c r="E39" s="96"/>
       <c r="F39" s="96"/>
       <c r="G39" s="96"/>
@@ -18810,10 +18802,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
-      <c r="C40" s="353" t="s">
+      <c r="C40" s="337" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="354"/>
+      <c r="D40" s="338"/>
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
       <c r="G40" s="96"/>
@@ -18822,10 +18814,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
-      <c r="C41" s="355" t="s">
+      <c r="C41" s="339" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="356"/>
+      <c r="D41" s="340"/>
       <c r="E41" s="96"/>
       <c r="F41" s="96"/>
       <c r="G41" s="96"/>
@@ -18834,10 +18826,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
-      <c r="C42" s="341" t="s">
+      <c r="C42" s="325" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="342"/>
+      <c r="D42" s="326"/>
       <c r="E42" s="96"/>
       <c r="F42" s="96"/>
       <c r="G42" s="96"/>
@@ -18870,14 +18862,14 @@
     </row>
     <row r="46" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B46" s="58"/>
-      <c r="C46" s="237" t="s">
+      <c r="C46" s="246" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="237"/>
-      <c r="E46" s="237"/>
-      <c r="F46" s="237"/>
-      <c r="G46" s="237"/>
-      <c r="H46" s="237"/>
+      <c r="D46" s="246"/>
+      <c r="E46" s="246"/>
+      <c r="F46" s="246"/>
+      <c r="G46" s="246"/>
+      <c r="H46" s="246"/>
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
@@ -18892,25 +18884,25 @@
     </row>
     <row r="48" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="58"/>
-      <c r="C48" s="269" t="s">
+      <c r="C48" s="253" t="s">
         <v>243</v>
       </c>
-      <c r="D48" s="268"/>
-      <c r="E48" s="268"/>
-      <c r="F48" s="268"/>
-      <c r="G48" s="268"/>
-      <c r="H48" s="268"/>
+      <c r="D48" s="261"/>
+      <c r="E48" s="261"/>
+      <c r="F48" s="261"/>
+      <c r="G48" s="261"/>
+      <c r="H48" s="261"/>
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="58"/>
-      <c r="C49" s="370" t="s">
+      <c r="C49" s="317" t="s">
         <v>315</v>
       </c>
-      <c r="D49" s="268"/>
-      <c r="E49" s="268"/>
-      <c r="F49" s="268"/>
-      <c r="G49" s="268"/>
+      <c r="D49" s="261"/>
+      <c r="E49" s="261"/>
+      <c r="F49" s="261"/>
+      <c r="G49" s="261"/>
       <c r="H49" s="101"/>
       <c r="I49" s="8"/>
     </row>
@@ -18938,11 +18930,11 @@
     </row>
     <row r="52" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="58"/>
-      <c r="C52" s="371" t="s">
+      <c r="C52" s="318" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="372"/>
-      <c r="E52" s="373"/>
+      <c r="D52" s="319"/>
+      <c r="E52" s="320"/>
       <c r="F52" s="104" t="s">
         <v>93</v>
       </c>
@@ -18956,9 +18948,9 @@
     </row>
     <row r="53" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="58"/>
-      <c r="C53" s="374"/>
-      <c r="D53" s="375"/>
-      <c r="E53" s="376"/>
+      <c r="C53" s="321"/>
+      <c r="D53" s="322"/>
+      <c r="E53" s="323"/>
       <c r="F53" s="166" t="s">
         <v>237</v>
       </c>
@@ -18972,11 +18964,11 @@
     </row>
     <row r="54" spans="2:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B54" s="58"/>
-      <c r="C54" s="367" t="s">
+      <c r="C54" s="314" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="368"/>
-      <c r="E54" s="369"/>
+      <c r="D54" s="315"/>
+      <c r="E54" s="316"/>
       <c r="F54" s="117"/>
       <c r="G54" s="117"/>
       <c r="H54" s="117"/>
@@ -18984,11 +18976,11 @@
     </row>
     <row r="55" spans="2:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B55" s="58"/>
-      <c r="C55" s="367" t="s">
+      <c r="C55" s="314" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="368"/>
-      <c r="E55" s="369"/>
+      <c r="D55" s="315"/>
+      <c r="E55" s="316"/>
       <c r="F55" s="117"/>
       <c r="G55" s="117"/>
       <c r="H55" s="117"/>
@@ -19007,11 +18999,30 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C52:E53"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="C42:D42"/>
@@ -19028,30 +19039,11 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C52:E53"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E15">
@@ -19210,18 +19202,18 @@
     </row>
     <row r="4" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7"/>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="246" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="246"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="246"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="246"/>
+      <c r="J4" s="246"/>
+      <c r="K4" s="246"/>
+      <c r="L4" s="246"/>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19240,34 +19232,34 @@
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="268"/>
-      <c r="K6" s="268"/>
-      <c r="L6" s="268"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="2:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
-      <c r="C7" s="268" t="s">
+      <c r="C7" s="261" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="268"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="268"/>
-      <c r="K7" s="268"/>
-      <c r="L7" s="268"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="261"/>
+      <c r="I7" s="261"/>
+      <c r="J7" s="261"/>
+      <c r="K7" s="261"/>
+      <c r="L7" s="261"/>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19286,29 +19278,29 @@
     </row>
     <row r="9" spans="2:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
-      <c r="C9" s="270" t="s">
+      <c r="C9" s="254" t="s">
         <v>316</v>
       </c>
-      <c r="D9" s="270"/>
-      <c r="E9" s="270"/>
-      <c r="F9" s="270"/>
-      <c r="G9" s="270"/>
-      <c r="H9" s="270"/>
-      <c r="I9" s="270"/>
-      <c r="J9" s="270"/>
-      <c r="K9" s="270"/>
-      <c r="L9" s="270"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="254"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="254"/>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
-      <c r="C10" s="334" t="s">
+      <c r="C10" s="351" t="s">
         <v>249</v>
       </c>
-      <c r="D10" s="335"/>
-      <c r="E10" s="335"/>
-      <c r="F10" s="335"/>
-      <c r="G10" s="335"/>
+      <c r="D10" s="352"/>
+      <c r="E10" s="352"/>
+      <c r="F10" s="352"/>
+      <c r="G10" s="352"/>
       <c r="H10" s="197"/>
       <c r="I10" s="100"/>
       <c r="J10" s="100"/>
@@ -19543,19 +19535,19 @@
     </row>
     <row r="4" spans="2:15" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7"/>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="246" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="273"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="257"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="257"/>
+      <c r="M4" s="257"/>
       <c r="N4" s="8"/>
       <c r="O4" s="2" t="s">
         <v>18</v>
@@ -19578,49 +19570,49 @@
     </row>
     <row r="6" spans="2:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="45"/>
-      <c r="C6" s="270" t="s">
+      <c r="C6" s="254" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="270"/>
-      <c r="H6" s="270"/>
-      <c r="I6" s="270"/>
-      <c r="J6" s="270"/>
-      <c r="K6" s="270"/>
-      <c r="L6" s="270"/>
-      <c r="M6" s="270"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="254"/>
+      <c r="J6" s="254"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="254"/>
+      <c r="M6" s="254"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="45"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="270"/>
-      <c r="F7" s="270"/>
-      <c r="G7" s="270"/>
-      <c r="H7" s="270"/>
-      <c r="I7" s="270"/>
-      <c r="J7" s="270"/>
-      <c r="K7" s="270"/>
-      <c r="L7" s="270"/>
-      <c r="M7" s="270"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="254"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="254"/>
+      <c r="M7" s="254"/>
       <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:15" s="47" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="45"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="270"/>
-      <c r="E8" s="270"/>
-      <c r="F8" s="270"/>
-      <c r="G8" s="270"/>
-      <c r="H8" s="270"/>
-      <c r="I8" s="270"/>
-      <c r="J8" s="270"/>
-      <c r="K8" s="270"/>
-      <c r="L8" s="270"/>
-      <c r="M8" s="270"/>
+      <c r="C8" s="254"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="254"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="254"/>
       <c r="N8" s="46"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
@@ -19745,19 +19737,19 @@
     </row>
     <row r="17" spans="2:15" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
-      <c r="C17" s="275" t="s">
+      <c r="C17" s="259" t="s">
         <v>247</v>
       </c>
-      <c r="D17" s="275"/>
-      <c r="E17" s="275"/>
-      <c r="F17" s="275"/>
-      <c r="G17" s="275"/>
-      <c r="H17" s="275"/>
-      <c r="I17" s="275"/>
-      <c r="J17" s="381"/>
-      <c r="K17" s="381"/>
-      <c r="L17" s="381"/>
-      <c r="M17" s="381"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="384"/>
+      <c r="K17" s="384"/>
+      <c r="L17" s="384"/>
+      <c r="M17" s="384"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:15" s="140" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19779,11 +19771,11 @@
       <c r="B19" s="7"/>
       <c r="D19" s="103"/>
       <c r="E19" s="103"/>
-      <c r="F19" s="383" t="s">
+      <c r="F19" s="381" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="383"/>
-      <c r="H19" s="383"/>
+      <c r="G19" s="381"/>
+      <c r="H19" s="381"/>
       <c r="I19" s="1"/>
       <c r="J19" s="310" t="s">
         <v>179</v>
@@ -19800,37 +19792,37 @@
       </c>
       <c r="D20" s="103"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="384" t="e">
+      <c r="F20" s="382" t="e">
         <f>IF(E29=0,"",IF((E29&lt;=0.725)+(E30&lt;=0.725)+(E31&lt;=0.725)+(J29&gt;=1.25)+(J30&gt;=1.25)+(J31&gt;=1.25)+(E38&lt;=0.85)+(E39&lt;=0.85)+(E40&lt;=0.85)+(J38&gt;=1.15)+(J39&gt;=1.15)+(J40&gt;=1.15)+(E47&lt;=0.85)+(E48&lt;=0.85)+(E49&lt;=0.85)+(J47&gt;=1.15)+(J48&gt;=1.15)+(J49&gt;=1.15),"FAIL","PASS"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="384"/>
-      <c r="H20" s="384"/>
+      <c r="G20" s="382"/>
+      <c r="H20" s="382"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="384" t="e">
+      <c r="J20" s="382" t="e">
         <f>IF(E59=0,"",IF((E59&lt;=0.8)+(E60&lt;=0.8)+(E61&lt;=0.8)+(J59&gt;=1.2)+(J60&gt;=1.2)+(J61&gt;=1.2)+(E68&lt;=0.85)+(E69&lt;=0.85)+(E70&lt;=0.85)+(J68&gt;=1.15)+(J69&gt;=1.15)+(J70&gt;=1.15)+(E77&lt;=0.85)+(E78&lt;=0.85)+(E79&lt;=0.85)+(J77&gt;=1.15)+(J78&gt;=1.15)+(J79&gt;=1.15),"FAIL","PASS"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="384"/>
-      <c r="L20" s="384"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="382"/>
       <c r="M20" s="9"/>
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B21" s="7"/>
-      <c r="C21" s="382" t="s">
+      <c r="C21" s="380" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="382"/>
-      <c r="E21" s="382"/>
-      <c r="F21" s="382"/>
-      <c r="G21" s="382"/>
-      <c r="H21" s="382"/>
-      <c r="I21" s="382"/>
-      <c r="J21" s="382"/>
-      <c r="K21" s="382"/>
-      <c r="L21" s="382"/>
-      <c r="M21" s="382"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="380"/>
+      <c r="H21" s="380"/>
+      <c r="I21" s="380"/>
+      <c r="J21" s="380"/>
+      <c r="K21" s="380"/>
+      <c r="L21" s="380"/>
+      <c r="M21" s="380"/>
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
@@ -19872,7 +19864,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
-      <c r="C23" s="267" t="s">
+      <c r="C23" s="265" t="s">
         <v>84</v>
       </c>
       <c r="D23" s="104" t="s">
@@ -19891,7 +19883,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
-      <c r="C24" s="267"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="104" t="s">
         <v>3</v>
       </c>
@@ -19908,7 +19900,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="7"/>
-      <c r="C25" s="267"/>
+      <c r="C25" s="265"/>
       <c r="D25" s="104" t="s">
         <v>4</v>
       </c>
@@ -19925,7 +19917,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
-      <c r="C26" s="267"/>
+      <c r="C26" s="265"/>
       <c r="D26" s="104" t="s">
         <v>5</v>
       </c>
@@ -19969,7 +19961,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
-      <c r="C27" s="267"/>
+      <c r="C27" s="265"/>
       <c r="D27" s="104" t="s">
         <v>6</v>
       </c>
@@ -20013,7 +20005,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
-      <c r="C28" s="267"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="104" t="s">
         <v>7</v>
       </c>
@@ -20057,82 +20049,82 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
-      <c r="C29" s="267"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="380" t="e">
+      <c r="E29" s="383" t="e">
         <f>MIN(E26:L26)/M26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="380"/>
-      <c r="G29" s="380"/>
-      <c r="H29" s="380"/>
+      <c r="F29" s="383"/>
+      <c r="G29" s="383"/>
+      <c r="H29" s="383"/>
       <c r="I29" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="380" t="e">
+      <c r="J29" s="383" t="e">
         <f>MAX(E26:L26)/M26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="380"/>
-      <c r="L29" s="380"/>
-      <c r="M29" s="380"/>
+      <c r="K29" s="383"/>
+      <c r="L29" s="383"/>
+      <c r="M29" s="383"/>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B30" s="7"/>
-      <c r="C30" s="267"/>
+      <c r="C30" s="265"/>
       <c r="D30" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="380" t="e">
+      <c r="E30" s="383" t="e">
         <f t="shared" ref="E30:E31" si="3">MIN(E27:L27)/M27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="380"/>
-      <c r="G30" s="380"/>
-      <c r="H30" s="380"/>
+      <c r="F30" s="383"/>
+      <c r="G30" s="383"/>
+      <c r="H30" s="383"/>
       <c r="I30" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="380" t="e">
+      <c r="J30" s="383" t="e">
         <f t="shared" ref="J30:J31" si="4">MAX(E27:L27)/M27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="380"/>
-      <c r="L30" s="380"/>
-      <c r="M30" s="380"/>
+      <c r="K30" s="383"/>
+      <c r="L30" s="383"/>
+      <c r="M30" s="383"/>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B31" s="7"/>
-      <c r="C31" s="267"/>
+      <c r="C31" s="265"/>
       <c r="D31" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="380" t="e">
+      <c r="E31" s="383" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="380"/>
-      <c r="G31" s="380"/>
-      <c r="H31" s="380"/>
+      <c r="F31" s="383"/>
+      <c r="G31" s="383"/>
+      <c r="H31" s="383"/>
       <c r="I31" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="380" t="e">
+      <c r="J31" s="383" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="380"/>
-      <c r="L31" s="380"/>
-      <c r="M31" s="380"/>
+      <c r="K31" s="383"/>
+      <c r="L31" s="383"/>
+      <c r="M31" s="383"/>
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B32" s="7"/>
-      <c r="C32" s="267" t="s">
+      <c r="C32" s="265" t="s">
         <v>86</v>
       </c>
       <c r="D32" s="104" t="s">
@@ -20151,7 +20143,7 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="7"/>
-      <c r="C33" s="267"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="104" t="s">
         <v>3</v>
       </c>
@@ -20168,7 +20160,7 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="7"/>
-      <c r="C34" s="267"/>
+      <c r="C34" s="265"/>
       <c r="D34" s="104" t="s">
         <v>4</v>
       </c>
@@ -20185,7 +20177,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="7"/>
-      <c r="C35" s="267"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="104" t="s">
         <v>5</v>
       </c>
@@ -20229,7 +20221,7 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="7"/>
-      <c r="C36" s="267"/>
+      <c r="C36" s="265"/>
       <c r="D36" s="104" t="s">
         <v>6</v>
       </c>
@@ -20273,7 +20265,7 @@
     </row>
     <row r="37" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7"/>
-      <c r="C37" s="267"/>
+      <c r="C37" s="265"/>
       <c r="D37" s="104" t="s">
         <v>7</v>
       </c>
@@ -20317,82 +20309,82 @@
     </row>
     <row r="38" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="7"/>
-      <c r="C38" s="267"/>
+      <c r="C38" s="265"/>
       <c r="D38" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="380" t="e">
+      <c r="E38" s="383" t="e">
         <f>MIN(E35:L35)/M35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="380"/>
-      <c r="G38" s="380"/>
-      <c r="H38" s="380"/>
+      <c r="F38" s="383"/>
+      <c r="G38" s="383"/>
+      <c r="H38" s="383"/>
       <c r="I38" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="J38" s="380" t="e">
+      <c r="J38" s="383" t="e">
         <f>MAX(E35:L35)/M35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="380"/>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
+      <c r="K38" s="383"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="7"/>
-      <c r="C39" s="267"/>
+      <c r="C39" s="265"/>
       <c r="D39" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="380" t="e">
+      <c r="E39" s="383" t="e">
         <f t="shared" ref="E39:E40" si="8">MIN(E36:L36)/M36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="380"/>
-      <c r="G39" s="380"/>
-      <c r="H39" s="380"/>
+      <c r="F39" s="383"/>
+      <c r="G39" s="383"/>
+      <c r="H39" s="383"/>
       <c r="I39" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="J39" s="380" t="e">
+      <c r="J39" s="383" t="e">
         <f t="shared" ref="J39:J40" si="9">MAX(E36:L36)/M36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="380"/>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
+      <c r="K39" s="383"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="7"/>
-      <c r="C40" s="267"/>
+      <c r="C40" s="265"/>
       <c r="D40" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="380" t="e">
+      <c r="E40" s="383" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="380"/>
-      <c r="G40" s="380"/>
-      <c r="H40" s="380"/>
+      <c r="F40" s="383"/>
+      <c r="G40" s="383"/>
+      <c r="H40" s="383"/>
       <c r="I40" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="380" t="e">
+      <c r="J40" s="383" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="380"/>
-      <c r="L40" s="380"/>
-      <c r="M40" s="380"/>
+      <c r="K40" s="383"/>
+      <c r="L40" s="383"/>
+      <c r="M40" s="383"/>
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7"/>
-      <c r="C41" s="267" t="s">
+      <c r="C41" s="265" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="104" t="s">
@@ -20411,7 +20403,7 @@
     </row>
     <row r="42" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7"/>
-      <c r="C42" s="267"/>
+      <c r="C42" s="265"/>
       <c r="D42" s="104" t="s">
         <v>3</v>
       </c>
@@ -20428,7 +20420,7 @@
     </row>
     <row r="43" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7"/>
-      <c r="C43" s="267"/>
+      <c r="C43" s="265"/>
       <c r="D43" s="104" t="s">
         <v>4</v>
       </c>
@@ -20445,7 +20437,7 @@
     </row>
     <row r="44" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7"/>
-      <c r="C44" s="267"/>
+      <c r="C44" s="265"/>
       <c r="D44" s="104" t="s">
         <v>5</v>
       </c>
@@ -20489,7 +20481,7 @@
     </row>
     <row r="45" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7"/>
-      <c r="C45" s="267"/>
+      <c r="C45" s="265"/>
       <c r="D45" s="104" t="s">
         <v>6</v>
       </c>
@@ -20533,7 +20525,7 @@
     </row>
     <row r="46" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7"/>
-      <c r="C46" s="267"/>
+      <c r="C46" s="265"/>
       <c r="D46" s="104" t="s">
         <v>7</v>
       </c>
@@ -20577,77 +20569,77 @@
     </row>
     <row r="47" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="7"/>
-      <c r="C47" s="267"/>
+      <c r="C47" s="265"/>
       <c r="D47" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="380" t="e">
+      <c r="E47" s="383" t="e">
         <f>MIN(E44:L44)/M44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="380"/>
-      <c r="G47" s="380"/>
-      <c r="H47" s="380"/>
+      <c r="F47" s="383"/>
+      <c r="G47" s="383"/>
+      <c r="H47" s="383"/>
       <c r="I47" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="380" t="e">
+      <c r="J47" s="383" t="e">
         <f>MAX(E44:L44)/M44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K47" s="380"/>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
+      <c r="K47" s="383"/>
+      <c r="L47" s="383"/>
+      <c r="M47" s="383"/>
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7"/>
-      <c r="C48" s="267"/>
+      <c r="C48" s="265"/>
       <c r="D48" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="380" t="e">
+      <c r="E48" s="383" t="e">
         <f t="shared" ref="E48:E49" si="13">MIN(E45:L45)/M45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" s="380"/>
-      <c r="G48" s="380"/>
-      <c r="H48" s="380"/>
+      <c r="F48" s="383"/>
+      <c r="G48" s="383"/>
+      <c r="H48" s="383"/>
       <c r="I48" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="380" t="e">
+      <c r="J48" s="383" t="e">
         <f t="shared" ref="J48:J49" si="14">MAX(E45:L45)/M45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K48" s="380"/>
-      <c r="L48" s="380"/>
-      <c r="M48" s="380"/>
+      <c r="K48" s="383"/>
+      <c r="L48" s="383"/>
+      <c r="M48" s="383"/>
       <c r="N48" s="8"/>
     </row>
     <row r="49" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7"/>
-      <c r="C49" s="267"/>
+      <c r="C49" s="265"/>
       <c r="D49" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="380" t="e">
+      <c r="E49" s="383" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="380"/>
-      <c r="G49" s="380"/>
-      <c r="H49" s="380"/>
+      <c r="F49" s="383"/>
+      <c r="G49" s="383"/>
+      <c r="H49" s="383"/>
       <c r="I49" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="380" t="e">
+      <c r="J49" s="383" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="380"/>
-      <c r="L49" s="380"/>
-      <c r="M49" s="380"/>
+      <c r="K49" s="383"/>
+      <c r="L49" s="383"/>
+      <c r="M49" s="383"/>
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.15">
@@ -20667,19 +20659,19 @@
     </row>
     <row r="51" spans="2:14" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B51" s="7"/>
-      <c r="C51" s="382" t="s">
+      <c r="C51" s="380" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="382"/>
-      <c r="E51" s="382"/>
-      <c r="F51" s="382"/>
-      <c r="G51" s="382"/>
-      <c r="H51" s="382"/>
-      <c r="I51" s="382"/>
-      <c r="J51" s="382"/>
-      <c r="K51" s="382"/>
-      <c r="L51" s="382"/>
-      <c r="M51" s="382"/>
+      <c r="D51" s="380"/>
+      <c r="E51" s="380"/>
+      <c r="F51" s="380"/>
+      <c r="G51" s="380"/>
+      <c r="H51" s="380"/>
+      <c r="I51" s="380"/>
+      <c r="J51" s="380"/>
+      <c r="K51" s="380"/>
+      <c r="L51" s="380"/>
+      <c r="M51" s="380"/>
       <c r="N51" s="8"/>
     </row>
     <row r="52" spans="2:14" ht="17.25" x14ac:dyDescent="0.15">
@@ -20721,7 +20713,7 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53" s="7"/>
-      <c r="C53" s="267" t="s">
+      <c r="C53" s="265" t="s">
         <v>84</v>
       </c>
       <c r="D53" s="104" t="s">
@@ -20740,7 +20732,7 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="7"/>
-      <c r="C54" s="267"/>
+      <c r="C54" s="265"/>
       <c r="D54" s="104" t="s">
         <v>3</v>
       </c>
@@ -20757,7 +20749,7 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="7"/>
-      <c r="C55" s="267"/>
+      <c r="C55" s="265"/>
       <c r="D55" s="104" t="s">
         <v>4</v>
       </c>
@@ -20774,7 +20766,7 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="7"/>
-      <c r="C56" s="267"/>
+      <c r="C56" s="265"/>
       <c r="D56" s="104" t="s">
         <v>5</v>
       </c>
@@ -20818,7 +20810,7 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="7"/>
-      <c r="C57" s="267"/>
+      <c r="C57" s="265"/>
       <c r="D57" s="104" t="s">
         <v>6</v>
       </c>
@@ -20862,7 +20854,7 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58" s="7"/>
-      <c r="C58" s="267"/>
+      <c r="C58" s="265"/>
       <c r="D58" s="104" t="s">
         <v>7</v>
       </c>
@@ -20906,82 +20898,82 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59" s="7"/>
-      <c r="C59" s="267"/>
+      <c r="C59" s="265"/>
       <c r="D59" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="380" t="e">
+      <c r="E59" s="383" t="e">
         <f>MIN(E56:L56)/M56</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F59" s="380"/>
-      <c r="G59" s="380"/>
-      <c r="H59" s="380"/>
+      <c r="F59" s="383"/>
+      <c r="G59" s="383"/>
+      <c r="H59" s="383"/>
       <c r="I59" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="380" t="e">
+      <c r="J59" s="383" t="e">
         <f>MAX(E56:L56)/M56</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K59" s="380"/>
-      <c r="L59" s="380"/>
-      <c r="M59" s="380"/>
+      <c r="K59" s="383"/>
+      <c r="L59" s="383"/>
+      <c r="M59" s="383"/>
       <c r="N59" s="8"/>
     </row>
     <row r="60" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="7"/>
-      <c r="C60" s="267"/>
+      <c r="C60" s="265"/>
       <c r="D60" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="380" t="e">
+      <c r="E60" s="383" t="e">
         <f t="shared" ref="E60:E61" si="18">MIN(E57:L57)/M57</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F60" s="380"/>
-      <c r="G60" s="380"/>
-      <c r="H60" s="380"/>
+      <c r="F60" s="383"/>
+      <c r="G60" s="383"/>
+      <c r="H60" s="383"/>
       <c r="I60" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="J60" s="380" t="e">
+      <c r="J60" s="383" t="e">
         <f t="shared" ref="J60:J61" si="19">MAX(E57:L57)/M57</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K60" s="380"/>
-      <c r="L60" s="380"/>
-      <c r="M60" s="380"/>
+      <c r="K60" s="383"/>
+      <c r="L60" s="383"/>
+      <c r="M60" s="383"/>
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="7"/>
-      <c r="C61" s="267"/>
+      <c r="C61" s="265"/>
       <c r="D61" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="380" t="e">
+      <c r="E61" s="383" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F61" s="380"/>
-      <c r="G61" s="380"/>
-      <c r="H61" s="380"/>
+      <c r="F61" s="383"/>
+      <c r="G61" s="383"/>
+      <c r="H61" s="383"/>
       <c r="I61" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="380" t="e">
+      <c r="J61" s="383" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K61" s="380"/>
-      <c r="L61" s="380"/>
-      <c r="M61" s="380"/>
+      <c r="K61" s="383"/>
+      <c r="L61" s="383"/>
+      <c r="M61" s="383"/>
       <c r="N61" s="8"/>
     </row>
     <row r="62" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7"/>
-      <c r="C62" s="267" t="s">
+      <c r="C62" s="265" t="s">
         <v>86</v>
       </c>
       <c r="D62" s="104" t="s">
@@ -21000,7 +20992,7 @@
     </row>
     <row r="63" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="7"/>
-      <c r="C63" s="267"/>
+      <c r="C63" s="265"/>
       <c r="D63" s="104" t="s">
         <v>3</v>
       </c>
@@ -21017,7 +21009,7 @@
     </row>
     <row r="64" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="7"/>
-      <c r="C64" s="267"/>
+      <c r="C64" s="265"/>
       <c r="D64" s="104" t="s">
         <v>4</v>
       </c>
@@ -21034,7 +21026,7 @@
     </row>
     <row r="65" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="7"/>
-      <c r="C65" s="267"/>
+      <c r="C65" s="265"/>
       <c r="D65" s="104" t="s">
         <v>5</v>
       </c>
@@ -21078,7 +21070,7 @@
     </row>
     <row r="66" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="7"/>
-      <c r="C66" s="267"/>
+      <c r="C66" s="265"/>
       <c r="D66" s="104" t="s">
         <v>6</v>
       </c>
@@ -21122,7 +21114,7 @@
     </row>
     <row r="67" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="7"/>
-      <c r="C67" s="267"/>
+      <c r="C67" s="265"/>
       <c r="D67" s="104" t="s">
         <v>7</v>
       </c>
@@ -21166,82 +21158,82 @@
     </row>
     <row r="68" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="7"/>
-      <c r="C68" s="267"/>
+      <c r="C68" s="265"/>
       <c r="D68" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="380" t="e">
+      <c r="E68" s="383" t="e">
         <f>MIN(E65:L65)/M65</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F68" s="380"/>
-      <c r="G68" s="380"/>
-      <c r="H68" s="380"/>
+      <c r="F68" s="383"/>
+      <c r="G68" s="383"/>
+      <c r="H68" s="383"/>
       <c r="I68" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="J68" s="380" t="e">
+      <c r="J68" s="383" t="e">
         <f>MAX(E65:L65)/M65</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K68" s="380"/>
-      <c r="L68" s="380"/>
-      <c r="M68" s="380"/>
+      <c r="K68" s="383"/>
+      <c r="L68" s="383"/>
+      <c r="M68" s="383"/>
       <c r="N68" s="8"/>
     </row>
     <row r="69" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="7"/>
-      <c r="C69" s="267"/>
+      <c r="C69" s="265"/>
       <c r="D69" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="380" t="e">
+      <c r="E69" s="383" t="e">
         <f t="shared" ref="E69:E70" si="23">MIN(E66:L66)/M66</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F69" s="380"/>
-      <c r="G69" s="380"/>
-      <c r="H69" s="380"/>
+      <c r="F69" s="383"/>
+      <c r="G69" s="383"/>
+      <c r="H69" s="383"/>
       <c r="I69" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="380" t="e">
+      <c r="J69" s="383" t="e">
         <f t="shared" ref="J69:J70" si="24">MAX(E66:L66)/M66</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K69" s="380"/>
-      <c r="L69" s="380"/>
-      <c r="M69" s="380"/>
+      <c r="K69" s="383"/>
+      <c r="L69" s="383"/>
+      <c r="M69" s="383"/>
       <c r="N69" s="8"/>
     </row>
     <row r="70" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="7"/>
-      <c r="C70" s="267"/>
+      <c r="C70" s="265"/>
       <c r="D70" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="380" t="e">
+      <c r="E70" s="383" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F70" s="380"/>
-      <c r="G70" s="380"/>
-      <c r="H70" s="380"/>
+      <c r="F70" s="383"/>
+      <c r="G70" s="383"/>
+      <c r="H70" s="383"/>
       <c r="I70" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="380" t="e">
+      <c r="J70" s="383" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K70" s="380"/>
-      <c r="L70" s="380"/>
-      <c r="M70" s="380"/>
+      <c r="K70" s="383"/>
+      <c r="L70" s="383"/>
+      <c r="M70" s="383"/>
       <c r="N70" s="8"/>
     </row>
     <row r="71" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="7"/>
-      <c r="C71" s="267" t="s">
+      <c r="C71" s="265" t="s">
         <v>87</v>
       </c>
       <c r="D71" s="104" t="s">
@@ -21260,7 +21252,7 @@
     </row>
     <row r="72" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="7"/>
-      <c r="C72" s="267"/>
+      <c r="C72" s="265"/>
       <c r="D72" s="104" t="s">
         <v>3</v>
       </c>
@@ -21277,7 +21269,7 @@
     </row>
     <row r="73" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="7"/>
-      <c r="C73" s="267"/>
+      <c r="C73" s="265"/>
       <c r="D73" s="104" t="s">
         <v>4</v>
       </c>
@@ -21294,7 +21286,7 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B74" s="7"/>
-      <c r="C74" s="267"/>
+      <c r="C74" s="265"/>
       <c r="D74" s="104" t="s">
         <v>5</v>
       </c>
@@ -21338,7 +21330,7 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B75" s="7"/>
-      <c r="C75" s="267"/>
+      <c r="C75" s="265"/>
       <c r="D75" s="104" t="s">
         <v>6</v>
       </c>
@@ -21382,7 +21374,7 @@
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B76" s="7"/>
-      <c r="C76" s="267"/>
+      <c r="C76" s="265"/>
       <c r="D76" s="104" t="s">
         <v>7</v>
       </c>
@@ -21426,77 +21418,77 @@
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B77" s="7"/>
-      <c r="C77" s="267"/>
+      <c r="C77" s="265"/>
       <c r="D77" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="380" t="e">
+      <c r="E77" s="383" t="e">
         <f>MIN(E74:L74)/M74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F77" s="380"/>
-      <c r="G77" s="380"/>
-      <c r="H77" s="380"/>
+      <c r="F77" s="383"/>
+      <c r="G77" s="383"/>
+      <c r="H77" s="383"/>
       <c r="I77" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="J77" s="380" t="e">
+      <c r="J77" s="383" t="e">
         <f>MAX(E74:L74)/M74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K77" s="380"/>
-      <c r="L77" s="380"/>
-      <c r="M77" s="380"/>
+      <c r="K77" s="383"/>
+      <c r="L77" s="383"/>
+      <c r="M77" s="383"/>
       <c r="N77" s="8"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B78" s="7"/>
-      <c r="C78" s="267"/>
+      <c r="C78" s="265"/>
       <c r="D78" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="380" t="e">
+      <c r="E78" s="383" t="e">
         <f t="shared" ref="E78:E79" si="28">MIN(E75:L75)/M75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F78" s="380"/>
-      <c r="G78" s="380"/>
-      <c r="H78" s="380"/>
+      <c r="F78" s="383"/>
+      <c r="G78" s="383"/>
+      <c r="H78" s="383"/>
       <c r="I78" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="J78" s="380" t="e">
+      <c r="J78" s="383" t="e">
         <f t="shared" ref="J78:J79" si="29">MAX(E75:L75)/M75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K78" s="380"/>
-      <c r="L78" s="380"/>
-      <c r="M78" s="380"/>
+      <c r="K78" s="383"/>
+      <c r="L78" s="383"/>
+      <c r="M78" s="383"/>
       <c r="N78" s="8"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B79" s="7"/>
-      <c r="C79" s="267"/>
+      <c r="C79" s="265"/>
       <c r="D79" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="380" t="e">
+      <c r="E79" s="383" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F79" s="380"/>
-      <c r="G79" s="380"/>
-      <c r="H79" s="380"/>
+      <c r="F79" s="383"/>
+      <c r="G79" s="383"/>
+      <c r="H79" s="383"/>
       <c r="I79" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J79" s="380" t="e">
+      <c r="J79" s="383" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K79" s="380"/>
-      <c r="L79" s="380"/>
-      <c r="M79" s="380"/>
+      <c r="K79" s="383"/>
+      <c r="L79" s="383"/>
+      <c r="M79" s="383"/>
       <c r="N79" s="18"/>
     </row>
     <row r="80" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21532,6 +21524,41 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="51">
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="C6:M8"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="C53:C61"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="C62:C70"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="C71:C79"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="J79:M79"/>
     <mergeCell ref="C51:M51"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="J19:L19"/>
@@ -21548,41 +21575,6 @@
     <mergeCell ref="E47:H47"/>
     <mergeCell ref="J47:M47"/>
     <mergeCell ref="E48:H48"/>
-    <mergeCell ref="C71:C79"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="C62:C70"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="C53:C61"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="C6:M8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J29:M31 E29:H31">
@@ -21658,15 +21650,15 @@
     </row>
     <row r="4" spans="2:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B4" s="58"/>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="246" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="237"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="59"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
@@ -21682,15 +21674,15 @@
     </row>
     <row r="6" spans="2:11" ht="18" x14ac:dyDescent="0.15">
       <c r="B6" s="58"/>
-      <c r="C6" s="386" t="s">
+      <c r="C6" s="403" t="s">
         <v>317</v>
       </c>
-      <c r="D6" s="387"/>
-      <c r="E6" s="387"/>
-      <c r="F6" s="387"/>
-      <c r="G6" s="387"/>
-      <c r="H6" s="387"/>
-      <c r="I6" s="387"/>
+      <c r="D6" s="404"/>
+      <c r="E6" s="404"/>
+      <c r="F6" s="404"/>
+      <c r="G6" s="404"/>
+      <c r="H6" s="404"/>
+      <c r="I6" s="404"/>
       <c r="J6" s="59"/>
     </row>
     <row r="7" spans="2:11" ht="18" x14ac:dyDescent="0.15">
@@ -21729,20 +21721,20 @@
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="61"/>
-      <c r="F9" s="391"/>
-      <c r="G9" s="391"/>
-      <c r="H9" s="391"/>
-      <c r="I9" s="391"/>
+      <c r="F9" s="408"/>
+      <c r="G9" s="408"/>
+      <c r="H9" s="408"/>
+      <c r="I9" s="408"/>
       <c r="J9" s="20"/>
       <c r="K9" s="118"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B10" s="58"/>
-      <c r="C10" s="267" t="s">
+      <c r="C10" s="265" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="267"/>
-      <c r="E10" s="267"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
       <c r="F10" s="379" t="s">
         <v>98</v>
       </c>
@@ -21755,13 +21747,13 @@
     </row>
     <row r="11" spans="2:11" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B11" s="58"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="267"/>
-      <c r="F11" s="388"/>
-      <c r="G11" s="389"/>
-      <c r="H11" s="388"/>
-      <c r="I11" s="390"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="405"/>
+      <c r="G11" s="406"/>
+      <c r="H11" s="405"/>
+      <c r="I11" s="407"/>
       <c r="J11" s="59"/>
     </row>
     <row r="12" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21791,15 +21783,15 @@
     </row>
     <row r="15" spans="2:11" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B15" s="58"/>
-      <c r="C15" s="237" t="s">
+      <c r="C15" s="246" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="237"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="273"/>
-      <c r="G15" s="273"/>
-      <c r="H15" s="273"/>
-      <c r="I15" s="273"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="257"/>
+      <c r="G15" s="257"/>
+      <c r="H15" s="257"/>
+      <c r="I15" s="257"/>
       <c r="J15" s="59"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
@@ -21815,39 +21807,39 @@
     </row>
     <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="58"/>
-      <c r="C17" s="270" t="s">
+      <c r="C17" s="254" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="270"/>
-      <c r="E17" s="270"/>
-      <c r="F17" s="270"/>
-      <c r="G17" s="270"/>
-      <c r="H17" s="270"/>
-      <c r="I17" s="270"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
       <c r="J17" s="59"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B18" s="58"/>
-      <c r="C18" s="396" t="s">
+      <c r="C18" s="392" t="s">
         <v>263</v>
       </c>
-      <c r="D18" s="397"/>
-      <c r="E18" s="392" t="s">
+      <c r="D18" s="393"/>
+      <c r="E18" s="398" t="s">
         <v>291</v>
       </c>
-      <c r="F18" s="271" t="s">
+      <c r="F18" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="271"/>
-      <c r="H18" s="271"/>
-      <c r="I18" s="271"/>
+      <c r="G18" s="255"/>
+      <c r="H18" s="255"/>
+      <c r="I18" s="255"/>
       <c r="J18" s="59"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="58"/>
-      <c r="C19" s="398"/>
-      <c r="D19" s="399"/>
-      <c r="E19" s="393"/>
+      <c r="C19" s="394"/>
+      <c r="D19" s="395"/>
+      <c r="E19" s="399"/>
       <c r="F19" s="102" t="s">
         <v>292</v>
       </c>
@@ -21864,10 +21856,10 @@
     </row>
     <row r="20" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="58"/>
-      <c r="C20" s="400" t="s">
+      <c r="C20" s="396" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="401"/>
+      <c r="D20" s="397"/>
       <c r="E20" s="69">
         <v>30</v>
       </c>
@@ -21887,10 +21879,10 @@
     </row>
     <row r="21" spans="2:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="58"/>
-      <c r="C21" s="402" t="s">
+      <c r="C21" s="385" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="403"/>
+      <c r="D21" s="386"/>
       <c r="E21" s="69">
         <v>30</v>
       </c>
@@ -21921,26 +21913,26 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B23" s="58"/>
-      <c r="C23" s="396" t="s">
+      <c r="C23" s="392" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="397"/>
-      <c r="E23" s="392" t="s">
+      <c r="D23" s="393"/>
+      <c r="E23" s="398" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="271" t="s">
+      <c r="F23" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="271"/>
-      <c r="H23" s="271"/>
-      <c r="I23" s="271"/>
+      <c r="G23" s="255"/>
+      <c r="H23" s="255"/>
+      <c r="I23" s="255"/>
       <c r="J23" s="59"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B24" s="58"/>
-      <c r="C24" s="398"/>
-      <c r="D24" s="399"/>
-      <c r="E24" s="393"/>
+      <c r="C24" s="394"/>
+      <c r="D24" s="395"/>
+      <c r="E24" s="399"/>
       <c r="F24" s="102" t="s">
         <v>103</v>
       </c>
@@ -21957,10 +21949,10 @@
     </row>
     <row r="25" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="58"/>
-      <c r="C25" s="400" t="s">
+      <c r="C25" s="396" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="401"/>
+      <c r="D25" s="397"/>
       <c r="E25" s="69">
         <v>10</v>
       </c>
@@ -21980,10 +21972,10 @@
     </row>
     <row r="26" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="58"/>
-      <c r="C26" s="402" t="s">
+      <c r="C26" s="385" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="403"/>
+      <c r="D26" s="386"/>
       <c r="E26" s="69">
         <v>24</v>
       </c>
@@ -22003,15 +21995,15 @@
     </row>
     <row r="27" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="58"/>
-      <c r="C27" s="394" t="s">
+      <c r="C27" s="400" t="s">
         <v>318</v>
       </c>
-      <c r="D27" s="395"/>
-      <c r="E27" s="395"/>
-      <c r="F27" s="395"/>
-      <c r="G27" s="395"/>
-      <c r="H27" s="395"/>
-      <c r="I27" s="395"/>
+      <c r="D27" s="401"/>
+      <c r="E27" s="401"/>
+      <c r="F27" s="401"/>
+      <c r="G27" s="401"/>
+      <c r="H27" s="401"/>
+      <c r="I27" s="401"/>
       <c r="J27" s="59"/>
       <c r="O27" s="53" t="s">
         <v>264</v>
@@ -22019,11 +22011,11 @@
     </row>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="58"/>
-      <c r="C28" s="385"/>
-      <c r="D28" s="385"/>
-      <c r="E28" s="385"/>
-      <c r="F28" s="385"/>
-      <c r="G28" s="385"/>
+      <c r="C28" s="402"/>
+      <c r="D28" s="402"/>
+      <c r="E28" s="402"/>
+      <c r="F28" s="402"/>
+      <c r="G28" s="402"/>
       <c r="H28" s="100"/>
       <c r="I28" s="100"/>
       <c r="J28" s="59"/>
@@ -22050,34 +22042,34 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="62"/>
-      <c r="F30" s="247"/>
-      <c r="G30" s="247"/>
-      <c r="H30" s="247"/>
-      <c r="I30" s="247"/>
+      <c r="F30" s="266"/>
+      <c r="G30" s="266"/>
+      <c r="H30" s="266"/>
+      <c r="I30" s="266"/>
       <c r="J30" s="59"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="58"/>
-      <c r="C31" s="396" t="s">
+      <c r="C31" s="392" t="s">
         <v>263</v>
       </c>
-      <c r="D31" s="397"/>
-      <c r="E31" s="392" t="s">
+      <c r="D31" s="393"/>
+      <c r="E31" s="398" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="271" t="s">
+      <c r="F31" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="271"/>
-      <c r="H31" s="271"/>
-      <c r="I31" s="271"/>
+      <c r="G31" s="255"/>
+      <c r="H31" s="255"/>
+      <c r="I31" s="255"/>
       <c r="J31" s="59"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B32" s="58"/>
-      <c r="C32" s="398"/>
-      <c r="D32" s="399"/>
-      <c r="E32" s="393"/>
+      <c r="C32" s="394"/>
+      <c r="D32" s="395"/>
+      <c r="E32" s="399"/>
       <c r="F32" s="102" t="s">
         <v>103</v>
       </c>
@@ -22094,10 +22086,10 @@
     </row>
     <row r="33" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B33" s="58"/>
-      <c r="C33" s="400" t="s">
+      <c r="C33" s="396" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="401"/>
+      <c r="D33" s="397"/>
       <c r="E33" s="70"/>
       <c r="F33" s="70"/>
       <c r="G33" s="70"/>
@@ -22111,10 +22103,10 @@
     </row>
     <row r="34" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B34" s="58"/>
-      <c r="C34" s="402" t="s">
+      <c r="C34" s="385" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="403"/>
+      <c r="D34" s="386"/>
       <c r="E34" s="70"/>
       <c r="F34" s="70"/>
       <c r="G34" s="70"/>
@@ -22137,26 +22129,26 @@
     </row>
     <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B36" s="58"/>
-      <c r="C36" s="396" t="s">
+      <c r="C36" s="392" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="397"/>
-      <c r="E36" s="392" t="s">
+      <c r="D36" s="393"/>
+      <c r="E36" s="398" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="271" t="s">
+      <c r="F36" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="G36" s="271"/>
-      <c r="H36" s="271"/>
-      <c r="I36" s="271"/>
+      <c r="G36" s="255"/>
+      <c r="H36" s="255"/>
+      <c r="I36" s="255"/>
       <c r="J36" s="59"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B37" s="58"/>
-      <c r="C37" s="398"/>
-      <c r="D37" s="399"/>
-      <c r="E37" s="393"/>
+      <c r="C37" s="394"/>
+      <c r="D37" s="395"/>
+      <c r="E37" s="399"/>
       <c r="F37" s="102" t="s">
         <v>103</v>
       </c>
@@ -22173,10 +22165,10 @@
     </row>
     <row r="38" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B38" s="58"/>
-      <c r="C38" s="400" t="s">
+      <c r="C38" s="396" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="401"/>
+      <c r="D38" s="397"/>
       <c r="E38" s="72"/>
       <c r="F38" s="72"/>
       <c r="G38" s="72"/>
@@ -22190,10 +22182,10 @@
     </row>
     <row r="39" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B39" s="58"/>
-      <c r="C39" s="402" t="s">
+      <c r="C39" s="385" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="403"/>
+      <c r="D39" s="386"/>
       <c r="E39" s="70"/>
       <c r="F39" s="70"/>
       <c r="G39" s="70"/>
@@ -22227,15 +22219,15 @@
     </row>
     <row r="43" spans="2:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B43" s="58"/>
-      <c r="C43" s="237" t="s">
+      <c r="C43" s="246" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="237"/>
-      <c r="E43" s="273"/>
-      <c r="F43" s="273"/>
-      <c r="G43" s="273"/>
-      <c r="H43" s="273"/>
-      <c r="I43" s="273"/>
+      <c r="D43" s="246"/>
+      <c r="E43" s="257"/>
+      <c r="F43" s="257"/>
+      <c r="G43" s="257"/>
+      <c r="H43" s="257"/>
+      <c r="I43" s="257"/>
       <c r="J43" s="59"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
@@ -22251,15 +22243,15 @@
     </row>
     <row r="45" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="58"/>
-      <c r="C45" s="269" t="s">
+      <c r="C45" s="253" t="s">
         <v>260</v>
       </c>
-      <c r="D45" s="269"/>
-      <c r="E45" s="269"/>
-      <c r="F45" s="269"/>
-      <c r="G45" s="269"/>
-      <c r="H45" s="269"/>
-      <c r="I45" s="269"/>
+      <c r="D45" s="253"/>
+      <c r="E45" s="253"/>
+      <c r="F45" s="253"/>
+      <c r="G45" s="253"/>
+      <c r="H45" s="253"/>
+      <c r="I45" s="253"/>
       <c r="J45" s="59"/>
     </row>
     <row r="46" spans="2:10" ht="15.75" x14ac:dyDescent="0.15">
@@ -22293,34 +22285,34 @@
       <c r="C48" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="247"/>
-      <c r="E48" s="247"/>
-      <c r="F48" s="247"/>
-      <c r="G48" s="247"/>
-      <c r="H48" s="247"/>
-      <c r="I48" s="247"/>
+      <c r="D48" s="266"/>
+      <c r="E48" s="266"/>
+      <c r="F48" s="266"/>
+      <c r="G48" s="266"/>
+      <c r="H48" s="266"/>
+      <c r="I48" s="266"/>
       <c r="J48" s="59"/>
     </row>
     <row r="49" spans="2:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B49" s="58"/>
-      <c r="C49" s="407" t="s">
+      <c r="C49" s="390" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="404" t="s">
+      <c r="D49" s="387" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="405"/>
-      <c r="F49" s="406"/>
-      <c r="G49" s="404" t="s">
+      <c r="E49" s="388"/>
+      <c r="F49" s="389"/>
+      <c r="G49" s="387" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="405"/>
-      <c r="I49" s="406"/>
+      <c r="H49" s="388"/>
+      <c r="I49" s="389"/>
       <c r="J49" s="59"/>
     </row>
     <row r="50" spans="2:10" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B50" s="58"/>
-      <c r="C50" s="408"/>
+      <c r="C50" s="391"/>
       <c r="D50" s="105" t="s">
         <v>115</v>
       </c>
@@ -22381,38 +22373,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="48">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:I31"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="C17:I17"/>
@@ -22429,6 +22389,38 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:I18"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C43:I43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H30 F9 H9 E30:F30 D48:E48 G48">
@@ -22554,13 +22546,13 @@
     </row>
     <row r="4" spans="2:9" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B4" s="58"/>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="246" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
       <c r="H4" s="59"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
@@ -22574,7 +22566,7 @@
     </row>
     <row r="6" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="58"/>
-      <c r="C6" s="270" t="s">
+      <c r="C6" s="254" t="s">
         <v>345</v>
       </c>
       <c r="D6" s="307"/>
@@ -22701,10 +22693,10 @@
       <c r="C14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="247"/>
-      <c r="E14" s="247"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="247"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="266"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="266"/>
       <c r="H14" s="59"/>
     </row>
     <row r="15" spans="2:9" ht="17.25" x14ac:dyDescent="0.15">
@@ -22806,18 +22798,18 @@
     </row>
     <row r="23" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B23" s="58"/>
-      <c r="C23" s="237" t="s">
+      <c r="C23" s="246" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="273"/>
-      <c r="E23" s="273"/>
-      <c r="F23" s="273"/>
-      <c r="G23" s="273"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="257"/>
+      <c r="F23" s="257"/>
+      <c r="G23" s="257"/>
       <c r="H23" s="59"/>
     </row>
     <row r="24" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="58"/>
-      <c r="C24" s="270" t="s">
+      <c r="C24" s="254" t="s">
         <v>259</v>
       </c>
       <c r="D24" s="307"/>
@@ -22853,10 +22845,10 @@
       <c r="C27" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="247"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="247"/>
-      <c r="G27" s="247"/>
+      <c r="D27" s="266"/>
+      <c r="E27" s="266"/>
+      <c r="F27" s="266"/>
+      <c r="G27" s="266"/>
       <c r="H27" s="59"/>
     </row>
     <row r="28" spans="2:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -22897,11 +22889,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="21">
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
@@ -22918,6 +22905,11 @@
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D27 F27 D14 F14">
